--- a/data/DataDictionaryTT.xlsx
+++ b/data/DataDictionaryTT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\Gov50\gov50-final-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7CAD0E9-E689-4231-886E-125A955123D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA702D2-1A86-44FB-8BD1-5E4F6ED6CCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27B4F92F-7681-42E5-8C9F-7F07DDE11843}"/>
+    <workbookView xWindow="1240" yWindow="520" windowWidth="17020" windowHeight="9910" xr2:uid="{27B4F92F-7681-42E5-8C9F-7F07DDE11843}"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="2" r:id="rId1"/>
@@ -3164,37 +3164,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3204,24 +3177,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3236,6 +3191,51 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3554,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847E1FE3-2DC4-4B54-9F1D-04F649271F82}">
   <dimension ref="B1:G569"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3593,11 +3593,11 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>817</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
@@ -3635,17 +3635,17 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="46" t="s">
         <v>821</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
@@ -3739,17 +3739,17 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="46" t="s">
         <v>832</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="46"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="45" t="s">
         <v>880</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="7"/>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="45" t="s">
         <v>835</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="46"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="7"/>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="7"/>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="45" t="s">
         <v>836</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="7"/>
@@ -4043,21 +4043,21 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="47" t="s">
         <v>839</v>
       </c>
-      <c r="D57" s="30"/>
+      <c r="D57" s="47"/>
     </row>
     <row r="58" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="42" t="s">
         <v>844</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -4068,7 +4068,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="28"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="6" t="s">
         <v>47</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="28"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="6" t="s">
         <v>48</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="29"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="6" t="s">
         <v>49</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="42" t="s">
         <v>845</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="28"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="6" t="s">
         <v>51</v>
       </c>
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="28"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="6" t="s">
         <v>52</v>
       </c>
@@ -4124,7 +4124,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="29"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="6" t="s">
         <v>53</v>
       </c>
@@ -4133,7 +4133,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="42" t="s">
         <v>846</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -4144,7 +4144,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="28"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="6" t="s">
         <v>55</v>
       </c>
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="28"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="6" t="s">
         <v>56</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="29"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="6" t="s">
         <v>57</v>
       </c>
@@ -4171,7 +4171,7 @@
       </c>
     </row>
     <row r="70" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="42" t="s">
         <v>847</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -4182,7 +4182,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="28"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="6" t="s">
         <v>59</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="28"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="6" t="s">
         <v>60</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="29"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="6" t="s">
         <v>61</v>
       </c>
@@ -4209,7 +4209,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="42" t="s">
         <v>848</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -4220,7 +4220,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="28"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
@@ -4229,7 +4229,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="28"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="6" t="s">
         <v>64</v>
       </c>
@@ -4238,7 +4238,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="29"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="6" t="s">
         <v>65</v>
       </c>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
     <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="42" t="s">
         <v>849</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -4258,7 +4258,7 @@
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B79" s="28"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="6" t="s">
         <v>67</v>
       </c>
@@ -4267,7 +4267,7 @@
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="28"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="6" t="s">
         <v>68</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B81" s="29"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="6" t="s">
         <v>69</v>
       </c>
@@ -4285,7 +4285,7 @@
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="42" t="s">
         <v>850</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -4296,7 +4296,7 @@
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="28"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="6" t="s">
         <v>71</v>
       </c>
@@ -4305,7 +4305,7 @@
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B84" s="28"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="6" t="s">
         <v>72</v>
       </c>
@@ -4314,7 +4314,7 @@
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B85" s="29"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="6" t="s">
         <v>73</v>
       </c>
@@ -4323,7 +4323,7 @@
       </c>
     </row>
     <row r="86" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="42" t="s">
         <v>851</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -4334,7 +4334,7 @@
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="28"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="6" t="s">
         <v>75</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B88" s="28"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="6" t="s">
         <v>76</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B89" s="29"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="6" t="s">
         <v>77</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="42" t="s">
         <v>852</v>
       </c>
       <c r="C90" s="6" t="s">
@@ -4372,7 +4372,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B91" s="28"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="6" t="s">
         <v>79</v>
       </c>
@@ -4381,7 +4381,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B92" s="28"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="6" t="s">
         <v>80</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B93" s="29"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="6" t="s">
         <v>81</v>
       </c>
@@ -4399,18 +4399,18 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="24" t="s">
         <v>853</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="D95" s="25"/>
+      <c r="D95" s="23"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96" s="7"/>
@@ -4620,18 +4620,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B119" s="23" t="s">
+      <c r="B119" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="D120" s="25"/>
+      <c r="D120" s="23"/>
     </row>
     <row r="121" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B121" s="7"/>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122" s="7"/>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="23" t="s">
         <v>860</v>
       </c>
-      <c r="D122" s="25"/>
+      <c r="D122" s="23"/>
     </row>
     <row r="123" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B123" s="14"/>
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="39" t="s">
         <v>863</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -4670,7 +4670,7 @@
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B125" s="32"/>
+      <c r="B125" s="41"/>
       <c r="C125" s="6" t="s">
         <v>108</v>
       </c>
@@ -4679,7 +4679,7 @@
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="39" t="s">
         <v>861</v>
       </c>
       <c r="C126" s="6" t="s">
@@ -4690,7 +4690,7 @@
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B127" s="32"/>
+      <c r="B127" s="41"/>
       <c r="C127" s="6" t="s">
         <v>110</v>
       </c>
@@ -4699,7 +4699,7 @@
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="39" t="s">
         <v>862</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -4710,7 +4710,7 @@
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B129" s="32"/>
+      <c r="B129" s="41"/>
       <c r="C129" s="6" t="s">
         <v>112</v>
       </c>
@@ -4719,7 +4719,7 @@
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="39" t="s">
         <v>864</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4730,7 +4730,7 @@
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B131" s="32"/>
+      <c r="B131" s="41"/>
       <c r="C131" s="6" t="s">
         <v>114</v>
       </c>
@@ -4739,7 +4739,7 @@
       </c>
     </row>
     <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="39" t="s">
         <v>865</v>
       </c>
       <c r="C132" s="6" t="s">
@@ -4750,7 +4750,7 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B133" s="32"/>
+      <c r="B133" s="41"/>
       <c r="C133" s="6" t="s">
         <v>116</v>
       </c>
@@ -4759,7 +4759,7 @@
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B134" s="31"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="6" t="s">
         <v>117</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B135" s="32"/>
+      <c r="B135" s="41"/>
       <c r="C135" s="6" t="s">
         <v>118</v>
       </c>
@@ -4777,7 +4777,7 @@
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="39" t="s">
         <v>591</v>
       </c>
       <c r="C136" s="6" t="s">
@@ -4789,7 +4789,7 @@
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B137" s="32"/>
+      <c r="B137" s="41"/>
       <c r="C137" s="6" t="s">
         <v>120</v>
       </c>
@@ -4798,7 +4798,7 @@
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B138" s="31"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="6" t="s">
         <v>121</v>
       </c>
@@ -4807,7 +4807,7 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B139" s="32"/>
+      <c r="B139" s="41"/>
       <c r="C139" s="6" t="s">
         <v>122</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B140" s="31" t="e">
+      <c r="B140" s="39" t="e">
         <f>- D141</f>
         <v>#VALUE!</v>
       </c>
@@ -4828,7 +4828,7 @@
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B141" s="32"/>
+      <c r="B141" s="41"/>
       <c r="C141" s="6" t="s">
         <v>124</v>
       </c>
@@ -4837,7 +4837,7 @@
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B142" s="31" t="e">
+      <c r="B142" s="39" t="e">
         <f>- D142</f>
         <v>#VALUE!</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B143" s="32"/>
+      <c r="B143" s="41"/>
       <c r="C143" s="6" t="s">
         <v>126</v>
       </c>
@@ -4859,10 +4859,10 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B144" s="15"/>
-      <c r="C144" s="25" t="s">
+      <c r="C144" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="D144" s="25"/>
+      <c r="D144" s="23"/>
     </row>
     <row r="145" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B145" s="7"/>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146" s="7"/>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="D146" s="25"/>
+      <c r="D146" s="23"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" s="7"/>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" s="7"/>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="D151" s="25"/>
+      <c r="D151" s="23"/>
     </row>
     <row r="152" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B152" s="7"/>
@@ -4934,10 +4934,10 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153" s="7"/>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="D153" s="25"/>
+      <c r="D153" s="23"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154" s="7"/>
@@ -4977,13 +4977,13 @@
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158" s="14"/>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="D158" s="25"/>
+      <c r="D158" s="23"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="39" t="s">
         <v>868</v>
       </c>
       <c r="C159" s="6" t="s">
@@ -4994,7 +4994,7 @@
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B160" s="33"/>
+      <c r="B160" s="40"/>
       <c r="C160" s="6" t="s">
         <v>138</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B161" s="32"/>
+      <c r="B161" s="41"/>
       <c r="C161" s="6" t="s">
         <v>139</v>
       </c>
@@ -5012,7 +5012,7 @@
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="39" t="s">
         <v>586</v>
       </c>
       <c r="C162" s="6" t="s">
@@ -5023,7 +5023,7 @@
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B163" s="33"/>
+      <c r="B163" s="40"/>
       <c r="C163" s="6" t="s">
         <v>141</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B164" s="32"/>
+      <c r="B164" s="41"/>
       <c r="C164" s="6" t="s">
         <v>142</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B165" s="31" t="e">
+      <c r="B165" s="39" t="e">
         <f>- D165</f>
         <v>#VALUE!</v>
       </c>
@@ -5053,7 +5053,7 @@
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B166" s="33"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="6" t="s">
         <v>144</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B167" s="33"/>
+      <c r="B167" s="40"/>
       <c r="C167" s="6" t="s">
         <v>145</v>
       </c>
@@ -5071,7 +5071,7 @@
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B168" s="33"/>
+      <c r="B168" s="40"/>
       <c r="C168" s="6" t="s">
         <v>146</v>
       </c>
@@ -5080,7 +5080,7 @@
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B169" s="32"/>
+      <c r="B169" s="41"/>
       <c r="C169" s="6" t="s">
         <v>147</v>
       </c>
@@ -5089,7 +5089,7 @@
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="39" t="s">
         <v>614</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -5100,7 +5100,7 @@
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B171" s="33"/>
+      <c r="B171" s="40"/>
       <c r="C171" s="6" t="s">
         <v>149</v>
       </c>
@@ -5109,7 +5109,7 @@
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B172" s="33"/>
+      <c r="B172" s="40"/>
       <c r="C172" s="6" t="s">
         <v>150</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B173" s="33"/>
+      <c r="B173" s="40"/>
       <c r="C173" s="6" t="s">
         <v>151</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B174" s="32"/>
+      <c r="B174" s="41"/>
       <c r="C174" s="6" t="s">
         <v>152</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="39" t="s">
         <v>615</v>
       </c>
       <c r="C175" s="6" t="s">
@@ -5147,7 +5147,7 @@
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B176" s="33"/>
+      <c r="B176" s="40"/>
       <c r="C176" s="6" t="s">
         <v>154</v>
       </c>
@@ -5156,7 +5156,7 @@
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B177" s="33"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="6" t="s">
         <v>155</v>
       </c>
@@ -5165,7 +5165,7 @@
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B178" s="33"/>
+      <c r="B178" s="40"/>
       <c r="C178" s="6" t="s">
         <v>156</v>
       </c>
@@ -5174,7 +5174,7 @@
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B179" s="32"/>
+      <c r="B179" s="41"/>
       <c r="C179" s="6" t="s">
         <v>157</v>
       </c>
@@ -5183,7 +5183,7 @@
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B180" s="31" t="s">
+      <c r="B180" s="39" t="s">
         <v>616</v>
       </c>
       <c r="C180" s="6" t="s">
@@ -5194,7 +5194,7 @@
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B181" s="33"/>
+      <c r="B181" s="40"/>
       <c r="C181" s="6" t="s">
         <v>159</v>
       </c>
@@ -5203,7 +5203,7 @@
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B182" s="33"/>
+      <c r="B182" s="40"/>
       <c r="C182" s="6" t="s">
         <v>160</v>
       </c>
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B183" s="33"/>
+      <c r="B183" s="40"/>
       <c r="C183" s="6" t="s">
         <v>161</v>
       </c>
@@ -5221,7 +5221,7 @@
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B184" s="32"/>
+      <c r="B184" s="41"/>
       <c r="C184" s="6" t="s">
         <v>162</v>
       </c>
@@ -5230,7 +5230,7 @@
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="39" t="s">
         <v>617</v>
       </c>
       <c r="C185" s="6" t="s">
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B186" s="33"/>
+      <c r="B186" s="40"/>
       <c r="C186" s="6" t="s">
         <v>164</v>
       </c>
@@ -5250,7 +5250,7 @@
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B187" s="33"/>
+      <c r="B187" s="40"/>
       <c r="C187" s="6" t="s">
         <v>165</v>
       </c>
@@ -5259,7 +5259,7 @@
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B188" s="33"/>
+      <c r="B188" s="40"/>
       <c r="C188" s="6" t="s">
         <v>166</v>
       </c>
@@ -5268,7 +5268,7 @@
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B189" s="32"/>
+      <c r="B189" s="41"/>
       <c r="C189" s="6" t="s">
         <v>167</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B190" s="31" t="s">
+      <c r="B190" s="39" t="s">
         <v>618</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -5288,7 +5288,7 @@
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B191" s="33"/>
+      <c r="B191" s="40"/>
       <c r="C191" s="6" t="s">
         <v>169</v>
       </c>
@@ -5297,7 +5297,7 @@
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B192" s="33"/>
+      <c r="B192" s="40"/>
       <c r="C192" s="6" t="s">
         <v>170</v>
       </c>
@@ -5306,7 +5306,7 @@
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B193" s="33"/>
+      <c r="B193" s="40"/>
       <c r="C193" s="6" t="s">
         <v>171</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B194" s="32"/>
+      <c r="B194" s="41"/>
       <c r="C194" s="6" t="s">
         <v>172</v>
       </c>
@@ -5324,7 +5324,7 @@
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B195" s="31" t="s">
+      <c r="B195" s="39" t="s">
         <v>619</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B196" s="33"/>
+      <c r="B196" s="40"/>
       <c r="C196" s="6" t="s">
         <v>174</v>
       </c>
@@ -5344,7 +5344,7 @@
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B197" s="33"/>
+      <c r="B197" s="40"/>
       <c r="C197" s="6" t="s">
         <v>175</v>
       </c>
@@ -5353,7 +5353,7 @@
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B198" s="33"/>
+      <c r="B198" s="40"/>
       <c r="C198" s="6" t="s">
         <v>176</v>
       </c>
@@ -5362,7 +5362,7 @@
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B199" s="32"/>
+      <c r="B199" s="41"/>
       <c r="C199" s="6" t="s">
         <v>177</v>
       </c>
@@ -5371,7 +5371,7 @@
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B200" s="31" t="s">
+      <c r="B200" s="39" t="s">
         <v>620</v>
       </c>
       <c r="C200" s="6" t="s">
@@ -5382,7 +5382,7 @@
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B201" s="33"/>
+      <c r="B201" s="40"/>
       <c r="C201" s="6" t="s">
         <v>179</v>
       </c>
@@ -5391,7 +5391,7 @@
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B202" s="32"/>
+      <c r="B202" s="41"/>
       <c r="C202" s="6" t="s">
         <v>180</v>
       </c>
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B203" s="31" t="s">
+      <c r="B203" s="39" t="s">
         <v>588</v>
       </c>
       <c r="C203" s="6" t="s">
@@ -5411,7 +5411,7 @@
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B204" s="33"/>
+      <c r="B204" s="40"/>
       <c r="C204" s="6" t="s">
         <v>182</v>
       </c>
@@ -5420,7 +5420,7 @@
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B205" s="32"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="6" t="s">
         <v>183</v>
       </c>
@@ -5429,7 +5429,7 @@
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B206" s="31" t="s">
+      <c r="B206" s="39" t="s">
         <v>621</v>
       </c>
       <c r="C206" s="6" t="s">
@@ -5440,7 +5440,7 @@
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B207" s="33"/>
+      <c r="B207" s="40"/>
       <c r="C207" s="6" t="s">
         <v>185</v>
       </c>
@@ -5449,7 +5449,7 @@
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B208" s="33"/>
+      <c r="B208" s="40"/>
       <c r="C208" s="6" t="s">
         <v>186</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B209" s="33"/>
+      <c r="B209" s="40"/>
       <c r="C209" s="6" t="s">
         <v>187</v>
       </c>
@@ -5467,7 +5467,7 @@
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B210" s="32"/>
+      <c r="B210" s="41"/>
       <c r="C210" s="6" t="s">
         <v>188</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B211" s="31" t="s">
+      <c r="B211" s="39" t="s">
         <v>622</v>
       </c>
       <c r="C211" s="6" t="s">
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B212" s="33"/>
+      <c r="B212" s="40"/>
       <c r="C212" s="6" t="s">
         <v>190</v>
       </c>
@@ -5496,7 +5496,7 @@
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B213" s="33"/>
+      <c r="B213" s="40"/>
       <c r="C213" s="6" t="s">
         <v>191</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B214" s="33"/>
+      <c r="B214" s="40"/>
       <c r="C214" s="6" t="s">
         <v>192</v>
       </c>
@@ -5514,7 +5514,7 @@
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B215" s="32"/>
+      <c r="B215" s="41"/>
       <c r="C215" s="6" t="s">
         <v>193</v>
       </c>
@@ -5523,7 +5523,7 @@
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="39" t="s">
         <v>623</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -5534,7 +5534,7 @@
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B217" s="33"/>
+      <c r="B217" s="40"/>
       <c r="C217" s="6" t="s">
         <v>195</v>
       </c>
@@ -5543,7 +5543,7 @@
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B218" s="33"/>
+      <c r="B218" s="40"/>
       <c r="C218" s="6" t="s">
         <v>196</v>
       </c>
@@ -5552,7 +5552,7 @@
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B219" s="33"/>
+      <c r="B219" s="40"/>
       <c r="C219" s="6" t="s">
         <v>197</v>
       </c>
@@ -5561,7 +5561,7 @@
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B220" s="32"/>
+      <c r="B220" s="41"/>
       <c r="C220" s="6" t="s">
         <v>198</v>
       </c>
@@ -5570,7 +5570,7 @@
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B221" s="31" t="s">
+      <c r="B221" s="39" t="s">
         <v>624</v>
       </c>
       <c r="C221" s="6" t="s">
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B222" s="33"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="6" t="s">
         <v>200</v>
       </c>
@@ -5590,7 +5590,7 @@
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B223" s="33"/>
+      <c r="B223" s="40"/>
       <c r="C223" s="6" t="s">
         <v>201</v>
       </c>
@@ -5599,7 +5599,7 @@
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B224" s="33"/>
+      <c r="B224" s="40"/>
       <c r="C224" s="6" t="s">
         <v>202</v>
       </c>
@@ -5608,7 +5608,7 @@
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B225" s="32"/>
+      <c r="B225" s="41"/>
       <c r="C225" s="6" t="s">
         <v>203</v>
       </c>
@@ -5617,7 +5617,7 @@
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B226" s="31" t="s">
+      <c r="B226" s="39" t="s">
         <v>590</v>
       </c>
       <c r="C226" s="6" t="s">
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B227" s="33"/>
+      <c r="B227" s="40"/>
       <c r="C227" s="6" t="s">
         <v>205</v>
       </c>
@@ -5637,7 +5637,7 @@
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B228" s="33"/>
+      <c r="B228" s="40"/>
       <c r="C228" s="6" t="s">
         <v>206</v>
       </c>
@@ -5646,7 +5646,7 @@
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B229" s="33"/>
+      <c r="B229" s="40"/>
       <c r="C229" s="6" t="s">
         <v>207</v>
       </c>
@@ -5655,7 +5655,7 @@
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B230" s="32"/>
+      <c r="B230" s="41"/>
       <c r="C230" s="6" t="s">
         <v>208</v>
       </c>
@@ -5664,7 +5664,7 @@
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B231" s="31" t="s">
+      <c r="B231" s="39" t="s">
         <v>591</v>
       </c>
       <c r="C231" s="6" t="s">
@@ -5675,7 +5675,7 @@
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B232" s="33"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="6" t="s">
         <v>210</v>
       </c>
@@ -5684,7 +5684,7 @@
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B233" s="33"/>
+      <c r="B233" s="40"/>
       <c r="C233" s="6" t="s">
         <v>211</v>
       </c>
@@ -5693,7 +5693,7 @@
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B234" s="33"/>
+      <c r="B234" s="40"/>
       <c r="C234" s="6" t="s">
         <v>212</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B235" s="32"/>
+      <c r="B235" s="41"/>
       <c r="C235" s="6" t="s">
         <v>213</v>
       </c>
@@ -5711,7 +5711,7 @@
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B236" s="31" t="s">
+      <c r="B236" s="39" t="s">
         <v>592</v>
       </c>
       <c r="C236" s="6" t="s">
@@ -5722,7 +5722,7 @@
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B237" s="33"/>
+      <c r="B237" s="40"/>
       <c r="C237" s="6" t="s">
         <v>215</v>
       </c>
@@ -5731,7 +5731,7 @@
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B238" s="33"/>
+      <c r="B238" s="40"/>
       <c r="C238" s="6" t="s">
         <v>216</v>
       </c>
@@ -5740,7 +5740,7 @@
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B239" s="33"/>
+      <c r="B239" s="40"/>
       <c r="C239" s="6" t="s">
         <v>217</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B240" s="32"/>
+      <c r="B240" s="41"/>
       <c r="C240" s="6" t="s">
         <v>218</v>
       </c>
@@ -5758,7 +5758,7 @@
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B241" s="31" t="s">
+      <c r="B241" s="39" t="s">
         <v>625</v>
       </c>
       <c r="C241" s="6" t="s">
@@ -5769,7 +5769,7 @@
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B242" s="33"/>
+      <c r="B242" s="40"/>
       <c r="C242" s="6" t="s">
         <v>220</v>
       </c>
@@ -5778,7 +5778,7 @@
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B243" s="33"/>
+      <c r="B243" s="40"/>
       <c r="C243" s="6" t="s">
         <v>221</v>
       </c>
@@ -5787,7 +5787,7 @@
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B244" s="33"/>
+      <c r="B244" s="40"/>
       <c r="C244" s="6" t="s">
         <v>222</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B245" s="32"/>
+      <c r="B245" s="41"/>
       <c r="C245" s="6" t="s">
         <v>223</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B246" s="31" t="s">
+      <c r="B246" s="39" t="s">
         <v>626</v>
       </c>
       <c r="C246" s="6" t="s">
@@ -5816,7 +5816,7 @@
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B247" s="33"/>
+      <c r="B247" s="40"/>
       <c r="C247" s="6" t="s">
         <v>225</v>
       </c>
@@ -5825,7 +5825,7 @@
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B248" s="32"/>
+      <c r="B248" s="41"/>
       <c r="C248" s="6" t="s">
         <v>226</v>
       </c>
@@ -5901,10 +5901,10 @@
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255" s="12"/>
-      <c r="C255" s="25" t="s">
+      <c r="C255" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="D255" s="25"/>
+      <c r="D255" s="23"/>
     </row>
     <row r="256" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B256" s="7"/>
@@ -5916,18 +5916,18 @@
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B257" s="23" t="s">
+      <c r="B257" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="C257" s="23"/>
-      <c r="D257" s="23"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258" s="7"/>
-      <c r="C258" s="25" t="s">
+      <c r="C258" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="D258" s="25"/>
+      <c r="D258" s="23"/>
     </row>
     <row r="259" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B259" s="7"/>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260" s="7"/>
-      <c r="C260" s="25" t="s">
+      <c r="C260" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="D260" s="25"/>
+      <c r="D260" s="23"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261" s="7" t="s">
@@ -6257,10 +6257,10 @@
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B290" s="7"/>
-      <c r="C290" s="25" t="s">
+      <c r="C290" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="D290" s="25"/>
+      <c r="D290" s="23"/>
     </row>
     <row r="291" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B291" s="7"/>
@@ -6273,10 +6273,10 @@
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B292" s="7"/>
-      <c r="C292" s="25" t="s">
+      <c r="C292" s="23" t="s">
         <v>866</v>
       </c>
-      <c r="D292" s="25"/>
+      <c r="D292" s="23"/>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B293" s="7"/>
@@ -6352,13 +6352,13 @@
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B301" s="7"/>
-      <c r="C301" s="25" t="s">
+      <c r="C301" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="D301" s="25"/>
+      <c r="D301" s="23"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B302" s="34" t="s">
+      <c r="B302" s="25" t="s">
         <v>678</v>
       </c>
       <c r="C302" s="6" t="s">
@@ -6369,7 +6369,7 @@
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B303" s="36"/>
+      <c r="B303" s="27"/>
       <c r="C303" s="6" t="s">
         <v>274</v>
       </c>
@@ -6378,7 +6378,7 @@
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B304" s="34" t="s">
+      <c r="B304" s="25" t="s">
         <v>679</v>
       </c>
       <c r="C304" s="6" t="s">
@@ -6389,7 +6389,7 @@
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B305" s="36"/>
+      <c r="B305" s="27"/>
       <c r="C305" s="6" t="s">
         <v>276</v>
       </c>
@@ -6398,7 +6398,7 @@
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B306" s="34" t="s">
+      <c r="B306" s="25" t="s">
         <v>681</v>
       </c>
       <c r="C306" s="6" t="s">
@@ -6409,7 +6409,7 @@
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B307" s="35"/>
+      <c r="B307" s="26"/>
       <c r="C307" s="6" t="s">
         <v>278</v>
       </c>
@@ -6418,7 +6418,7 @@
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B308" s="35"/>
+      <c r="B308" s="26"/>
       <c r="C308" s="6" t="s">
         <v>279</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B309" s="35"/>
+      <c r="B309" s="26"/>
       <c r="C309" s="6" t="s">
         <v>280</v>
       </c>
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B310" s="36"/>
+      <c r="B310" s="27"/>
       <c r="C310" s="6" t="s">
         <v>281</v>
       </c>
@@ -6445,7 +6445,7 @@
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B311" s="34" t="s">
+      <c r="B311" s="25" t="s">
         <v>682</v>
       </c>
       <c r="C311" s="6" t="s">
@@ -6456,7 +6456,7 @@
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B312" s="35"/>
+      <c r="B312" s="26"/>
       <c r="C312" s="6" t="s">
         <v>283</v>
       </c>
@@ -6465,7 +6465,7 @@
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B313" s="35"/>
+      <c r="B313" s="26"/>
       <c r="C313" s="6" t="s">
         <v>284</v>
       </c>
@@ -6474,7 +6474,7 @@
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B314" s="35"/>
+      <c r="B314" s="26"/>
       <c r="C314" s="6" t="s">
         <v>285</v>
       </c>
@@ -6483,7 +6483,7 @@
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B315" s="36"/>
+      <c r="B315" s="27"/>
       <c r="C315" s="6" t="s">
         <v>286</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B316" s="34" t="s">
+      <c r="B316" s="25" t="s">
         <v>683</v>
       </c>
       <c r="C316" s="6" t="s">
@@ -6503,7 +6503,7 @@
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B317" s="35"/>
+      <c r="B317" s="26"/>
       <c r="C317" s="6" t="s">
         <v>288</v>
       </c>
@@ -6512,7 +6512,7 @@
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B318" s="35"/>
+      <c r="B318" s="26"/>
       <c r="C318" s="6" t="s">
         <v>289</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B319" s="35"/>
+      <c r="B319" s="26"/>
       <c r="C319" s="6" t="s">
         <v>290</v>
       </c>
@@ -6530,7 +6530,7 @@
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B320" s="36"/>
+      <c r="B320" s="27"/>
       <c r="C320" s="6" t="s">
         <v>291</v>
       </c>
@@ -6539,7 +6539,7 @@
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B321" s="37" t="s">
+      <c r="B321" s="36" t="s">
         <v>684</v>
       </c>
       <c r="C321" s="6" t="s">
@@ -6550,7 +6550,7 @@
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B322" s="38"/>
+      <c r="B322" s="37"/>
       <c r="C322" s="6" t="s">
         <v>293</v>
       </c>
@@ -6559,7 +6559,7 @@
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B323" s="38"/>
+      <c r="B323" s="37"/>
       <c r="C323" s="6" t="s">
         <v>294</v>
       </c>
@@ -6568,7 +6568,7 @@
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B324" s="39"/>
+      <c r="B324" s="38"/>
       <c r="C324" s="6" t="s">
         <v>295</v>
       </c>
@@ -6577,7 +6577,7 @@
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B325" s="34" t="s">
+      <c r="B325" s="25" t="s">
         <v>685</v>
       </c>
       <c r="C325" s="6" t="s">
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B326" s="35"/>
+      <c r="B326" s="26"/>
       <c r="C326" s="6" t="s">
         <v>297</v>
       </c>
@@ -6597,7 +6597,7 @@
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B327" s="35"/>
+      <c r="B327" s="26"/>
       <c r="C327" s="6" t="s">
         <v>298</v>
       </c>
@@ -6606,7 +6606,7 @@
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B328" s="35"/>
+      <c r="B328" s="26"/>
       <c r="C328" s="6" t="s">
         <v>299</v>
       </c>
@@ -6615,7 +6615,7 @@
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B329" s="36"/>
+      <c r="B329" s="27"/>
       <c r="C329" s="6" t="s">
         <v>300</v>
       </c>
@@ -6624,7 +6624,7 @@
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B330" s="34" t="s">
+      <c r="B330" s="25" t="s">
         <v>686</v>
       </c>
       <c r="C330" s="6" t="s">
@@ -6635,7 +6635,7 @@
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B331" s="35"/>
+      <c r="B331" s="26"/>
       <c r="C331" s="6" t="s">
         <v>302</v>
       </c>
@@ -6644,7 +6644,7 @@
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B332" s="35"/>
+      <c r="B332" s="26"/>
       <c r="C332" s="6" t="s">
         <v>303</v>
       </c>
@@ -6653,7 +6653,7 @@
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B333" s="35"/>
+      <c r="B333" s="26"/>
       <c r="C333" s="6" t="s">
         <v>304</v>
       </c>
@@ -6662,7 +6662,7 @@
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B334" s="36"/>
+      <c r="B334" s="27"/>
       <c r="C334" s="6" t="s">
         <v>305</v>
       </c>
@@ -6671,7 +6671,7 @@
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B335" s="34" t="s">
+      <c r="B335" s="25" t="s">
         <v>687</v>
       </c>
       <c r="C335" s="6" t="s">
@@ -6682,7 +6682,7 @@
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B336" s="35"/>
+      <c r="B336" s="26"/>
       <c r="C336" s="6" t="s">
         <v>307</v>
       </c>
@@ -6691,7 +6691,7 @@
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B337" s="35"/>
+      <c r="B337" s="26"/>
       <c r="C337" s="6" t="s">
         <v>308</v>
       </c>
@@ -6700,7 +6700,7 @@
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B338" s="35"/>
+      <c r="B338" s="26"/>
       <c r="C338" s="6" t="s">
         <v>309</v>
       </c>
@@ -6709,7 +6709,7 @@
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B339" s="36"/>
+      <c r="B339" s="27"/>
       <c r="C339" s="6" t="s">
         <v>310</v>
       </c>
@@ -6718,7 +6718,7 @@
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B340" s="34" t="s">
+      <c r="B340" s="25" t="s">
         <v>688</v>
       </c>
       <c r="C340" s="6" t="s">
@@ -6729,7 +6729,7 @@
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B341" s="35"/>
+      <c r="B341" s="26"/>
       <c r="C341" s="6" t="s">
         <v>312</v>
       </c>
@@ -6738,7 +6738,7 @@
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B342" s="35"/>
+      <c r="B342" s="26"/>
       <c r="C342" s="6" t="s">
         <v>313</v>
       </c>
@@ -6747,7 +6747,7 @@
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B343" s="35"/>
+      <c r="B343" s="26"/>
       <c r="C343" s="6" t="s">
         <v>314</v>
       </c>
@@ -6756,7 +6756,7 @@
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B344" s="36"/>
+      <c r="B344" s="27"/>
       <c r="C344" s="6" t="s">
         <v>315</v>
       </c>
@@ -6765,7 +6765,7 @@
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B345" s="34" t="s">
+      <c r="B345" s="25" t="s">
         <v>689</v>
       </c>
       <c r="C345" s="6" t="s">
@@ -6776,7 +6776,7 @@
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B346" s="36"/>
+      <c r="B346" s="27"/>
       <c r="C346" s="6" t="s">
         <v>317</v>
       </c>
@@ -6785,7 +6785,7 @@
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B347" s="34" t="s">
+      <c r="B347" s="25" t="s">
         <v>690</v>
       </c>
       <c r="C347" s="6" t="s">
@@ -6796,7 +6796,7 @@
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B348" s="36"/>
+      <c r="B348" s="27"/>
       <c r="C348" s="6" t="s">
         <v>319</v>
       </c>
@@ -6805,7 +6805,7 @@
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B349" s="34" t="s">
+      <c r="B349" s="25" t="s">
         <v>691</v>
       </c>
       <c r="C349" s="6" t="s">
@@ -6816,7 +6816,7 @@
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B350" s="36"/>
+      <c r="B350" s="27"/>
       <c r="C350" s="6" t="s">
         <v>321</v>
       </c>
@@ -6825,7 +6825,7 @@
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B351" s="34" t="s">
+      <c r="B351" s="25" t="s">
         <v>692</v>
       </c>
       <c r="C351" s="6" t="s">
@@ -6836,7 +6836,7 @@
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B352" s="35"/>
+      <c r="B352" s="26"/>
       <c r="C352" s="6" t="s">
         <v>323</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B353" s="35"/>
+      <c r="B353" s="26"/>
       <c r="C353" s="6" t="s">
         <v>324</v>
       </c>
@@ -6854,7 +6854,7 @@
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B354" s="35"/>
+      <c r="B354" s="26"/>
       <c r="C354" s="6" t="s">
         <v>325</v>
       </c>
@@ -6863,7 +6863,7 @@
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B355" s="36"/>
+      <c r="B355" s="27"/>
       <c r="C355" s="6" t="s">
         <v>326</v>
       </c>
@@ -6872,7 +6872,7 @@
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B356" s="40" t="s">
+      <c r="B356" s="33" t="s">
         <v>693</v>
       </c>
       <c r="C356" s="6" t="s">
@@ -6883,7 +6883,7 @@
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B357" s="41"/>
+      <c r="B357" s="34"/>
       <c r="C357" s="6" t="s">
         <v>328</v>
       </c>
@@ -6892,7 +6892,7 @@
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B358" s="41"/>
+      <c r="B358" s="34"/>
       <c r="C358" s="6" t="s">
         <v>329</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B359" s="41"/>
+      <c r="B359" s="34"/>
       <c r="C359" s="6" t="s">
         <v>330</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B360" s="42"/>
+      <c r="B360" s="35"/>
       <c r="C360" s="6" t="s">
         <v>331</v>
       </c>
@@ -6919,7 +6919,7 @@
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B361" s="34" t="s">
+      <c r="B361" s="25" t="s">
         <v>694</v>
       </c>
       <c r="C361" s="6" t="s">
@@ -6930,7 +6930,7 @@
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B362" s="36"/>
+      <c r="B362" s="27"/>
       <c r="C362" s="6" t="s">
         <v>333</v>
       </c>
@@ -6939,7 +6939,7 @@
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B363" s="34" t="s">
+      <c r="B363" s="25" t="s">
         <v>695</v>
       </c>
       <c r="C363" s="6" t="s">
@@ -6950,7 +6950,7 @@
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B364" s="36"/>
+      <c r="B364" s="27"/>
       <c r="C364" s="6" t="s">
         <v>335</v>
       </c>
@@ -6959,7 +6959,7 @@
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B365" s="34" t="s">
+      <c r="B365" s="25" t="s">
         <v>696</v>
       </c>
       <c r="C365" s="6" t="s">
@@ -6970,7 +6970,7 @@
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B366" s="36"/>
+      <c r="B366" s="27"/>
       <c r="C366" s="6" t="s">
         <v>337</v>
       </c>
@@ -6979,7 +6979,7 @@
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B367" s="34" t="s">
+      <c r="B367" s="25" t="s">
         <v>697</v>
       </c>
       <c r="C367" s="6" t="s">
@@ -6990,7 +6990,7 @@
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B368" s="36"/>
+      <c r="B368" s="27"/>
       <c r="C368" s="6" t="s">
         <v>339</v>
       </c>
@@ -7000,10 +7000,10 @@
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B369" s="21"/>
-      <c r="C369" s="25" t="s">
+      <c r="C369" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="D369" s="25"/>
+      <c r="D369" s="23"/>
     </row>
     <row r="370" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B370" s="7"/>
@@ -7015,18 +7015,18 @@
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B371" s="23" t="s">
+      <c r="B371" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="C371" s="23"/>
-      <c r="D371" s="23"/>
+      <c r="C371" s="24"/>
+      <c r="D371" s="24"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B372" s="7"/>
-      <c r="C372" s="25" t="s">
+      <c r="C372" s="23" t="s">
         <v>700</v>
       </c>
-      <c r="D372" s="25"/>
+      <c r="D372" s="23"/>
     </row>
     <row r="373" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B373" s="7"/>
@@ -7039,10 +7039,10 @@
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B374" s="7"/>
-      <c r="C374" s="25" t="s">
+      <c r="C374" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="D374" s="25"/>
+      <c r="D374" s="23"/>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B375" s="7" t="s">
@@ -7112,13 +7112,13 @@
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B381" s="7"/>
-      <c r="C381" s="25" t="s">
+      <c r="C381" s="23" t="s">
         <v>710</v>
       </c>
-      <c r="D381" s="25"/>
+      <c r="D381" s="23"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B382" s="34" t="s">
+      <c r="B382" s="25" t="s">
         <v>711</v>
       </c>
       <c r="C382" s="6" t="s">
@@ -7129,7 +7129,7 @@
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B383" s="36"/>
+      <c r="B383" s="27"/>
       <c r="C383" s="6" t="s">
         <v>349</v>
       </c>
@@ -7138,7 +7138,7 @@
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B384" s="34" t="s">
+      <c r="B384" s="25" t="s">
         <v>712</v>
       </c>
       <c r="C384" s="6" t="s">
@@ -7149,7 +7149,7 @@
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B385" s="36"/>
+      <c r="B385" s="27"/>
       <c r="C385" s="6" t="s">
         <v>351</v>
       </c>
@@ -7158,7 +7158,7 @@
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B386" s="34" t="s">
+      <c r="B386" s="25" t="s">
         <v>713</v>
       </c>
       <c r="C386" s="6" t="s">
@@ -7169,7 +7169,7 @@
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B387" s="35"/>
+      <c r="B387" s="26"/>
       <c r="C387" s="6" t="s">
         <v>353</v>
       </c>
@@ -7178,7 +7178,7 @@
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B388" s="35"/>
+      <c r="B388" s="26"/>
       <c r="C388" s="6" t="s">
         <v>354</v>
       </c>
@@ -7187,7 +7187,7 @@
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B389" s="36"/>
+      <c r="B389" s="27"/>
       <c r="C389" s="6" t="s">
         <v>355</v>
       </c>
@@ -7196,7 +7196,7 @@
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B390" s="34" t="s">
+      <c r="B390" s="25" t="s">
         <v>714</v>
       </c>
       <c r="C390" s="6" t="s">
@@ -7207,7 +7207,7 @@
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B391" s="35"/>
+      <c r="B391" s="26"/>
       <c r="C391" s="6" t="s">
         <v>357</v>
       </c>
@@ -7216,7 +7216,7 @@
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B392" s="35"/>
+      <c r="B392" s="26"/>
       <c r="C392" s="6" t="s">
         <v>358</v>
       </c>
@@ -7225,7 +7225,7 @@
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B393" s="36"/>
+      <c r="B393" s="27"/>
       <c r="C393" s="6" t="s">
         <v>359</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B394" s="34" t="s">
+      <c r="B394" s="25" t="s">
         <v>715</v>
       </c>
       <c r="C394" s="6" t="s">
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B395" s="36"/>
+      <c r="B395" s="27"/>
       <c r="C395" s="6" t="s">
         <v>361</v>
       </c>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B396" s="34" t="s">
+      <c r="B396" s="25" t="s">
         <v>716</v>
       </c>
       <c r="C396" s="6" t="s">
@@ -7265,7 +7265,7 @@
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B397" s="36"/>
+      <c r="B397" s="27"/>
       <c r="C397" s="6" t="s">
         <v>363</v>
       </c>
@@ -7274,7 +7274,7 @@
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B398" s="34" t="s">
+      <c r="B398" s="25" t="s">
         <v>717</v>
       </c>
       <c r="C398" s="6" t="s">
@@ -7285,7 +7285,7 @@
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B399" s="36"/>
+      <c r="B399" s="27"/>
       <c r="C399" s="6" t="s">
         <v>365</v>
       </c>
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B400" s="34" t="s">
+      <c r="B400" s="25" t="s">
         <v>718</v>
       </c>
       <c r="C400" s="6" t="s">
@@ -7305,7 +7305,7 @@
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B401" s="36"/>
+      <c r="B401" s="27"/>
       <c r="C401" s="6" t="s">
         <v>367</v>
       </c>
@@ -7314,7 +7314,7 @@
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B402" s="34" t="s">
+      <c r="B402" s="25" t="s">
         <v>719</v>
       </c>
       <c r="C402" s="6" t="s">
@@ -7325,7 +7325,7 @@
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B403" s="36"/>
+      <c r="B403" s="27"/>
       <c r="C403" s="6" t="s">
         <v>369</v>
       </c>
@@ -7334,7 +7334,7 @@
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B404" s="34" t="s">
+      <c r="B404" s="25" t="s">
         <v>720</v>
       </c>
       <c r="C404" s="6" t="s">
@@ -7345,7 +7345,7 @@
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B405" s="36"/>
+      <c r="B405" s="27"/>
       <c r="C405" s="6" t="s">
         <v>371</v>
       </c>
@@ -7354,7 +7354,7 @@
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B406" s="34" t="s">
+      <c r="B406" s="25" t="s">
         <v>721</v>
       </c>
       <c r="C406" s="6" t="s">
@@ -7365,7 +7365,7 @@
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B407" s="36"/>
+      <c r="B407" s="27"/>
       <c r="C407" s="6" t="s">
         <v>373</v>
       </c>
@@ -7375,10 +7375,10 @@
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B408" s="21"/>
-      <c r="C408" s="25" t="s">
+      <c r="C408" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="D408" s="25"/>
+      <c r="D408" s="23"/>
     </row>
     <row r="409" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B409" s="7"/>
@@ -7390,18 +7390,18 @@
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B410" s="23" t="s">
+      <c r="B410" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="C410" s="23"/>
-      <c r="D410" s="23"/>
+      <c r="C410" s="24"/>
+      <c r="D410" s="24"/>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B411" s="7"/>
-      <c r="C411" s="25" t="s">
+      <c r="C411" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="D411" s="25"/>
+      <c r="D411" s="23"/>
     </row>
     <row r="412" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B412" s="7"/>
@@ -7414,13 +7414,13 @@
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B413" s="7"/>
-      <c r="C413" s="25" t="s">
+      <c r="C413" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="D413" s="25"/>
+      <c r="D413" s="23"/>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B414" s="34" t="s">
+      <c r="B414" s="25" t="s">
         <v>733</v>
       </c>
       <c r="C414" s="6" t="s">
@@ -7431,7 +7431,7 @@
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B415" s="35"/>
+      <c r="B415" s="26"/>
       <c r="C415" s="6" t="s">
         <v>377</v>
       </c>
@@ -7440,7 +7440,7 @@
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B416" s="35"/>
+      <c r="B416" s="26"/>
       <c r="C416" s="6" t="s">
         <v>378</v>
       </c>
@@ -7449,7 +7449,7 @@
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B417" s="35"/>
+      <c r="B417" s="26"/>
       <c r="C417" s="6" t="s">
         <v>379</v>
       </c>
@@ -7458,7 +7458,7 @@
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B418" s="36"/>
+      <c r="B418" s="27"/>
       <c r="C418" s="6" t="s">
         <v>380</v>
       </c>
@@ -7467,7 +7467,7 @@
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B419" s="45" t="s">
+      <c r="B419" s="30" t="s">
         <v>734</v>
       </c>
       <c r="C419" s="6" t="s">
@@ -7478,7 +7478,7 @@
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B420" s="46"/>
+      <c r="B420" s="31"/>
       <c r="C420" s="6" t="s">
         <v>382</v>
       </c>
@@ -7487,7 +7487,7 @@
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B421" s="47"/>
+      <c r="B421" s="32"/>
       <c r="C421" s="6" t="s">
         <v>383</v>
       </c>
@@ -7496,7 +7496,7 @@
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B422" s="34" t="s">
+      <c r="B422" s="25" t="s">
         <v>735</v>
       </c>
       <c r="C422" s="6" t="s">
@@ -7507,7 +7507,7 @@
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B423" s="35"/>
+      <c r="B423" s="26"/>
       <c r="C423" s="6" t="s">
         <v>385</v>
       </c>
@@ -7516,7 +7516,7 @@
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B424" s="35"/>
+      <c r="B424" s="26"/>
       <c r="C424" s="6" t="s">
         <v>386</v>
       </c>
@@ -7525,7 +7525,7 @@
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B425" s="35"/>
+      <c r="B425" s="26"/>
       <c r="C425" s="6" t="s">
         <v>387</v>
       </c>
@@ -7534,7 +7534,7 @@
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B426" s="36"/>
+      <c r="B426" s="27"/>
       <c r="C426" s="6" t="s">
         <v>388</v>
       </c>
@@ -7543,7 +7543,7 @@
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B427" s="34" t="s">
+      <c r="B427" s="25" t="s">
         <v>736</v>
       </c>
       <c r="C427" s="6" t="s">
@@ -7554,7 +7554,7 @@
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B428" s="35"/>
+      <c r="B428" s="26"/>
       <c r="C428" s="6" t="s">
         <v>390</v>
       </c>
@@ -7563,7 +7563,7 @@
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B429" s="36"/>
+      <c r="B429" s="27"/>
       <c r="C429" s="6" t="s">
         <v>391</v>
       </c>
@@ -7572,7 +7572,7 @@
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B430" s="34" t="s">
+      <c r="B430" s="25" t="s">
         <v>737</v>
       </c>
       <c r="C430" s="6" t="s">
@@ -7583,7 +7583,7 @@
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B431" s="35"/>
+      <c r="B431" s="26"/>
       <c r="C431" s="6" t="s">
         <v>393</v>
       </c>
@@ -7592,7 +7592,7 @@
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B432" s="36"/>
+      <c r="B432" s="27"/>
       <c r="C432" s="6" t="s">
         <v>394</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B433" s="34" t="s">
+      <c r="B433" s="25" t="s">
         <v>738</v>
       </c>
       <c r="C433" s="6" t="s">
@@ -7612,7 +7612,7 @@
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B434" s="35"/>
+      <c r="B434" s="26"/>
       <c r="C434" s="6" t="s">
         <v>396</v>
       </c>
@@ -7621,7 +7621,7 @@
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B435" s="35"/>
+      <c r="B435" s="26"/>
       <c r="C435" s="6" t="s">
         <v>397</v>
       </c>
@@ -7630,7 +7630,7 @@
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B436" s="35"/>
+      <c r="B436" s="26"/>
       <c r="C436" s="6" t="s">
         <v>398</v>
       </c>
@@ -7639,7 +7639,7 @@
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B437" s="36"/>
+      <c r="B437" s="27"/>
       <c r="C437" s="6" t="s">
         <v>399</v>
       </c>
@@ -7648,7 +7648,7 @@
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B438" s="34" t="s">
+      <c r="B438" s="25" t="s">
         <v>739</v>
       </c>
       <c r="C438" s="6" t="s">
@@ -7659,7 +7659,7 @@
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B439" s="35"/>
+      <c r="B439" s="26"/>
       <c r="C439" s="6" t="s">
         <v>401</v>
       </c>
@@ -7668,7 +7668,7 @@
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B440" s="35"/>
+      <c r="B440" s="26"/>
       <c r="C440" s="6" t="s">
         <v>402</v>
       </c>
@@ -7677,7 +7677,7 @@
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B441" s="36"/>
+      <c r="B441" s="27"/>
       <c r="C441" s="6" t="s">
         <v>403</v>
       </c>
@@ -7687,20 +7687,20 @@
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B442" s="21"/>
-      <c r="C442" s="25" t="s">
+      <c r="C442" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="D442" s="25"/>
+      <c r="D442" s="23"/>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B443" s="20"/>
-      <c r="C443" s="43" t="s">
+      <c r="C443" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="D443" s="44"/>
+      <c r="D443" s="29"/>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B444" s="34" t="s">
+      <c r="B444" s="25" t="s">
         <v>741</v>
       </c>
       <c r="C444" s="6" t="s">
@@ -7711,7 +7711,7 @@
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B445" s="35"/>
+      <c r="B445" s="26"/>
       <c r="C445" s="6" t="s">
         <v>405</v>
       </c>
@@ -7720,7 +7720,7 @@
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B446" s="35"/>
+      <c r="B446" s="26"/>
       <c r="C446" s="6" t="s">
         <v>406</v>
       </c>
@@ -7729,7 +7729,7 @@
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B447" s="36"/>
+      <c r="B447" s="27"/>
       <c r="C447" s="6" t="s">
         <v>407</v>
       </c>
@@ -7738,7 +7738,7 @@
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B448" s="34" t="s">
+      <c r="B448" s="25" t="s">
         <v>742</v>
       </c>
       <c r="C448" s="6" t="s">
@@ -7749,7 +7749,7 @@
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B449" s="35"/>
+      <c r="B449" s="26"/>
       <c r="C449" s="6" t="s">
         <v>409</v>
       </c>
@@ -7758,7 +7758,7 @@
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B450" s="35"/>
+      <c r="B450" s="26"/>
       <c r="C450" s="6" t="s">
         <v>410</v>
       </c>
@@ -7767,7 +7767,7 @@
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B451" s="36"/>
+      <c r="B451" s="27"/>
       <c r="C451" s="6" t="s">
         <v>411</v>
       </c>
@@ -7776,7 +7776,7 @@
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B452" s="34" t="s">
+      <c r="B452" s="25" t="s">
         <v>743</v>
       </c>
       <c r="C452" s="6" t="s">
@@ -7787,7 +7787,7 @@
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B453" s="35"/>
+      <c r="B453" s="26"/>
       <c r="C453" s="6" t="s">
         <v>413</v>
       </c>
@@ -7796,7 +7796,7 @@
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B454" s="35"/>
+      <c r="B454" s="26"/>
       <c r="C454" s="6" t="s">
         <v>414</v>
       </c>
@@ -7805,7 +7805,7 @@
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B455" s="36"/>
+      <c r="B455" s="27"/>
       <c r="C455" s="6" t="s">
         <v>415</v>
       </c>
@@ -7815,13 +7815,13 @@
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B456" s="21"/>
-      <c r="C456" s="43" t="s">
+      <c r="C456" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="D456" s="44"/>
+      <c r="D456" s="29"/>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B457" s="34" t="s">
+      <c r="B457" s="25" t="s">
         <v>741</v>
       </c>
       <c r="C457" s="6" t="s">
@@ -7832,7 +7832,7 @@
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B458" s="35"/>
+      <c r="B458" s="26"/>
       <c r="C458" s="6" t="s">
         <v>417</v>
       </c>
@@ -7841,7 +7841,7 @@
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B459" s="35"/>
+      <c r="B459" s="26"/>
       <c r="C459" s="6" t="s">
         <v>418</v>
       </c>
@@ -7850,7 +7850,7 @@
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B460" s="36"/>
+      <c r="B460" s="27"/>
       <c r="C460" s="6" t="s">
         <v>419</v>
       </c>
@@ -7859,7 +7859,7 @@
       </c>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B461" s="34" t="s">
+      <c r="B461" s="25" t="s">
         <v>742</v>
       </c>
       <c r="C461" s="6" t="s">
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B462" s="35"/>
+      <c r="B462" s="26"/>
       <c r="C462" s="6" t="s">
         <v>421</v>
       </c>
@@ -7879,7 +7879,7 @@
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B463" s="35"/>
+      <c r="B463" s="26"/>
       <c r="C463" s="6" t="s">
         <v>422</v>
       </c>
@@ -7888,7 +7888,7 @@
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B464" s="36"/>
+      <c r="B464" s="27"/>
       <c r="C464" s="6" t="s">
         <v>423</v>
       </c>
@@ -7897,7 +7897,7 @@
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B465" s="34" t="s">
+      <c r="B465" s="25" t="s">
         <v>743</v>
       </c>
       <c r="C465" s="6" t="s">
@@ -7908,7 +7908,7 @@
       </c>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B466" s="35"/>
+      <c r="B466" s="26"/>
       <c r="C466" s="6" t="s">
         <v>425</v>
       </c>
@@ -7917,7 +7917,7 @@
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B467" s="35"/>
+      <c r="B467" s="26"/>
       <c r="C467" s="6" t="s">
         <v>426</v>
       </c>
@@ -7926,7 +7926,7 @@
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B468" s="36"/>
+      <c r="B468" s="27"/>
       <c r="C468" s="6" t="s">
         <v>427</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B469" s="34" t="s">
+      <c r="B469" s="25" t="s">
         <v>746</v>
       </c>
       <c r="C469" s="6" t="s">
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B470" s="35"/>
+      <c r="B470" s="26"/>
       <c r="C470" s="6" t="s">
         <v>429</v>
       </c>
@@ -7955,7 +7955,7 @@
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B471" s="35"/>
+      <c r="B471" s="26"/>
       <c r="C471" s="6" t="s">
         <v>430</v>
       </c>
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B472" s="36"/>
+      <c r="B472" s="27"/>
       <c r="C472" s="6" t="s">
         <v>431</v>
       </c>
@@ -7974,13 +7974,13 @@
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B473" s="21"/>
-      <c r="C473" s="25" t="s">
+      <c r="C473" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="D473" s="25"/>
+      <c r="D473" s="23"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B474" s="34" t="s">
+      <c r="B474" s="25" t="s">
         <v>748</v>
       </c>
       <c r="C474" s="6" t="s">
@@ -7991,7 +7991,7 @@
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B475" s="36"/>
+      <c r="B475" s="27"/>
       <c r="C475" s="6" t="s">
         <v>433</v>
       </c>
@@ -8000,7 +8000,7 @@
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B476" s="34" t="s">
+      <c r="B476" s="25" t="s">
         <v>749</v>
       </c>
       <c r="C476" s="6" t="s">
@@ -8011,7 +8011,7 @@
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B477" s="36"/>
+      <c r="B477" s="27"/>
       <c r="C477" s="6" t="s">
         <v>435</v>
       </c>
@@ -8020,7 +8020,7 @@
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B478" s="34" t="s">
+      <c r="B478" s="25" t="s">
         <v>750</v>
       </c>
       <c r="C478" s="6" t="s">
@@ -8031,7 +8031,7 @@
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B479" s="35"/>
+      <c r="B479" s="26"/>
       <c r="C479" s="6" t="s">
         <v>437</v>
       </c>
@@ -8040,7 +8040,7 @@
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B480" s="35"/>
+      <c r="B480" s="26"/>
       <c r="C480" s="6" t="s">
         <v>438</v>
       </c>
@@ -8049,7 +8049,7 @@
       </c>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B481" s="36"/>
+      <c r="B481" s="27"/>
       <c r="C481" s="6" t="s">
         <v>439</v>
       </c>
@@ -8058,7 +8058,7 @@
       </c>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B482" s="34" t="s">
+      <c r="B482" s="25" t="s">
         <v>751</v>
       </c>
       <c r="C482" s="6" t="s">
@@ -8069,7 +8069,7 @@
       </c>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B483" s="35"/>
+      <c r="B483" s="26"/>
       <c r="C483" s="6" t="s">
         <v>441</v>
       </c>
@@ -8078,7 +8078,7 @@
       </c>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B484" s="35"/>
+      <c r="B484" s="26"/>
       <c r="C484" s="6" t="s">
         <v>442</v>
       </c>
@@ -8087,7 +8087,7 @@
       </c>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B485" s="36"/>
+      <c r="B485" s="27"/>
       <c r="C485" s="6" t="s">
         <v>443</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B486" s="34" t="s">
+      <c r="B486" s="25" t="s">
         <v>752</v>
       </c>
       <c r="C486" s="6" t="s">
@@ -8107,7 +8107,7 @@
       </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B487" s="35"/>
+      <c r="B487" s="26"/>
       <c r="C487" s="6" t="s">
         <v>445</v>
       </c>
@@ -8116,7 +8116,7 @@
       </c>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B488" s="35"/>
+      <c r="B488" s="26"/>
       <c r="C488" s="6" t="s">
         <v>446</v>
       </c>
@@ -8125,7 +8125,7 @@
       </c>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B489" s="36"/>
+      <c r="B489" s="27"/>
       <c r="C489" s="6" t="s">
         <v>447</v>
       </c>
@@ -8134,7 +8134,7 @@
       </c>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B490" s="34" t="s">
+      <c r="B490" s="25" t="s">
         <v>753</v>
       </c>
       <c r="C490" s="6" t="s">
@@ -8145,7 +8145,7 @@
       </c>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B491" s="35"/>
+      <c r="B491" s="26"/>
       <c r="C491" s="6" t="s">
         <v>449</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B492" s="35"/>
+      <c r="B492" s="26"/>
       <c r="C492" s="6" t="s">
         <v>450</v>
       </c>
@@ -8163,7 +8163,7 @@
       </c>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B493" s="36"/>
+      <c r="B493" s="27"/>
       <c r="C493" s="6" t="s">
         <v>451</v>
       </c>
@@ -8172,7 +8172,7 @@
       </c>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B494" s="34" t="s">
+      <c r="B494" s="25" t="s">
         <v>754</v>
       </c>
       <c r="C494" s="6" t="s">
@@ -8183,7 +8183,7 @@
       </c>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B495" s="35"/>
+      <c r="B495" s="26"/>
       <c r="C495" s="6" t="s">
         <v>453</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B496" s="35"/>
+      <c r="B496" s="26"/>
       <c r="C496" s="6" t="s">
         <v>454</v>
       </c>
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B497" s="36"/>
+      <c r="B497" s="27"/>
       <c r="C497" s="6" t="s">
         <v>455</v>
       </c>
@@ -8210,7 +8210,7 @@
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B498" s="34" t="s">
+      <c r="B498" s="25" t="s">
         <v>755</v>
       </c>
       <c r="C498" s="6" t="s">
@@ -8221,7 +8221,7 @@
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B499" s="35"/>
+      <c r="B499" s="26"/>
       <c r="C499" s="6" t="s">
         <v>457</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B500" s="35"/>
+      <c r="B500" s="26"/>
       <c r="C500" s="6" t="s">
         <v>458</v>
       </c>
@@ -8239,7 +8239,7 @@
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B501" s="36"/>
+      <c r="B501" s="27"/>
       <c r="C501" s="6" t="s">
         <v>459</v>
       </c>
@@ -8248,7 +8248,7 @@
       </c>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B502" s="34" t="s">
+      <c r="B502" s="25" t="s">
         <v>756</v>
       </c>
       <c r="C502" s="6" t="s">
@@ -8259,7 +8259,7 @@
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B503" s="36"/>
+      <c r="B503" s="27"/>
       <c r="C503" s="6" t="s">
         <v>461</v>
       </c>
@@ -8269,10 +8269,10 @@
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B504" s="21"/>
-      <c r="C504" s="25" t="s">
+      <c r="C504" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="D504" s="25"/>
+      <c r="D504" s="23"/>
     </row>
     <row r="505" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B505" s="7"/>
@@ -8284,18 +8284,18 @@
       </c>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B506" s="23" t="s">
+      <c r="B506" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="C506" s="23"/>
-      <c r="D506" s="23"/>
+      <c r="C506" s="24"/>
+      <c r="D506" s="24"/>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B507" s="7"/>
-      <c r="C507" s="25" t="s">
+      <c r="C507" s="23" t="s">
         <v>759</v>
       </c>
-      <c r="D507" s="25"/>
+      <c r="D507" s="23"/>
     </row>
     <row r="508" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B508" s="7"/>
@@ -8308,13 +8308,13 @@
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B509" s="7"/>
-      <c r="C509" s="25" t="s">
+      <c r="C509" s="23" t="s">
         <v>761</v>
       </c>
-      <c r="D509" s="25"/>
+      <c r="D509" s="23"/>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B510" s="34" t="s">
+      <c r="B510" s="25" t="s">
         <v>762</v>
       </c>
       <c r="C510" s="6" t="s">
@@ -8325,7 +8325,7 @@
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B511" s="35"/>
+      <c r="B511" s="26"/>
       <c r="C511" s="6" t="s">
         <v>465</v>
       </c>
@@ -8334,7 +8334,7 @@
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B512" s="35"/>
+      <c r="B512" s="26"/>
       <c r="C512" s="6" t="s">
         <v>466</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B513" s="35"/>
+      <c r="B513" s="26"/>
       <c r="C513" s="6" t="s">
         <v>467</v>
       </c>
@@ -8352,7 +8352,7 @@
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B514" s="36"/>
+      <c r="B514" s="27"/>
       <c r="C514" s="6" t="s">
         <v>468</v>
       </c>
@@ -8362,10 +8362,10 @@
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B515" s="21"/>
-      <c r="C515" s="25" t="s">
+      <c r="C515" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="D515" s="25"/>
+      <c r="D515" s="23"/>
     </row>
     <row r="516" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B516" s="7"/>
@@ -8377,11 +8377,11 @@
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B517" s="23" t="s">
+      <c r="B517" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="C517" s="23"/>
-      <c r="D517" s="23"/>
+      <c r="C517" s="24"/>
+      <c r="D517" s="24"/>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B518" s="7" t="s">
@@ -8451,10 +8451,10 @@
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B524" s="7"/>
-      <c r="C524" s="25" t="s">
+      <c r="C524" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="D524" s="25"/>
+      <c r="D524" s="23"/>
     </row>
     <row r="525" spans="2:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="B525" s="7"/>
@@ -8476,10 +8476,10 @@
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B527" s="7"/>
-      <c r="C527" s="25" t="s">
+      <c r="C527" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="D527" s="25"/>
+      <c r="D527" s="23"/>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B528" s="7"/>
@@ -8500,18 +8500,18 @@
       </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B530" s="23" t="s">
+      <c r="B530" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="C530" s="23"/>
-      <c r="D530" s="23"/>
+      <c r="C530" s="24"/>
+      <c r="D530" s="24"/>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B531" s="7"/>
-      <c r="C531" s="25" t="s">
+      <c r="C531" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="D531" s="25"/>
+      <c r="D531" s="23"/>
     </row>
     <row r="532" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B532" s="7"/>
@@ -8524,10 +8524,10 @@
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B533" s="7"/>
-      <c r="C533" s="25" t="s">
+      <c r="C533" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="D533" s="25"/>
+      <c r="D533" s="23"/>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B534" s="7"/>
@@ -8630,10 +8630,10 @@
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B545" s="7"/>
-      <c r="C545" s="25" t="s">
+      <c r="C545" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="D545" s="25"/>
+      <c r="D545" s="23"/>
     </row>
     <row r="546" spans="2:4" ht="26" x14ac:dyDescent="0.35">
       <c r="B546" s="7"/>
@@ -8646,10 +8646,10 @@
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B547" s="7"/>
-      <c r="C547" s="25" t="s">
+      <c r="C547" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="D547" s="25"/>
+      <c r="D547" s="23"/>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B548" s="7"/>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B557" s="7"/>
-      <c r="C557" s="25" t="s">
+      <c r="C557" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="D557" s="25"/>
+      <c r="D557" s="23"/>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B558" s="7"/>
@@ -8847,15 +8847,132 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="C545:D545"/>
-    <mergeCell ref="C547:D547"/>
-    <mergeCell ref="C557:D557"/>
-    <mergeCell ref="B517:D517"/>
-    <mergeCell ref="C524:D524"/>
-    <mergeCell ref="C527:D527"/>
-    <mergeCell ref="B530:D530"/>
-    <mergeCell ref="C531:D531"/>
-    <mergeCell ref="C533:D533"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="B221:B225"/>
+    <mergeCell ref="B170:B174"/>
+    <mergeCell ref="B175:B179"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B195:B199"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="B226:B230"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="B325:B329"/>
+    <mergeCell ref="B330:B334"/>
+    <mergeCell ref="B335:B339"/>
+    <mergeCell ref="B340:B344"/>
+    <mergeCell ref="B345:B346"/>
+    <mergeCell ref="B347:B348"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="B306:B310"/>
+    <mergeCell ref="B311:B315"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="B351:B355"/>
+    <mergeCell ref="B356:B360"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="B363:B364"/>
+    <mergeCell ref="B365:B366"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B402:B403"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="B427:B429"/>
+    <mergeCell ref="B430:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="C443:D443"/>
+    <mergeCell ref="B410:D410"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B421"/>
+    <mergeCell ref="B422:B426"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="C473:D473"/>
+    <mergeCell ref="B474:B475"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="B444:B447"/>
+    <mergeCell ref="B448:B451"/>
+    <mergeCell ref="B452:B455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
     <mergeCell ref="C504:D504"/>
     <mergeCell ref="B506:D506"/>
     <mergeCell ref="C507:D507"/>
@@ -8868,132 +8985,15 @@
     <mergeCell ref="B494:B497"/>
     <mergeCell ref="B498:B501"/>
     <mergeCell ref="B502:B503"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="C473:D473"/>
-    <mergeCell ref="B474:B475"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="B444:B447"/>
-    <mergeCell ref="B448:B451"/>
-    <mergeCell ref="B452:B455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="B427:B429"/>
-    <mergeCell ref="B430:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="C443:D443"/>
-    <mergeCell ref="B410:D410"/>
-    <mergeCell ref="C411:D411"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B421"/>
-    <mergeCell ref="B422:B426"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="C408:D408"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="B351:B355"/>
-    <mergeCell ref="B356:B360"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="B363:B364"/>
-    <mergeCell ref="B365:B366"/>
-    <mergeCell ref="B325:B329"/>
-    <mergeCell ref="B330:B334"/>
-    <mergeCell ref="B335:B339"/>
-    <mergeCell ref="B340:B344"/>
-    <mergeCell ref="B345:B346"/>
-    <mergeCell ref="B347:B348"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="B306:B310"/>
-    <mergeCell ref="B311:B315"/>
-    <mergeCell ref="B316:B320"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="B226:B230"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="B206:B210"/>
-    <mergeCell ref="B211:B215"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="B221:B225"/>
-    <mergeCell ref="B170:B174"/>
-    <mergeCell ref="B175:B179"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C545:D545"/>
+    <mergeCell ref="C547:D547"/>
+    <mergeCell ref="C557:D557"/>
+    <mergeCell ref="B517:D517"/>
+    <mergeCell ref="C524:D524"/>
+    <mergeCell ref="C527:D527"/>
+    <mergeCell ref="B530:D530"/>
+    <mergeCell ref="C531:D531"/>
+    <mergeCell ref="C533:D533"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9043,11 +9043,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
@@ -9085,17 +9085,17 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="46" t="s">
         <v>813</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -9189,17 +9189,17 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
@@ -9293,10 +9293,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="46"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -9390,10 +9390,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
@@ -9478,10 +9478,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="C54" s="24"/>
+      <c r="C54" s="46"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
@@ -9493,21 +9493,21 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
     </row>
     <row r="57" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="47"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="42" t="s">
         <v>549</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -9518,7 +9518,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="28"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="6" t="s">
         <v>47</v>
       </c>
@@ -9527,7 +9527,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="28"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="6" t="s">
         <v>48</v>
       </c>
@@ -9536,7 +9536,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="29"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="6" t="s">
         <v>49</v>
       </c>
@@ -9545,7 +9545,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="42" t="s">
         <v>542</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -9556,7 +9556,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="28"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="6" t="s">
         <v>51</v>
       </c>
@@ -9565,7 +9565,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="28"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="6" t="s">
         <v>52</v>
       </c>
@@ -9574,7 +9574,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="29"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="6" t="s">
         <v>53</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="42" t="s">
         <v>550</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -9594,7 +9594,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="28"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="6" t="s">
         <v>55</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="28"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="6" t="s">
         <v>56</v>
       </c>
@@ -9612,7 +9612,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="29"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
@@ -9621,7 +9621,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="42" t="s">
         <v>551</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -9632,7 +9632,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="28"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="6" t="s">
         <v>59</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="28"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
@@ -9650,7 +9650,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="29"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="6" t="s">
         <v>61</v>
       </c>
@@ -9659,7 +9659,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="42" t="s">
         <v>547</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -9670,7 +9670,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="28"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="6" t="s">
         <v>63</v>
       </c>
@@ -9679,7 +9679,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="28"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="6" t="s">
         <v>64</v>
       </c>
@@ -9688,7 +9688,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="29"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="6" t="s">
         <v>65</v>
       </c>
@@ -9697,7 +9697,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="42" t="s">
         <v>552</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -9708,7 +9708,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="28"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="6" t="s">
         <v>67</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="28"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="6" t="s">
         <v>68</v>
       </c>
@@ -9726,7 +9726,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="29"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="6" t="s">
         <v>69</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="42" t="s">
         <v>553</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -9746,7 +9746,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="28"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="6" t="s">
         <v>71</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="28"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="6" t="s">
         <v>72</v>
       </c>
@@ -9764,7 +9764,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="29"/>
+      <c r="A85" s="44"/>
       <c r="B85" s="6" t="s">
         <v>73</v>
       </c>
@@ -9773,7 +9773,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="42" t="s">
         <v>554</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -9784,7 +9784,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="28"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="6" t="s">
         <v>75</v>
       </c>
@@ -9793,7 +9793,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="28"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="6" t="s">
         <v>76</v>
       </c>
@@ -9802,7 +9802,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="29"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="6" t="s">
         <v>77</v>
       </c>
@@ -9811,7 +9811,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="42" t="s">
         <v>548</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -9822,7 +9822,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="28"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="6" t="s">
         <v>79</v>
       </c>
@@ -9831,7 +9831,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="28"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="6" t="s">
         <v>80</v>
       </c>
@@ -9840,7 +9840,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="29"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="6" t="s">
         <v>81</v>
       </c>
@@ -9849,18 +9849,18 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="C95" s="25"/>
+      <c r="C95" s="23"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
@@ -10070,18 +10070,18 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="7"/>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="C120" s="25"/>
+      <c r="C120" s="23"/>
     </row>
     <row r="121" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A121" s="7"/>
@@ -10094,10 +10094,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="7"/>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="C122" s="25"/>
+      <c r="C122" s="23"/>
     </row>
     <row r="123" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
@@ -10109,7 +10109,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="39" t="s">
         <v>586</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -10120,7 +10120,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="32"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="6" t="s">
         <v>108</v>
       </c>
@@ -10129,7 +10129,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="39" t="s">
         <v>587</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -10140,7 +10140,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="32"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="6" t="s">
         <v>110</v>
       </c>
@@ -10149,7 +10149,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="39" t="s">
         <v>595</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -10160,7 +10160,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="32"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="6" t="s">
         <v>112</v>
       </c>
@@ -10169,7 +10169,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="39" t="s">
         <v>588</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -10180,7 +10180,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="32"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="6" t="s">
         <v>114</v>
       </c>
@@ -10189,7 +10189,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="39" t="s">
         <v>589</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -10200,7 +10200,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="32"/>
+      <c r="A133" s="41"/>
       <c r="B133" s="6" t="s">
         <v>116</v>
       </c>
@@ -10209,7 +10209,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="39" t="s">
         <v>590</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -10220,7 +10220,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="32"/>
+      <c r="A135" s="41"/>
       <c r="B135" s="6" t="s">
         <v>118</v>
       </c>
@@ -10229,7 +10229,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="39" t="s">
         <v>591</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -10241,7 +10241,7 @@
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="32"/>
+      <c r="A137" s="41"/>
       <c r="B137" s="6" t="s">
         <v>120</v>
       </c>
@@ -10250,7 +10250,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="39" t="s">
         <v>592</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -10261,7 +10261,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="32"/>
+      <c r="A139" s="41"/>
       <c r="B139" s="6" t="s">
         <v>122</v>
       </c>
@@ -10270,7 +10270,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="31" t="s">
+      <c r="A140" s="39" t="s">
         <v>593</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -10281,7 +10281,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="32"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="6" t="s">
         <v>124</v>
       </c>
@@ -10290,7 +10290,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="39" t="s">
         <v>594</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -10301,7 +10301,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="32"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="6" t="s">
         <v>126</v>
       </c>
@@ -10311,10 +10311,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="15"/>
-      <c r="B144" s="25" t="s">
+      <c r="B144" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="C144" s="25"/>
+      <c r="C144" s="23"/>
     </row>
     <row r="145" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A145" s="7"/>
@@ -10327,10 +10327,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="7"/>
-      <c r="B146" s="25" t="s">
+      <c r="B146" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="C146" s="25"/>
+      <c r="C146" s="23"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="7"/>
@@ -10370,10 +10370,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="7"/>
-      <c r="B151" s="25" t="s">
+      <c r="B151" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="C151" s="25"/>
+      <c r="C151" s="23"/>
     </row>
     <row r="152" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A152" s="7"/>
@@ -10386,10 +10386,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="7"/>
-      <c r="B153" s="25" t="s">
+      <c r="B153" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="C153" s="25"/>
+      <c r="C153" s="23"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="7"/>
@@ -10429,13 +10429,13 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
-      <c r="B158" s="25" t="s">
+      <c r="B158" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="C158" s="25"/>
+      <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="39" t="s">
         <v>612</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -10446,7 +10446,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="33"/>
+      <c r="A160" s="40"/>
       <c r="B160" s="6" t="s">
         <v>138</v>
       </c>
@@ -10455,7 +10455,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="32"/>
+      <c r="A161" s="41"/>
       <c r="B161" s="6" t="s">
         <v>139</v>
       </c>
@@ -10464,7 +10464,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="31" t="s">
+      <c r="A162" s="39" t="s">
         <v>586</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -10475,7 +10475,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="33"/>
+      <c r="A163" s="40"/>
       <c r="B163" s="6" t="s">
         <v>141</v>
       </c>
@@ -10484,7 +10484,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="32"/>
+      <c r="A164" s="41"/>
       <c r="B164" s="6" t="s">
         <v>142</v>
       </c>
@@ -10493,7 +10493,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="31" t="s">
+      <c r="A165" s="39" t="s">
         <v>613</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -10504,7 +10504,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="33"/>
+      <c r="A166" s="40"/>
       <c r="B166" s="6" t="s">
         <v>144</v>
       </c>
@@ -10513,7 +10513,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="33"/>
+      <c r="A167" s="40"/>
       <c r="B167" s="6" t="s">
         <v>145</v>
       </c>
@@ -10522,7 +10522,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="33"/>
+      <c r="A168" s="40"/>
       <c r="B168" s="6" t="s">
         <v>146</v>
       </c>
@@ -10531,7 +10531,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="32"/>
+      <c r="A169" s="41"/>
       <c r="B169" s="6" t="s">
         <v>147</v>
       </c>
@@ -10540,7 +10540,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="31" t="s">
+      <c r="A170" s="39" t="s">
         <v>614</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -10551,7 +10551,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="33"/>
+      <c r="A171" s="40"/>
       <c r="B171" s="6" t="s">
         <v>149</v>
       </c>
@@ -10560,7 +10560,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="33"/>
+      <c r="A172" s="40"/>
       <c r="B172" s="6" t="s">
         <v>150</v>
       </c>
@@ -10569,7 +10569,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="33"/>
+      <c r="A173" s="40"/>
       <c r="B173" s="6" t="s">
         <v>151</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="32"/>
+      <c r="A174" s="41"/>
       <c r="B174" s="6" t="s">
         <v>152</v>
       </c>
@@ -10587,7 +10587,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="39" t="s">
         <v>615</v>
       </c>
       <c r="B175" s="6" t="s">
@@ -10598,7 +10598,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="33"/>
+      <c r="A176" s="40"/>
       <c r="B176" s="6" t="s">
         <v>154</v>
       </c>
@@ -10607,7 +10607,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="33"/>
+      <c r="A177" s="40"/>
       <c r="B177" s="6" t="s">
         <v>155</v>
       </c>
@@ -10616,7 +10616,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="33"/>
+      <c r="A178" s="40"/>
       <c r="B178" s="6" t="s">
         <v>156</v>
       </c>
@@ -10625,7 +10625,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="32"/>
+      <c r="A179" s="41"/>
       <c r="B179" s="6" t="s">
         <v>157</v>
       </c>
@@ -10634,7 +10634,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="31" t="s">
+      <c r="A180" s="39" t="s">
         <v>616</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -10645,7 +10645,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="33"/>
+      <c r="A181" s="40"/>
       <c r="B181" s="6" t="s">
         <v>159</v>
       </c>
@@ -10654,7 +10654,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="33"/>
+      <c r="A182" s="40"/>
       <c r="B182" s="6" t="s">
         <v>160</v>
       </c>
@@ -10663,7 +10663,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="33"/>
+      <c r="A183" s="40"/>
       <c r="B183" s="6" t="s">
         <v>161</v>
       </c>
@@ -10672,7 +10672,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="32"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="6" t="s">
         <v>162</v>
       </c>
@@ -10681,7 +10681,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="31" t="s">
+      <c r="A185" s="39" t="s">
         <v>617</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -10692,7 +10692,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="33"/>
+      <c r="A186" s="40"/>
       <c r="B186" s="6" t="s">
         <v>164</v>
       </c>
@@ -10701,7 +10701,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="33"/>
+      <c r="A187" s="40"/>
       <c r="B187" s="6" t="s">
         <v>165</v>
       </c>
@@ -10710,7 +10710,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="33"/>
+      <c r="A188" s="40"/>
       <c r="B188" s="6" t="s">
         <v>166</v>
       </c>
@@ -10719,7 +10719,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="32"/>
+      <c r="A189" s="41"/>
       <c r="B189" s="6" t="s">
         <v>167</v>
       </c>
@@ -10728,7 +10728,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="39" t="s">
         <v>618</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -10739,7 +10739,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="33"/>
+      <c r="A191" s="40"/>
       <c r="B191" s="6" t="s">
         <v>169</v>
       </c>
@@ -10748,7 +10748,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="33"/>
+      <c r="A192" s="40"/>
       <c r="B192" s="6" t="s">
         <v>170</v>
       </c>
@@ -10757,7 +10757,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="33"/>
+      <c r="A193" s="40"/>
       <c r="B193" s="6" t="s">
         <v>171</v>
       </c>
@@ -10766,7 +10766,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="32"/>
+      <c r="A194" s="41"/>
       <c r="B194" s="6" t="s">
         <v>172</v>
       </c>
@@ -10775,7 +10775,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="31" t="s">
+      <c r="A195" s="39" t="s">
         <v>619</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -10786,7 +10786,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="33"/>
+      <c r="A196" s="40"/>
       <c r="B196" s="6" t="s">
         <v>174</v>
       </c>
@@ -10795,7 +10795,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="33"/>
+      <c r="A197" s="40"/>
       <c r="B197" s="6" t="s">
         <v>175</v>
       </c>
@@ -10804,7 +10804,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="33"/>
+      <c r="A198" s="40"/>
       <c r="B198" s="6" t="s">
         <v>176</v>
       </c>
@@ -10813,7 +10813,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="32"/>
+      <c r="A199" s="41"/>
       <c r="B199" s="6" t="s">
         <v>177</v>
       </c>
@@ -10822,7 +10822,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="31" t="s">
+      <c r="A200" s="39" t="s">
         <v>620</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -10833,7 +10833,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="33"/>
+      <c r="A201" s="40"/>
       <c r="B201" s="6" t="s">
         <v>179</v>
       </c>
@@ -10842,7 +10842,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="32"/>
+      <c r="A202" s="41"/>
       <c r="B202" s="6" t="s">
         <v>180</v>
       </c>
@@ -10851,7 +10851,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="31" t="s">
+      <c r="A203" s="39" t="s">
         <v>588</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -10862,7 +10862,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="33"/>
+      <c r="A204" s="40"/>
       <c r="B204" s="6" t="s">
         <v>182</v>
       </c>
@@ -10871,7 +10871,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="32"/>
+      <c r="A205" s="41"/>
       <c r="B205" s="6" t="s">
         <v>183</v>
       </c>
@@ -10880,7 +10880,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="31" t="s">
+      <c r="A206" s="39" t="s">
         <v>621</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -10891,7 +10891,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="33"/>
+      <c r="A207" s="40"/>
       <c r="B207" s="6" t="s">
         <v>185</v>
       </c>
@@ -10900,7 +10900,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="33"/>
+      <c r="A208" s="40"/>
       <c r="B208" s="6" t="s">
         <v>186</v>
       </c>
@@ -10909,7 +10909,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="33"/>
+      <c r="A209" s="40"/>
       <c r="B209" s="6" t="s">
         <v>187</v>
       </c>
@@ -10918,7 +10918,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="32"/>
+      <c r="A210" s="41"/>
       <c r="B210" s="6" t="s">
         <v>188</v>
       </c>
@@ -10927,7 +10927,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="31" t="s">
+      <c r="A211" s="39" t="s">
         <v>622</v>
       </c>
       <c r="B211" s="6" t="s">
@@ -10938,7 +10938,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="33"/>
+      <c r="A212" s="40"/>
       <c r="B212" s="6" t="s">
         <v>190</v>
       </c>
@@ -10947,7 +10947,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="33"/>
+      <c r="A213" s="40"/>
       <c r="B213" s="6" t="s">
         <v>191</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="33"/>
+      <c r="A214" s="40"/>
       <c r="B214" s="6" t="s">
         <v>192</v>
       </c>
@@ -10965,7 +10965,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="32"/>
+      <c r="A215" s="41"/>
       <c r="B215" s="6" t="s">
         <v>193</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="31" t="s">
+      <c r="A216" s="39" t="s">
         <v>623</v>
       </c>
       <c r="B216" s="6" t="s">
@@ -10985,7 +10985,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="33"/>
+      <c r="A217" s="40"/>
       <c r="B217" s="6" t="s">
         <v>195</v>
       </c>
@@ -10994,7 +10994,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="33"/>
+      <c r="A218" s="40"/>
       <c r="B218" s="6" t="s">
         <v>196</v>
       </c>
@@ -11003,7 +11003,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="33"/>
+      <c r="A219" s="40"/>
       <c r="B219" s="6" t="s">
         <v>197</v>
       </c>
@@ -11012,7 +11012,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="32"/>
+      <c r="A220" s="41"/>
       <c r="B220" s="6" t="s">
         <v>198</v>
       </c>
@@ -11021,7 +11021,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="31" t="s">
+      <c r="A221" s="39" t="s">
         <v>624</v>
       </c>
       <c r="B221" s="6" t="s">
@@ -11032,7 +11032,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="33"/>
+      <c r="A222" s="40"/>
       <c r="B222" s="6" t="s">
         <v>200</v>
       </c>
@@ -11041,7 +11041,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="33"/>
+      <c r="A223" s="40"/>
       <c r="B223" s="6" t="s">
         <v>201</v>
       </c>
@@ -11050,7 +11050,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="33"/>
+      <c r="A224" s="40"/>
       <c r="B224" s="6" t="s">
         <v>202</v>
       </c>
@@ -11059,7 +11059,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="32"/>
+      <c r="A225" s="41"/>
       <c r="B225" s="6" t="s">
         <v>203</v>
       </c>
@@ -11068,7 +11068,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="31" t="s">
+      <c r="A226" s="39" t="s">
         <v>590</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -11079,7 +11079,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" s="33"/>
+      <c r="A227" s="40"/>
       <c r="B227" s="6" t="s">
         <v>205</v>
       </c>
@@ -11088,7 +11088,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="33"/>
+      <c r="A228" s="40"/>
       <c r="B228" s="6" t="s">
         <v>206</v>
       </c>
@@ -11097,7 +11097,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="33"/>
+      <c r="A229" s="40"/>
       <c r="B229" s="6" t="s">
         <v>207</v>
       </c>
@@ -11106,7 +11106,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" s="32"/>
+      <c r="A230" s="41"/>
       <c r="B230" s="6" t="s">
         <v>208</v>
       </c>
@@ -11115,7 +11115,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" s="31" t="s">
+      <c r="A231" s="39" t="s">
         <v>591</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -11126,7 +11126,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="33"/>
+      <c r="A232" s="40"/>
       <c r="B232" s="6" t="s">
         <v>210</v>
       </c>
@@ -11135,7 +11135,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="33"/>
+      <c r="A233" s="40"/>
       <c r="B233" s="6" t="s">
         <v>211</v>
       </c>
@@ -11144,7 +11144,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="33"/>
+      <c r="A234" s="40"/>
       <c r="B234" s="6" t="s">
         <v>212</v>
       </c>
@@ -11153,7 +11153,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" s="32"/>
+      <c r="A235" s="41"/>
       <c r="B235" s="6" t="s">
         <v>213</v>
       </c>
@@ -11162,7 +11162,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="31" t="s">
+      <c r="A236" s="39" t="s">
         <v>592</v>
       </c>
       <c r="B236" s="6" t="s">
@@ -11173,7 +11173,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="33"/>
+      <c r="A237" s="40"/>
       <c r="B237" s="6" t="s">
         <v>215</v>
       </c>
@@ -11182,7 +11182,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="33"/>
+      <c r="A238" s="40"/>
       <c r="B238" s="6" t="s">
         <v>216</v>
       </c>
@@ -11191,7 +11191,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="33"/>
+      <c r="A239" s="40"/>
       <c r="B239" s="6" t="s">
         <v>217</v>
       </c>
@@ -11200,7 +11200,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" s="32"/>
+      <c r="A240" s="41"/>
       <c r="B240" s="6" t="s">
         <v>218</v>
       </c>
@@ -11209,7 +11209,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="31" t="s">
+      <c r="A241" s="39" t="s">
         <v>625</v>
       </c>
       <c r="B241" s="6" t="s">
@@ -11220,7 +11220,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="33"/>
+      <c r="A242" s="40"/>
       <c r="B242" s="6" t="s">
         <v>220</v>
       </c>
@@ -11229,7 +11229,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="33"/>
+      <c r="A243" s="40"/>
       <c r="B243" s="6" t="s">
         <v>221</v>
       </c>
@@ -11238,7 +11238,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="33"/>
+      <c r="A244" s="40"/>
       <c r="B244" s="6" t="s">
         <v>222</v>
       </c>
@@ -11247,7 +11247,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="32"/>
+      <c r="A245" s="41"/>
       <c r="B245" s="6" t="s">
         <v>223</v>
       </c>
@@ -11256,7 +11256,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="31" t="s">
+      <c r="A246" s="39" t="s">
         <v>626</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -11267,7 +11267,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="33"/>
+      <c r="A247" s="40"/>
       <c r="B247" s="6" t="s">
         <v>225</v>
       </c>
@@ -11276,7 +11276,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="32"/>
+      <c r="A248" s="41"/>
       <c r="B248" s="6" t="s">
         <v>226</v>
       </c>
@@ -11352,10 +11352,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="12"/>
-      <c r="B255" s="25" t="s">
+      <c r="B255" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="C255" s="25"/>
+      <c r="C255" s="23"/>
     </row>
     <row r="256" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A256" s="7"/>
@@ -11367,18 +11367,18 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="23" t="s">
+      <c r="A257" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="B257" s="23"/>
-      <c r="C257" s="23"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="24"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="7"/>
-      <c r="B258" s="25" t="s">
+      <c r="B258" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="C258" s="25"/>
+      <c r="C258" s="23"/>
     </row>
     <row r="259" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A259" s="7"/>
@@ -11391,10 +11391,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="7"/>
-      <c r="B260" s="25" t="s">
+      <c r="B260" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="C260" s="25"/>
+      <c r="C260" s="23"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
@@ -11708,10 +11708,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="7"/>
-      <c r="B290" s="25" t="s">
+      <c r="B290" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="C290" s="25"/>
+      <c r="C290" s="23"/>
     </row>
     <row r="291" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A291" s="7"/>
@@ -11724,10 +11724,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="7"/>
-      <c r="B292" s="25" t="s">
+      <c r="B292" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="C292" s="25"/>
+      <c r="C292" s="23"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="7"/>
@@ -11803,13 +11803,13 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="7"/>
-      <c r="B301" s="25" t="s">
+      <c r="B301" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="C301" s="25"/>
+      <c r="C301" s="23"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" s="34" t="s">
+      <c r="A302" s="25" t="s">
         <v>678</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -11820,7 +11820,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" s="36"/>
+      <c r="A303" s="27"/>
       <c r="B303" s="6" t="s">
         <v>274</v>
       </c>
@@ -11829,7 +11829,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" s="34" t="s">
+      <c r="A304" s="25" t="s">
         <v>679</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -11840,7 +11840,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" s="36"/>
+      <c r="A305" s="27"/>
       <c r="B305" s="6" t="s">
         <v>276</v>
       </c>
@@ -11849,7 +11849,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" s="34" t="s">
+      <c r="A306" s="25" t="s">
         <v>681</v>
       </c>
       <c r="B306" s="6" t="s">
@@ -11860,7 +11860,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" s="35"/>
+      <c r="A307" s="26"/>
       <c r="B307" s="6" t="s">
         <v>278</v>
       </c>
@@ -11869,7 +11869,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" s="35"/>
+      <c r="A308" s="26"/>
       <c r="B308" s="6" t="s">
         <v>279</v>
       </c>
@@ -11878,7 +11878,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" s="35"/>
+      <c r="A309" s="26"/>
       <c r="B309" s="6" t="s">
         <v>280</v>
       </c>
@@ -11887,7 +11887,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" s="36"/>
+      <c r="A310" s="27"/>
       <c r="B310" s="6" t="s">
         <v>281</v>
       </c>
@@ -11896,7 +11896,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" s="34" t="s">
+      <c r="A311" s="25" t="s">
         <v>682</v>
       </c>
       <c r="B311" s="6" t="s">
@@ -11907,7 +11907,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" s="35"/>
+      <c r="A312" s="26"/>
       <c r="B312" s="6" t="s">
         <v>283</v>
       </c>
@@ -11916,7 +11916,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" s="35"/>
+      <c r="A313" s="26"/>
       <c r="B313" s="6" t="s">
         <v>284</v>
       </c>
@@ -11925,7 +11925,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" s="35"/>
+      <c r="A314" s="26"/>
       <c r="B314" s="6" t="s">
         <v>285</v>
       </c>
@@ -11934,7 +11934,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" s="36"/>
+      <c r="A315" s="27"/>
       <c r="B315" s="6" t="s">
         <v>286</v>
       </c>
@@ -11943,7 +11943,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" s="34" t="s">
+      <c r="A316" s="25" t="s">
         <v>683</v>
       </c>
       <c r="B316" s="6" t="s">
@@ -11954,7 +11954,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" s="35"/>
+      <c r="A317" s="26"/>
       <c r="B317" s="6" t="s">
         <v>288</v>
       </c>
@@ -11963,7 +11963,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" s="35"/>
+      <c r="A318" s="26"/>
       <c r="B318" s="6" t="s">
         <v>289</v>
       </c>
@@ -11972,7 +11972,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" s="35"/>
+      <c r="A319" s="26"/>
       <c r="B319" s="6" t="s">
         <v>290</v>
       </c>
@@ -11981,7 +11981,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" s="36"/>
+      <c r="A320" s="27"/>
       <c r="B320" s="6" t="s">
         <v>291</v>
       </c>
@@ -11990,7 +11990,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" s="37" t="s">
+      <c r="A321" s="36" t="s">
         <v>684</v>
       </c>
       <c r="B321" s="6" t="s">
@@ -12001,7 +12001,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" s="38"/>
+      <c r="A322" s="37"/>
       <c r="B322" s="6" t="s">
         <v>293</v>
       </c>
@@ -12010,7 +12010,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" s="38"/>
+      <c r="A323" s="37"/>
       <c r="B323" s="6" t="s">
         <v>294</v>
       </c>
@@ -12019,7 +12019,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" s="39"/>
+      <c r="A324" s="38"/>
       <c r="B324" s="6" t="s">
         <v>295</v>
       </c>
@@ -12028,7 +12028,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" s="34" t="s">
+      <c r="A325" s="25" t="s">
         <v>685</v>
       </c>
       <c r="B325" s="6" t="s">
@@ -12039,7 +12039,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" s="35"/>
+      <c r="A326" s="26"/>
       <c r="B326" s="6" t="s">
         <v>297</v>
       </c>
@@ -12048,7 +12048,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" s="35"/>
+      <c r="A327" s="26"/>
       <c r="B327" s="6" t="s">
         <v>298</v>
       </c>
@@ -12057,7 +12057,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" s="35"/>
+      <c r="A328" s="26"/>
       <c r="B328" s="6" t="s">
         <v>299</v>
       </c>
@@ -12066,7 +12066,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" s="36"/>
+      <c r="A329" s="27"/>
       <c r="B329" s="6" t="s">
         <v>300</v>
       </c>
@@ -12075,7 +12075,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" s="34" t="s">
+      <c r="A330" s="25" t="s">
         <v>686</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -12086,7 +12086,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" s="35"/>
+      <c r="A331" s="26"/>
       <c r="B331" s="6" t="s">
         <v>302</v>
       </c>
@@ -12095,7 +12095,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" s="35"/>
+      <c r="A332" s="26"/>
       <c r="B332" s="6" t="s">
         <v>303</v>
       </c>
@@ -12104,7 +12104,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" s="35"/>
+      <c r="A333" s="26"/>
       <c r="B333" s="6" t="s">
         <v>304</v>
       </c>
@@ -12113,7 +12113,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" s="36"/>
+      <c r="A334" s="27"/>
       <c r="B334" s="6" t="s">
         <v>305</v>
       </c>
@@ -12122,7 +12122,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" s="34" t="s">
+      <c r="A335" s="25" t="s">
         <v>687</v>
       </c>
       <c r="B335" s="6" t="s">
@@ -12133,7 +12133,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" s="35"/>
+      <c r="A336" s="26"/>
       <c r="B336" s="6" t="s">
         <v>307</v>
       </c>
@@ -12142,7 +12142,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" s="35"/>
+      <c r="A337" s="26"/>
       <c r="B337" s="6" t="s">
         <v>308</v>
       </c>
@@ -12151,7 +12151,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" s="35"/>
+      <c r="A338" s="26"/>
       <c r="B338" s="6" t="s">
         <v>309</v>
       </c>
@@ -12160,7 +12160,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" s="36"/>
+      <c r="A339" s="27"/>
       <c r="B339" s="6" t="s">
         <v>310</v>
       </c>
@@ -12169,7 +12169,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" s="34" t="s">
+      <c r="A340" s="25" t="s">
         <v>688</v>
       </c>
       <c r="B340" s="6" t="s">
@@ -12180,7 +12180,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" s="35"/>
+      <c r="A341" s="26"/>
       <c r="B341" s="6" t="s">
         <v>312</v>
       </c>
@@ -12189,7 +12189,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" s="35"/>
+      <c r="A342" s="26"/>
       <c r="B342" s="6" t="s">
         <v>313</v>
       </c>
@@ -12198,7 +12198,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" s="35"/>
+      <c r="A343" s="26"/>
       <c r="B343" s="6" t="s">
         <v>314</v>
       </c>
@@ -12207,7 +12207,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" s="36"/>
+      <c r="A344" s="27"/>
       <c r="B344" s="6" t="s">
         <v>315</v>
       </c>
@@ -12216,7 +12216,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" s="34" t="s">
+      <c r="A345" s="25" t="s">
         <v>689</v>
       </c>
       <c r="B345" s="6" t="s">
@@ -12227,7 +12227,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" s="36"/>
+      <c r="A346" s="27"/>
       <c r="B346" s="6" t="s">
         <v>317</v>
       </c>
@@ -12236,7 +12236,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" s="34" t="s">
+      <c r="A347" s="25" t="s">
         <v>690</v>
       </c>
       <c r="B347" s="6" t="s">
@@ -12247,7 +12247,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" s="36"/>
+      <c r="A348" s="27"/>
       <c r="B348" s="6" t="s">
         <v>319</v>
       </c>
@@ -12256,7 +12256,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" s="34" t="s">
+      <c r="A349" s="25" t="s">
         <v>691</v>
       </c>
       <c r="B349" s="6" t="s">
@@ -12267,7 +12267,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" s="36"/>
+      <c r="A350" s="27"/>
       <c r="B350" s="6" t="s">
         <v>321</v>
       </c>
@@ -12276,7 +12276,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" s="34" t="s">
+      <c r="A351" s="25" t="s">
         <v>692</v>
       </c>
       <c r="B351" s="6" t="s">
@@ -12287,7 +12287,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" s="35"/>
+      <c r="A352" s="26"/>
       <c r="B352" s="6" t="s">
         <v>323</v>
       </c>
@@ -12296,7 +12296,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" s="35"/>
+      <c r="A353" s="26"/>
       <c r="B353" s="6" t="s">
         <v>324</v>
       </c>
@@ -12305,7 +12305,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="35"/>
+      <c r="A354" s="26"/>
       <c r="B354" s="6" t="s">
         <v>325</v>
       </c>
@@ -12314,7 +12314,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" s="36"/>
+      <c r="A355" s="27"/>
       <c r="B355" s="6" t="s">
         <v>326</v>
       </c>
@@ -12323,7 +12323,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" s="40" t="s">
+      <c r="A356" s="33" t="s">
         <v>693</v>
       </c>
       <c r="B356" s="6" t="s">
@@ -12334,7 +12334,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" s="41"/>
+      <c r="A357" s="34"/>
       <c r="B357" s="6" t="s">
         <v>328</v>
       </c>
@@ -12343,7 +12343,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" s="41"/>
+      <c r="A358" s="34"/>
       <c r="B358" s="6" t="s">
         <v>329</v>
       </c>
@@ -12352,7 +12352,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" s="41"/>
+      <c r="A359" s="34"/>
       <c r="B359" s="6" t="s">
         <v>330</v>
       </c>
@@ -12361,7 +12361,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" s="42"/>
+      <c r="A360" s="35"/>
       <c r="B360" s="6" t="s">
         <v>331</v>
       </c>
@@ -12370,7 +12370,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" s="34" t="s">
+      <c r="A361" s="25" t="s">
         <v>694</v>
       </c>
       <c r="B361" s="6" t="s">
@@ -12381,7 +12381,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" s="36"/>
+      <c r="A362" s="27"/>
       <c r="B362" s="6" t="s">
         <v>333</v>
       </c>
@@ -12390,7 +12390,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" s="34" t="s">
+      <c r="A363" s="25" t="s">
         <v>695</v>
       </c>
       <c r="B363" s="6" t="s">
@@ -12401,7 +12401,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" s="36"/>
+      <c r="A364" s="27"/>
       <c r="B364" s="6" t="s">
         <v>335</v>
       </c>
@@ -12410,7 +12410,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" s="34" t="s">
+      <c r="A365" s="25" t="s">
         <v>696</v>
       </c>
       <c r="B365" s="6" t="s">
@@ -12421,7 +12421,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" s="36"/>
+      <c r="A366" s="27"/>
       <c r="B366" s="6" t="s">
         <v>337</v>
       </c>
@@ -12430,7 +12430,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" s="34" t="s">
+      <c r="A367" s="25" t="s">
         <v>697</v>
       </c>
       <c r="B367" s="6" t="s">
@@ -12441,7 +12441,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" s="36"/>
+      <c r="A368" s="27"/>
       <c r="B368" s="6" t="s">
         <v>339</v>
       </c>
@@ -12451,10 +12451,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="18"/>
-      <c r="B369" s="25" t="s">
+      <c r="B369" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="C369" s="25"/>
+      <c r="C369" s="23"/>
     </row>
     <row r="370" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A370" s="7"/>
@@ -12466,18 +12466,18 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" s="23" t="s">
+      <c r="A371" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="B371" s="23"/>
-      <c r="C371" s="23"/>
+      <c r="B371" s="24"/>
+      <c r="C371" s="24"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="7"/>
-      <c r="B372" s="25" t="s">
+      <c r="B372" s="23" t="s">
         <v>700</v>
       </c>
-      <c r="C372" s="25"/>
+      <c r="C372" s="23"/>
     </row>
     <row r="373" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A373" s="7"/>
@@ -12490,10 +12490,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="7"/>
-      <c r="B374" s="25" t="s">
+      <c r="B374" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="C374" s="25"/>
+      <c r="C374" s="23"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
@@ -12563,13 +12563,13 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="7"/>
-      <c r="B381" s="25" t="s">
+      <c r="B381" s="23" t="s">
         <v>710</v>
       </c>
-      <c r="C381" s="25"/>
+      <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" s="34" t="s">
+      <c r="A382" s="25" t="s">
         <v>711</v>
       </c>
       <c r="B382" s="6" t="s">
@@ -12580,7 +12580,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" s="36"/>
+      <c r="A383" s="27"/>
       <c r="B383" s="6" t="s">
         <v>349</v>
       </c>
@@ -12589,7 +12589,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" s="34" t="s">
+      <c r="A384" s="25" t="s">
         <v>712</v>
       </c>
       <c r="B384" s="6" t="s">
@@ -12600,7 +12600,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" s="36"/>
+      <c r="A385" s="27"/>
       <c r="B385" s="6" t="s">
         <v>351</v>
       </c>
@@ -12609,7 +12609,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A386" s="34" t="s">
+      <c r="A386" s="25" t="s">
         <v>713</v>
       </c>
       <c r="B386" s="6" t="s">
@@ -12620,7 +12620,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A387" s="35"/>
+      <c r="A387" s="26"/>
       <c r="B387" s="6" t="s">
         <v>353</v>
       </c>
@@ -12629,7 +12629,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A388" s="35"/>
+      <c r="A388" s="26"/>
       <c r="B388" s="6" t="s">
         <v>354</v>
       </c>
@@ -12638,7 +12638,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A389" s="36"/>
+      <c r="A389" s="27"/>
       <c r="B389" s="6" t="s">
         <v>355</v>
       </c>
@@ -12647,7 +12647,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A390" s="34" t="s">
+      <c r="A390" s="25" t="s">
         <v>714</v>
       </c>
       <c r="B390" s="6" t="s">
@@ -12658,7 +12658,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A391" s="35"/>
+      <c r="A391" s="26"/>
       <c r="B391" s="6" t="s">
         <v>357</v>
       </c>
@@ -12667,7 +12667,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A392" s="35"/>
+      <c r="A392" s="26"/>
       <c r="B392" s="6" t="s">
         <v>358</v>
       </c>
@@ -12676,7 +12676,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A393" s="36"/>
+      <c r="A393" s="27"/>
       <c r="B393" s="6" t="s">
         <v>359</v>
       </c>
@@ -12685,7 +12685,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" s="34" t="s">
+      <c r="A394" s="25" t="s">
         <v>715</v>
       </c>
       <c r="B394" s="6" t="s">
@@ -12696,7 +12696,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A395" s="36"/>
+      <c r="A395" s="27"/>
       <c r="B395" s="6" t="s">
         <v>361</v>
       </c>
@@ -12705,7 +12705,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A396" s="34" t="s">
+      <c r="A396" s="25" t="s">
         <v>716</v>
       </c>
       <c r="B396" s="6" t="s">
@@ -12716,7 +12716,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A397" s="36"/>
+      <c r="A397" s="27"/>
       <c r="B397" s="6" t="s">
         <v>363</v>
       </c>
@@ -12725,7 +12725,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A398" s="34" t="s">
+      <c r="A398" s="25" t="s">
         <v>717</v>
       </c>
       <c r="B398" s="6" t="s">
@@ -12736,7 +12736,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A399" s="36"/>
+      <c r="A399" s="27"/>
       <c r="B399" s="6" t="s">
         <v>365</v>
       </c>
@@ -12745,7 +12745,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A400" s="34" t="s">
+      <c r="A400" s="25" t="s">
         <v>718</v>
       </c>
       <c r="B400" s="6" t="s">
@@ -12756,7 +12756,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" s="36"/>
+      <c r="A401" s="27"/>
       <c r="B401" s="6" t="s">
         <v>367</v>
       </c>
@@ -12765,7 +12765,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A402" s="34" t="s">
+      <c r="A402" s="25" t="s">
         <v>719</v>
       </c>
       <c r="B402" s="6" t="s">
@@ -12776,7 +12776,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A403" s="36"/>
+      <c r="A403" s="27"/>
       <c r="B403" s="6" t="s">
         <v>369</v>
       </c>
@@ -12785,7 +12785,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A404" s="34" t="s">
+      <c r="A404" s="25" t="s">
         <v>720</v>
       </c>
       <c r="B404" s="6" t="s">
@@ -12796,7 +12796,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A405" s="36"/>
+      <c r="A405" s="27"/>
       <c r="B405" s="6" t="s">
         <v>371</v>
       </c>
@@ -12805,7 +12805,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A406" s="34" t="s">
+      <c r="A406" s="25" t="s">
         <v>721</v>
       </c>
       <c r="B406" s="6" t="s">
@@ -12816,7 +12816,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A407" s="36"/>
+      <c r="A407" s="27"/>
       <c r="B407" s="6" t="s">
         <v>373</v>
       </c>
@@ -12826,10 +12826,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" s="18"/>
-      <c r="B408" s="25" t="s">
+      <c r="B408" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="C408" s="25"/>
+      <c r="C408" s="23"/>
     </row>
     <row r="409" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A409" s="7"/>
@@ -12841,18 +12841,18 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="B410" s="23"/>
-      <c r="C410" s="23"/>
+      <c r="B410" s="24"/>
+      <c r="C410" s="24"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="7"/>
-      <c r="B411" s="25" t="s">
+      <c r="B411" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="C411" s="25"/>
+      <c r="C411" s="23"/>
     </row>
     <row r="412" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A412" s="7"/>
@@ -12865,13 +12865,13 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="7"/>
-      <c r="B413" s="25" t="s">
+      <c r="B413" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="C413" s="25"/>
+      <c r="C413" s="23"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A414" s="34" t="s">
+      <c r="A414" s="25" t="s">
         <v>733</v>
       </c>
       <c r="B414" s="6" t="s">
@@ -12882,7 +12882,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A415" s="35"/>
+      <c r="A415" s="26"/>
       <c r="B415" s="6" t="s">
         <v>377</v>
       </c>
@@ -12891,7 +12891,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A416" s="35"/>
+      <c r="A416" s="26"/>
       <c r="B416" s="6" t="s">
         <v>378</v>
       </c>
@@ -12900,7 +12900,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A417" s="35"/>
+      <c r="A417" s="26"/>
       <c r="B417" s="6" t="s">
         <v>379</v>
       </c>
@@ -12909,7 +12909,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A418" s="36"/>
+      <c r="A418" s="27"/>
       <c r="B418" s="6" t="s">
         <v>380</v>
       </c>
@@ -12918,7 +12918,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A419" s="45" t="s">
+      <c r="A419" s="30" t="s">
         <v>734</v>
       </c>
       <c r="B419" s="6" t="s">
@@ -12929,7 +12929,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A420" s="46"/>
+      <c r="A420" s="31"/>
       <c r="B420" s="6" t="s">
         <v>382</v>
       </c>
@@ -12938,7 +12938,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A421" s="47"/>
+      <c r="A421" s="32"/>
       <c r="B421" s="6" t="s">
         <v>383</v>
       </c>
@@ -12947,7 +12947,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A422" s="34" t="s">
+      <c r="A422" s="25" t="s">
         <v>735</v>
       </c>
       <c r="B422" s="6" t="s">
@@ -12958,7 +12958,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A423" s="35"/>
+      <c r="A423" s="26"/>
       <c r="B423" s="6" t="s">
         <v>385</v>
       </c>
@@ -12967,7 +12967,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A424" s="35"/>
+      <c r="A424" s="26"/>
       <c r="B424" s="6" t="s">
         <v>386</v>
       </c>
@@ -12976,7 +12976,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A425" s="35"/>
+      <c r="A425" s="26"/>
       <c r="B425" s="6" t="s">
         <v>387</v>
       </c>
@@ -12985,7 +12985,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A426" s="36"/>
+      <c r="A426" s="27"/>
       <c r="B426" s="6" t="s">
         <v>388</v>
       </c>
@@ -12994,7 +12994,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A427" s="34" t="s">
+      <c r="A427" s="25" t="s">
         <v>736</v>
       </c>
       <c r="B427" s="6" t="s">
@@ -13005,7 +13005,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A428" s="35"/>
+      <c r="A428" s="26"/>
       <c r="B428" s="6" t="s">
         <v>390</v>
       </c>
@@ -13014,7 +13014,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A429" s="36"/>
+      <c r="A429" s="27"/>
       <c r="B429" s="6" t="s">
         <v>391</v>
       </c>
@@ -13023,7 +13023,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A430" s="34" t="s">
+      <c r="A430" s="25" t="s">
         <v>737</v>
       </c>
       <c r="B430" s="6" t="s">
@@ -13034,7 +13034,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A431" s="35"/>
+      <c r="A431" s="26"/>
       <c r="B431" s="6" t="s">
         <v>393</v>
       </c>
@@ -13043,7 +13043,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A432" s="36"/>
+      <c r="A432" s="27"/>
       <c r="B432" s="6" t="s">
         <v>394</v>
       </c>
@@ -13052,7 +13052,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A433" s="34" t="s">
+      <c r="A433" s="25" t="s">
         <v>738</v>
       </c>
       <c r="B433" s="6" t="s">
@@ -13063,7 +13063,7 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A434" s="35"/>
+      <c r="A434" s="26"/>
       <c r="B434" s="6" t="s">
         <v>396</v>
       </c>
@@ -13072,7 +13072,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A435" s="35"/>
+      <c r="A435" s="26"/>
       <c r="B435" s="6" t="s">
         <v>397</v>
       </c>
@@ -13081,7 +13081,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A436" s="35"/>
+      <c r="A436" s="26"/>
       <c r="B436" s="6" t="s">
         <v>398</v>
       </c>
@@ -13090,7 +13090,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A437" s="36"/>
+      <c r="A437" s="27"/>
       <c r="B437" s="6" t="s">
         <v>399</v>
       </c>
@@ -13099,7 +13099,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A438" s="34" t="s">
+      <c r="A438" s="25" t="s">
         <v>739</v>
       </c>
       <c r="B438" s="6" t="s">
@@ -13110,7 +13110,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A439" s="35"/>
+      <c r="A439" s="26"/>
       <c r="B439" s="6" t="s">
         <v>401</v>
       </c>
@@ -13119,7 +13119,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A440" s="35"/>
+      <c r="A440" s="26"/>
       <c r="B440" s="6" t="s">
         <v>402</v>
       </c>
@@ -13128,7 +13128,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A441" s="36"/>
+      <c r="A441" s="27"/>
       <c r="B441" s="6" t="s">
         <v>403</v>
       </c>
@@ -13138,20 +13138,20 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" s="18"/>
-      <c r="B442" s="25" t="s">
+      <c r="B442" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="C442" s="25"/>
+      <c r="C442" s="23"/>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="17"/>
-      <c r="B443" s="43" t="s">
+      <c r="B443" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="C443" s="44"/>
+      <c r="C443" s="29"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A444" s="34" t="s">
+      <c r="A444" s="25" t="s">
         <v>741</v>
       </c>
       <c r="B444" s="6" t="s">
@@ -13162,7 +13162,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A445" s="35"/>
+      <c r="A445" s="26"/>
       <c r="B445" s="6" t="s">
         <v>405</v>
       </c>
@@ -13171,7 +13171,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A446" s="35"/>
+      <c r="A446" s="26"/>
       <c r="B446" s="6" t="s">
         <v>406</v>
       </c>
@@ -13180,7 +13180,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A447" s="36"/>
+      <c r="A447" s="27"/>
       <c r="B447" s="6" t="s">
         <v>407</v>
       </c>
@@ -13189,7 +13189,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A448" s="34" t="s">
+      <c r="A448" s="25" t="s">
         <v>742</v>
       </c>
       <c r="B448" s="6" t="s">
@@ -13200,7 +13200,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A449" s="35"/>
+      <c r="A449" s="26"/>
       <c r="B449" s="6" t="s">
         <v>409</v>
       </c>
@@ -13209,7 +13209,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A450" s="35"/>
+      <c r="A450" s="26"/>
       <c r="B450" s="6" t="s">
         <v>410</v>
       </c>
@@ -13218,7 +13218,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A451" s="36"/>
+      <c r="A451" s="27"/>
       <c r="B451" s="6" t="s">
         <v>411</v>
       </c>
@@ -13227,7 +13227,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A452" s="34" t="s">
+      <c r="A452" s="25" t="s">
         <v>743</v>
       </c>
       <c r="B452" s="6" t="s">
@@ -13238,7 +13238,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A453" s="35"/>
+      <c r="A453" s="26"/>
       <c r="B453" s="6" t="s">
         <v>413</v>
       </c>
@@ -13247,7 +13247,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A454" s="35"/>
+      <c r="A454" s="26"/>
       <c r="B454" s="6" t="s">
         <v>414</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A455" s="36"/>
+      <c r="A455" s="27"/>
       <c r="B455" s="6" t="s">
         <v>415</v>
       </c>
@@ -13266,13 +13266,13 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="18"/>
-      <c r="B456" s="43" t="s">
+      <c r="B456" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="C456" s="44"/>
+      <c r="C456" s="29"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A457" s="34" t="s">
+      <c r="A457" s="25" t="s">
         <v>741</v>
       </c>
       <c r="B457" s="6" t="s">
@@ -13283,7 +13283,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A458" s="35"/>
+      <c r="A458" s="26"/>
       <c r="B458" s="6" t="s">
         <v>417</v>
       </c>
@@ -13292,7 +13292,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A459" s="35"/>
+      <c r="A459" s="26"/>
       <c r="B459" s="6" t="s">
         <v>418</v>
       </c>
@@ -13301,7 +13301,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A460" s="36"/>
+      <c r="A460" s="27"/>
       <c r="B460" s="6" t="s">
         <v>419</v>
       </c>
@@ -13310,7 +13310,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A461" s="34" t="s">
+      <c r="A461" s="25" t="s">
         <v>742</v>
       </c>
       <c r="B461" s="6" t="s">
@@ -13321,7 +13321,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A462" s="35"/>
+      <c r="A462" s="26"/>
       <c r="B462" s="6" t="s">
         <v>421</v>
       </c>
@@ -13330,7 +13330,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A463" s="35"/>
+      <c r="A463" s="26"/>
       <c r="B463" s="6" t="s">
         <v>422</v>
       </c>
@@ -13339,7 +13339,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A464" s="36"/>
+      <c r="A464" s="27"/>
       <c r="B464" s="6" t="s">
         <v>423</v>
       </c>
@@ -13348,7 +13348,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A465" s="34" t="s">
+      <c r="A465" s="25" t="s">
         <v>743</v>
       </c>
       <c r="B465" s="6" t="s">
@@ -13359,7 +13359,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A466" s="35"/>
+      <c r="A466" s="26"/>
       <c r="B466" s="6" t="s">
         <v>425</v>
       </c>
@@ -13368,7 +13368,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A467" s="35"/>
+      <c r="A467" s="26"/>
       <c r="B467" s="6" t="s">
         <v>426</v>
       </c>
@@ -13377,7 +13377,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A468" s="36"/>
+      <c r="A468" s="27"/>
       <c r="B468" s="6" t="s">
         <v>427</v>
       </c>
@@ -13386,7 +13386,7 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A469" s="34" t="s">
+      <c r="A469" s="25" t="s">
         <v>746</v>
       </c>
       <c r="B469" s="6" t="s">
@@ -13397,7 +13397,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A470" s="35"/>
+      <c r="A470" s="26"/>
       <c r="B470" s="6" t="s">
         <v>429</v>
       </c>
@@ -13406,7 +13406,7 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A471" s="35"/>
+      <c r="A471" s="26"/>
       <c r="B471" s="6" t="s">
         <v>430</v>
       </c>
@@ -13415,7 +13415,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A472" s="36"/>
+      <c r="A472" s="27"/>
       <c r="B472" s="6" t="s">
         <v>431</v>
       </c>
@@ -13425,13 +13425,13 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473" s="18"/>
-      <c r="B473" s="25" t="s">
+      <c r="B473" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="C473" s="25"/>
+      <c r="C473" s="23"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A474" s="34" t="s">
+      <c r="A474" s="25" t="s">
         <v>748</v>
       </c>
       <c r="B474" s="6" t="s">
@@ -13442,7 +13442,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A475" s="36"/>
+      <c r="A475" s="27"/>
       <c r="B475" s="6" t="s">
         <v>433</v>
       </c>
@@ -13451,7 +13451,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A476" s="34" t="s">
+      <c r="A476" s="25" t="s">
         <v>749</v>
       </c>
       <c r="B476" s="6" t="s">
@@ -13462,7 +13462,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A477" s="36"/>
+      <c r="A477" s="27"/>
       <c r="B477" s="6" t="s">
         <v>435</v>
       </c>
@@ -13471,7 +13471,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A478" s="34" t="s">
+      <c r="A478" s="25" t="s">
         <v>750</v>
       </c>
       <c r="B478" s="6" t="s">
@@ -13482,7 +13482,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A479" s="35"/>
+      <c r="A479" s="26"/>
       <c r="B479" s="6" t="s">
         <v>437</v>
       </c>
@@ -13491,7 +13491,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A480" s="35"/>
+      <c r="A480" s="26"/>
       <c r="B480" s="6" t="s">
         <v>438</v>
       </c>
@@ -13500,7 +13500,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A481" s="36"/>
+      <c r="A481" s="27"/>
       <c r="B481" s="6" t="s">
         <v>439</v>
       </c>
@@ -13509,7 +13509,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A482" s="34" t="s">
+      <c r="A482" s="25" t="s">
         <v>751</v>
       </c>
       <c r="B482" s="6" t="s">
@@ -13520,7 +13520,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A483" s="35"/>
+      <c r="A483" s="26"/>
       <c r="B483" s="6" t="s">
         <v>441</v>
       </c>
@@ -13529,7 +13529,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A484" s="35"/>
+      <c r="A484" s="26"/>
       <c r="B484" s="6" t="s">
         <v>442</v>
       </c>
@@ -13538,7 +13538,7 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A485" s="36"/>
+      <c r="A485" s="27"/>
       <c r="B485" s="6" t="s">
         <v>443</v>
       </c>
@@ -13547,7 +13547,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A486" s="34" t="s">
+      <c r="A486" s="25" t="s">
         <v>752</v>
       </c>
       <c r="B486" s="6" t="s">
@@ -13558,7 +13558,7 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A487" s="35"/>
+      <c r="A487" s="26"/>
       <c r="B487" s="6" t="s">
         <v>445</v>
       </c>
@@ -13567,7 +13567,7 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A488" s="35"/>
+      <c r="A488" s="26"/>
       <c r="B488" s="6" t="s">
         <v>446</v>
       </c>
@@ -13576,7 +13576,7 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A489" s="36"/>
+      <c r="A489" s="27"/>
       <c r="B489" s="6" t="s">
         <v>447</v>
       </c>
@@ -13585,7 +13585,7 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A490" s="34" t="s">
+      <c r="A490" s="25" t="s">
         <v>753</v>
       </c>
       <c r="B490" s="6" t="s">
@@ -13596,7 +13596,7 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A491" s="35"/>
+      <c r="A491" s="26"/>
       <c r="B491" s="6" t="s">
         <v>449</v>
       </c>
@@ -13605,7 +13605,7 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A492" s="35"/>
+      <c r="A492" s="26"/>
       <c r="B492" s="6" t="s">
         <v>450</v>
       </c>
@@ -13614,7 +13614,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A493" s="36"/>
+      <c r="A493" s="27"/>
       <c r="B493" s="6" t="s">
         <v>451</v>
       </c>
@@ -13623,7 +13623,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A494" s="34" t="s">
+      <c r="A494" s="25" t="s">
         <v>754</v>
       </c>
       <c r="B494" s="6" t="s">
@@ -13634,7 +13634,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A495" s="35"/>
+      <c r="A495" s="26"/>
       <c r="B495" s="6" t="s">
         <v>453</v>
       </c>
@@ -13643,7 +13643,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A496" s="35"/>
+      <c r="A496" s="26"/>
       <c r="B496" s="6" t="s">
         <v>454</v>
       </c>
@@ -13652,7 +13652,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A497" s="36"/>
+      <c r="A497" s="27"/>
       <c r="B497" s="6" t="s">
         <v>455</v>
       </c>
@@ -13661,7 +13661,7 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A498" s="34" t="s">
+      <c r="A498" s="25" t="s">
         <v>755</v>
       </c>
       <c r="B498" s="6" t="s">
@@ -13672,7 +13672,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A499" s="35"/>
+      <c r="A499" s="26"/>
       <c r="B499" s="6" t="s">
         <v>457</v>
       </c>
@@ -13681,7 +13681,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A500" s="35"/>
+      <c r="A500" s="26"/>
       <c r="B500" s="6" t="s">
         <v>458</v>
       </c>
@@ -13690,7 +13690,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A501" s="36"/>
+      <c r="A501" s="27"/>
       <c r="B501" s="6" t="s">
         <v>459</v>
       </c>
@@ -13699,7 +13699,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A502" s="34" t="s">
+      <c r="A502" s="25" t="s">
         <v>756</v>
       </c>
       <c r="B502" s="6" t="s">
@@ -13710,7 +13710,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A503" s="36"/>
+      <c r="A503" s="27"/>
       <c r="B503" s="6" t="s">
         <v>461</v>
       </c>
@@ -13720,10 +13720,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A504" s="18"/>
-      <c r="B504" s="25" t="s">
+      <c r="B504" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="C504" s="25"/>
+      <c r="C504" s="23"/>
     </row>
     <row r="505" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A505" s="7"/>
@@ -13735,18 +13735,18 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A506" s="23" t="s">
+      <c r="A506" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="B506" s="23"/>
-      <c r="C506" s="23"/>
+      <c r="B506" s="24"/>
+      <c r="C506" s="24"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A507" s="7"/>
-      <c r="B507" s="25" t="s">
+      <c r="B507" s="23" t="s">
         <v>759</v>
       </c>
-      <c r="C507" s="25"/>
+      <c r="C507" s="23"/>
     </row>
     <row r="508" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A508" s="7"/>
@@ -13759,13 +13759,13 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A509" s="7"/>
-      <c r="B509" s="25" t="s">
+      <c r="B509" s="23" t="s">
         <v>761</v>
       </c>
-      <c r="C509" s="25"/>
+      <c r="C509" s="23"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A510" s="34" t="s">
+      <c r="A510" s="25" t="s">
         <v>762</v>
       </c>
       <c r="B510" s="6" t="s">
@@ -13776,7 +13776,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A511" s="35"/>
+      <c r="A511" s="26"/>
       <c r="B511" s="6" t="s">
         <v>465</v>
       </c>
@@ -13785,7 +13785,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A512" s="35"/>
+      <c r="A512" s="26"/>
       <c r="B512" s="6" t="s">
         <v>466</v>
       </c>
@@ -13794,7 +13794,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A513" s="35"/>
+      <c r="A513" s="26"/>
       <c r="B513" s="6" t="s">
         <v>467</v>
       </c>
@@ -13803,7 +13803,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A514" s="36"/>
+      <c r="A514" s="27"/>
       <c r="B514" s="6" t="s">
         <v>468</v>
       </c>
@@ -13813,10 +13813,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A515" s="18"/>
-      <c r="B515" s="25" t="s">
+      <c r="B515" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="C515" s="25"/>
+      <c r="C515" s="23"/>
     </row>
     <row r="516" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A516" s="7"/>
@@ -13828,11 +13828,11 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A517" s="23" t="s">
+      <c r="A517" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="B517" s="23"/>
-      <c r="C517" s="23"/>
+      <c r="B517" s="24"/>
+      <c r="C517" s="24"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518" s="7" t="s">
@@ -13902,10 +13902,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524" s="7"/>
-      <c r="B524" s="25" t="s">
+      <c r="B524" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="C524" s="25"/>
+      <c r="C524" s="23"/>
     </row>
     <row r="525" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A525" s="7"/>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A527" s="7"/>
-      <c r="B527" s="25" t="s">
+      <c r="B527" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="C527" s="25"/>
+      <c r="C527" s="23"/>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528" s="7"/>
@@ -13951,18 +13951,18 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A530" s="23" t="s">
+      <c r="A530" s="24" t="s">
         <v>778</v>
       </c>
-      <c r="B530" s="23"/>
-      <c r="C530" s="23"/>
+      <c r="B530" s="24"/>
+      <c r="C530" s="24"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531" s="7"/>
-      <c r="B531" s="25" t="s">
+      <c r="B531" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="C531" s="25"/>
+      <c r="C531" s="23"/>
     </row>
     <row r="532" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A532" s="7"/>
@@ -13975,10 +13975,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533" s="7"/>
-      <c r="B533" s="25" t="s">
+      <c r="B533" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="C533" s="25"/>
+      <c r="C533" s="23"/>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534" s="7"/>
@@ -14081,10 +14081,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A545" s="7"/>
-      <c r="B545" s="25" t="s">
+      <c r="B545" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="C545" s="25"/>
+      <c r="C545" s="23"/>
     </row>
     <row r="546" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A546" s="7"/>
@@ -14097,10 +14097,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A547" s="7"/>
-      <c r="B547" s="25" t="s">
+      <c r="B547" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="C547" s="25"/>
+      <c r="C547" s="23"/>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A548" s="7"/>
@@ -14185,10 +14185,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A557" s="7"/>
-      <c r="B557" s="25" t="s">
+      <c r="B557" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="C557" s="25"/>
+      <c r="C557" s="23"/>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A558" s="7"/>
@@ -14298,77 +14298,58 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A427:A429"/>
-    <mergeCell ref="A430:A432"/>
-    <mergeCell ref="A433:A437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="A414:A418"/>
-    <mergeCell ref="A419:A421"/>
-    <mergeCell ref="A422:A426"/>
-    <mergeCell ref="A402:A403"/>
-    <mergeCell ref="A404:A405"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B408:C408"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A365:A366"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="B372:C372"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="A351:A355"/>
-    <mergeCell ref="A356:A360"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="A363:A364"/>
-    <mergeCell ref="A330:A334"/>
-    <mergeCell ref="A335:A339"/>
-    <mergeCell ref="A340:A344"/>
-    <mergeCell ref="A345:A346"/>
-    <mergeCell ref="A347:A348"/>
-    <mergeCell ref="A306:A310"/>
-    <mergeCell ref="A311:A315"/>
-    <mergeCell ref="A316:A320"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="A211:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="A221:A225"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B504:C504"/>
+    <mergeCell ref="B533:C533"/>
+    <mergeCell ref="B545:C545"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B557:C557"/>
+    <mergeCell ref="B507:C507"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="B509:C509"/>
+    <mergeCell ref="A510:A514"/>
+    <mergeCell ref="B515:C515"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="B524:C524"/>
+    <mergeCell ref="B527:C527"/>
+    <mergeCell ref="B531:C531"/>
+    <mergeCell ref="A530:C530"/>
+    <mergeCell ref="A469:A472"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="A444:A447"/>
+    <mergeCell ref="A448:A451"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A452:A455"/>
+    <mergeCell ref="B443:C443"/>
+    <mergeCell ref="B456:C456"/>
+    <mergeCell ref="A457:A460"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="A465:A468"/>
+    <mergeCell ref="A190:A194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A170:A174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="A180:A184"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B144:C144"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B21:C21"/>
@@ -14393,58 +14374,77 @@
     <mergeCell ref="A82:A85"/>
     <mergeCell ref="A86:A89"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A452:A455"/>
-    <mergeCell ref="B443:C443"/>
-    <mergeCell ref="B456:C456"/>
-    <mergeCell ref="A457:A460"/>
-    <mergeCell ref="A461:A464"/>
-    <mergeCell ref="A465:A468"/>
-    <mergeCell ref="A190:A194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A170:A174"/>
-    <mergeCell ref="A175:A179"/>
-    <mergeCell ref="A180:A184"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="A469:A472"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="A474:A475"/>
-    <mergeCell ref="A444:A447"/>
-    <mergeCell ref="A448:A451"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="A486:A489"/>
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B504:C504"/>
-    <mergeCell ref="B533:C533"/>
-    <mergeCell ref="B545:C545"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B557:C557"/>
-    <mergeCell ref="B507:C507"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="A510:A514"/>
-    <mergeCell ref="B515:C515"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="B524:C524"/>
-    <mergeCell ref="B527:C527"/>
-    <mergeCell ref="B531:C531"/>
-    <mergeCell ref="A530:C530"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="A221:A225"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="A306:A310"/>
+    <mergeCell ref="A311:A315"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A329"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="A351:A355"/>
+    <mergeCell ref="A356:A360"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="A363:A364"/>
+    <mergeCell ref="A330:A334"/>
+    <mergeCell ref="A335:A339"/>
+    <mergeCell ref="A340:A344"/>
+    <mergeCell ref="A345:A346"/>
+    <mergeCell ref="A347:A348"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A365:A366"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="B372:C372"/>
+    <mergeCell ref="A402:A403"/>
+    <mergeCell ref="A404:A405"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="A427:A429"/>
+    <mergeCell ref="A430:A432"/>
+    <mergeCell ref="A433:A437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="A414:A418"/>
+    <mergeCell ref="A419:A421"/>
+    <mergeCell ref="A422:A426"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/DataDictionaryTT.xlsx
+++ b/data/DataDictionaryTT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\Gov50\gov50-final-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA702D2-1A86-44FB-8BD1-5E4F6ED6CCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE8E4C-188E-4458-B2DF-280290A0B4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="520" windowWidth="17020" windowHeight="9910" xr2:uid="{27B4F92F-7681-42E5-8C9F-7F07DDE11843}"/>
+    <workbookView xWindow="-3090" yWindow="360" windowWidth="19460" windowHeight="9910" xr2:uid="{27B4F92F-7681-42E5-8C9F-7F07DDE11843}"/>
   </bookViews>
   <sheets>
     <sheet name="Translation" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="913">
   <si>
     <t>MATINH</t>
   </si>
@@ -2837,6 +2837,9 @@
   </si>
   <si>
     <t>Giá trị (bán ra) / Lúa</t>
+  </si>
+  <si>
+    <t>Diện tích thu hoạch (m2) /  total harvest area</t>
   </si>
 </sst>
 </file>
@@ -3125,7 +3128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3156,18 +3159,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3177,6 +3201,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3191,51 +3233,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3554,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847E1FE3-2DC4-4B54-9F1D-04F649271F82}">
   <dimension ref="B1:G569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="C146" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3593,11 +3590,11 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>817</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
@@ -3635,10 +3632,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="22" t="s">
         <v>821</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7"/>
@@ -3739,17 +3736,17 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="24" t="s">
         <v>833</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
@@ -3843,10 +3840,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
@@ -3940,10 +3937,10 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="7"/>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="24" t="s">
         <v>835</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="7"/>
@@ -4028,10 +4025,10 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="7"/>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="24" t="s">
         <v>836</v>
       </c>
-      <c r="D54" s="46"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="7"/>
@@ -4043,21 +4040,21 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="21" t="s">
         <v>838</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="28" t="s">
         <v>839</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="25" t="s">
         <v>844</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -4068,7 +4065,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="43"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="6" t="s">
         <v>47</v>
       </c>
@@ -4077,7 +4074,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="43"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="6" t="s">
         <v>48</v>
       </c>
@@ -4086,7 +4083,7 @@
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="44"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="6" t="s">
         <v>49</v>
       </c>
@@ -4095,7 +4092,7 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="25" t="s">
         <v>845</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -4106,7 +4103,7 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="43"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="6" t="s">
         <v>51</v>
       </c>
@@ -4115,7 +4112,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="43"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="6" t="s">
         <v>52</v>
       </c>
@@ -4124,7 +4121,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="44"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="6" t="s">
         <v>53</v>
       </c>
@@ -4133,7 +4130,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="25" t="s">
         <v>846</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -4144,7 +4141,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="43"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="6" t="s">
         <v>55</v>
       </c>
@@ -4153,7 +4150,7 @@
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="43"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="6" t="s">
         <v>56</v>
       </c>
@@ -4162,7 +4159,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="44"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="6" t="s">
         <v>57</v>
       </c>
@@ -4171,7 +4168,7 @@
       </c>
     </row>
     <row r="70" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="25" t="s">
         <v>847</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -4182,7 +4179,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="43"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="6" t="s">
         <v>59</v>
       </c>
@@ -4191,7 +4188,7 @@
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="43"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="6" t="s">
         <v>60</v>
       </c>
@@ -4200,7 +4197,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="44"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="6" t="s">
         <v>61</v>
       </c>
@@ -4209,7 +4206,7 @@
       </c>
     </row>
     <row r="74" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="25" t="s">
         <v>848</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -4220,7 +4217,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="43"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
@@ -4229,7 +4226,7 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="43"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="6" t="s">
         <v>64</v>
       </c>
@@ -4238,7 +4235,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="44"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="6" t="s">
         <v>65</v>
       </c>
@@ -4247,7 +4244,7 @@
       </c>
     </row>
     <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="25" t="s">
         <v>849</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -4258,7 +4255,7 @@
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B79" s="43"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="6" t="s">
         <v>67</v>
       </c>
@@ -4267,7 +4264,7 @@
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="43"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="6" t="s">
         <v>68</v>
       </c>
@@ -4276,7 +4273,7 @@
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B81" s="44"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="6" t="s">
         <v>69</v>
       </c>
@@ -4285,7 +4282,7 @@
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="25" t="s">
         <v>850</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -4296,7 +4293,7 @@
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="43"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="6" t="s">
         <v>71</v>
       </c>
@@ -4305,7 +4302,7 @@
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B84" s="43"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="6" t="s">
         <v>72</v>
       </c>
@@ -4314,7 +4311,7 @@
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B85" s="44"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="6" t="s">
         <v>73</v>
       </c>
@@ -4323,7 +4320,7 @@
       </c>
     </row>
     <row r="86" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="42" t="s">
+      <c r="B86" s="25" t="s">
         <v>851</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -4334,7 +4331,7 @@
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="43"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="6" t="s">
         <v>75</v>
       </c>
@@ -4343,7 +4340,7 @@
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B88" s="43"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="6" t="s">
         <v>76</v>
       </c>
@@ -4352,7 +4349,7 @@
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B89" s="44"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="6" t="s">
         <v>77</v>
       </c>
@@ -4361,7 +4358,7 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="25" t="s">
         <v>852</v>
       </c>
       <c r="C90" s="6" t="s">
@@ -4372,7 +4369,7 @@
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B91" s="43"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="6" t="s">
         <v>79</v>
       </c>
@@ -4381,7 +4378,7 @@
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B92" s="43"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="6" t="s">
         <v>80</v>
       </c>
@@ -4390,7 +4387,7 @@
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B93" s="44"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="6" t="s">
         <v>81</v>
       </c>
@@ -4399,11 +4396,11 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" s="7"/>
@@ -4620,11 +4617,11 @@
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120" s="7"/>
@@ -4659,7 +4656,7 @@
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="29" t="s">
         <v>863</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -4670,7 +4667,7 @@
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B125" s="41"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="6" t="s">
         <v>108</v>
       </c>
@@ -4679,7 +4676,7 @@
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B126" s="39" t="s">
+      <c r="B126" s="29" t="s">
         <v>861</v>
       </c>
       <c r="C126" s="6" t="s">
@@ -4690,7 +4687,7 @@
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B127" s="41"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="6" t="s">
         <v>110</v>
       </c>
@@ -4699,7 +4696,7 @@
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="29" t="s">
         <v>862</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -4710,7 +4707,7 @@
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B129" s="41"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="6" t="s">
         <v>112</v>
       </c>
@@ -4719,7 +4716,7 @@
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="29" t="s">
         <v>864</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -4730,7 +4727,7 @@
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B131" s="41"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="6" t="s">
         <v>114</v>
       </c>
@@ -4739,7 +4736,7 @@
       </c>
     </row>
     <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="29" t="s">
         <v>865</v>
       </c>
       <c r="C132" s="6" t="s">
@@ -4750,7 +4747,7 @@
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B133" s="41"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="6" t="s">
         <v>116</v>
       </c>
@@ -4759,7 +4756,7 @@
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B134" s="39"/>
+      <c r="B134" s="29"/>
       <c r="C134" s="6" t="s">
         <v>117</v>
       </c>
@@ -4768,7 +4765,7 @@
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B135" s="41"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="6" t="s">
         <v>118</v>
       </c>
@@ -4777,7 +4774,7 @@
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="29" t="s">
         <v>591</v>
       </c>
       <c r="C136" s="6" t="s">
@@ -4789,7 +4786,7 @@
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B137" s="41"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="6" t="s">
         <v>120</v>
       </c>
@@ -4798,7 +4795,7 @@
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B138" s="39"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="6" t="s">
         <v>121</v>
       </c>
@@ -4807,7 +4804,7 @@
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B139" s="41"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="6" t="s">
         <v>122</v>
       </c>
@@ -4816,7 +4813,7 @@
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B140" s="39" t="e">
+      <c r="B140" s="29" t="e">
         <f>- D141</f>
         <v>#VALUE!</v>
       </c>
@@ -4828,7 +4825,7 @@
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B141" s="41"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="6" t="s">
         <v>124</v>
       </c>
@@ -4837,7 +4834,7 @@
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B142" s="39" t="e">
+      <c r="B142" s="29" t="e">
         <f>- D142</f>
         <v>#VALUE!</v>
       </c>
@@ -4849,7 +4846,7 @@
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B143" s="41"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="6" t="s">
         <v>126</v>
       </c>
@@ -4983,18 +4980,18 @@
       <c r="D158" s="23"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="29" t="s">
         <v>868</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B160" s="40"/>
+      <c r="B160" s="31"/>
       <c r="C160" s="6" t="s">
         <v>138</v>
       </c>
@@ -5003,7 +5000,7 @@
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B161" s="41"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="6" t="s">
         <v>139</v>
       </c>
@@ -5012,7 +5009,7 @@
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B162" s="39" t="s">
+      <c r="B162" s="29" t="s">
         <v>586</v>
       </c>
       <c r="C162" s="6" t="s">
@@ -5023,7 +5020,7 @@
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B163" s="40"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="6" t="s">
         <v>141</v>
       </c>
@@ -5032,7 +5029,7 @@
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B164" s="41"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="6" t="s">
         <v>142</v>
       </c>
@@ -5041,7 +5038,7 @@
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B165" s="39" t="e">
+      <c r="B165" s="29" t="e">
         <f>- D165</f>
         <v>#VALUE!</v>
       </c>
@@ -5053,7 +5050,7 @@
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B166" s="40"/>
+      <c r="B166" s="31"/>
       <c r="C166" s="6" t="s">
         <v>144</v>
       </c>
@@ -5062,7 +5059,7 @@
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B167" s="40"/>
+      <c r="B167" s="31"/>
       <c r="C167" s="6" t="s">
         <v>145</v>
       </c>
@@ -5071,7 +5068,7 @@
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B168" s="40"/>
+      <c r="B168" s="31"/>
       <c r="C168" s="6" t="s">
         <v>146</v>
       </c>
@@ -5080,7 +5077,7 @@
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B169" s="41"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="6" t="s">
         <v>147</v>
       </c>
@@ -5089,7 +5086,7 @@
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B170" s="39" t="s">
+      <c r="B170" s="29" t="s">
         <v>614</v>
       </c>
       <c r="C170" s="6" t="s">
@@ -5100,7 +5097,7 @@
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B171" s="40"/>
+      <c r="B171" s="31"/>
       <c r="C171" s="6" t="s">
         <v>149</v>
       </c>
@@ -5109,7 +5106,7 @@
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B172" s="40"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="6" t="s">
         <v>150</v>
       </c>
@@ -5118,7 +5115,7 @@
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B173" s="40"/>
+      <c r="B173" s="31"/>
       <c r="C173" s="6" t="s">
         <v>151</v>
       </c>
@@ -5127,7 +5124,7 @@
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B174" s="41"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="6" t="s">
         <v>152</v>
       </c>
@@ -5136,7 +5133,7 @@
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B175" s="39" t="s">
+      <c r="B175" s="29" t="s">
         <v>615</v>
       </c>
       <c r="C175" s="6" t="s">
@@ -5147,7 +5144,7 @@
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B176" s="40"/>
+      <c r="B176" s="31"/>
       <c r="C176" s="6" t="s">
         <v>154</v>
       </c>
@@ -5156,7 +5153,7 @@
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B177" s="40"/>
+      <c r="B177" s="31"/>
       <c r="C177" s="6" t="s">
         <v>155</v>
       </c>
@@ -5165,7 +5162,7 @@
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B178" s="40"/>
+      <c r="B178" s="31"/>
       <c r="C178" s="6" t="s">
         <v>156</v>
       </c>
@@ -5174,7 +5171,7 @@
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B179" s="41"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="6" t="s">
         <v>157</v>
       </c>
@@ -5183,7 +5180,7 @@
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B180" s="39" t="s">
+      <c r="B180" s="29" t="s">
         <v>616</v>
       </c>
       <c r="C180" s="6" t="s">
@@ -5194,7 +5191,7 @@
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B181" s="40"/>
+      <c r="B181" s="31"/>
       <c r="C181" s="6" t="s">
         <v>159</v>
       </c>
@@ -5203,7 +5200,7 @@
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B182" s="40"/>
+      <c r="B182" s="31"/>
       <c r="C182" s="6" t="s">
         <v>160</v>
       </c>
@@ -5212,7 +5209,7 @@
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B183" s="40"/>
+      <c r="B183" s="31"/>
       <c r="C183" s="6" t="s">
         <v>161</v>
       </c>
@@ -5221,7 +5218,7 @@
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B184" s="41"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="6" t="s">
         <v>162</v>
       </c>
@@ -5230,7 +5227,7 @@
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="29" t="s">
         <v>617</v>
       </c>
       <c r="C185" s="6" t="s">
@@ -5241,7 +5238,7 @@
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B186" s="40"/>
+      <c r="B186" s="31"/>
       <c r="C186" s="6" t="s">
         <v>164</v>
       </c>
@@ -5250,7 +5247,7 @@
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B187" s="40"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="6" t="s">
         <v>165</v>
       </c>
@@ -5259,7 +5256,7 @@
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B188" s="40"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="6" t="s">
         <v>166</v>
       </c>
@@ -5268,7 +5265,7 @@
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B189" s="41"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="6" t="s">
         <v>167</v>
       </c>
@@ -5277,7 +5274,7 @@
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B190" s="39" t="s">
+      <c r="B190" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -5288,7 +5285,7 @@
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B191" s="40"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="6" t="s">
         <v>169</v>
       </c>
@@ -5297,7 +5294,7 @@
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B192" s="40"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="6" t="s">
         <v>170</v>
       </c>
@@ -5306,7 +5303,7 @@
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B193" s="40"/>
+      <c r="B193" s="31"/>
       <c r="C193" s="6" t="s">
         <v>171</v>
       </c>
@@ -5315,7 +5312,7 @@
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B194" s="41"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="6" t="s">
         <v>172</v>
       </c>
@@ -5324,7 +5321,7 @@
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B195" s="39" t="s">
+      <c r="B195" s="29" t="s">
         <v>619</v>
       </c>
       <c r="C195" s="6" t="s">
@@ -5335,7 +5332,7 @@
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B196" s="40"/>
+      <c r="B196" s="31"/>
       <c r="C196" s="6" t="s">
         <v>174</v>
       </c>
@@ -5344,7 +5341,7 @@
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B197" s="40"/>
+      <c r="B197" s="31"/>
       <c r="C197" s="6" t="s">
         <v>175</v>
       </c>
@@ -5353,7 +5350,7 @@
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B198" s="40"/>
+      <c r="B198" s="31"/>
       <c r="C198" s="6" t="s">
         <v>176</v>
       </c>
@@ -5362,7 +5359,7 @@
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B199" s="41"/>
+      <c r="B199" s="30"/>
       <c r="C199" s="6" t="s">
         <v>177</v>
       </c>
@@ -5371,7 +5368,7 @@
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B200" s="39" t="s">
+      <c r="B200" s="29" t="s">
         <v>620</v>
       </c>
       <c r="C200" s="6" t="s">
@@ -5382,7 +5379,7 @@
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B201" s="40"/>
+      <c r="B201" s="31"/>
       <c r="C201" s="6" t="s">
         <v>179</v>
       </c>
@@ -5391,7 +5388,7 @@
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B202" s="41"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="6" t="s">
         <v>180</v>
       </c>
@@ -5400,7 +5397,7 @@
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B203" s="39" t="s">
+      <c r="B203" s="29" t="s">
         <v>588</v>
       </c>
       <c r="C203" s="6" t="s">
@@ -5411,7 +5408,7 @@
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B204" s="40"/>
+      <c r="B204" s="31"/>
       <c r="C204" s="6" t="s">
         <v>182</v>
       </c>
@@ -5420,7 +5417,7 @@
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B205" s="41"/>
+      <c r="B205" s="30"/>
       <c r="C205" s="6" t="s">
         <v>183</v>
       </c>
@@ -5429,7 +5426,7 @@
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B206" s="39" t="s">
+      <c r="B206" s="29" t="s">
         <v>621</v>
       </c>
       <c r="C206" s="6" t="s">
@@ -5440,7 +5437,7 @@
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B207" s="40"/>
+      <c r="B207" s="31"/>
       <c r="C207" s="6" t="s">
         <v>185</v>
       </c>
@@ -5449,7 +5446,7 @@
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B208" s="40"/>
+      <c r="B208" s="31"/>
       <c r="C208" s="6" t="s">
         <v>186</v>
       </c>
@@ -5458,7 +5455,7 @@
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B209" s="40"/>
+      <c r="B209" s="31"/>
       <c r="C209" s="6" t="s">
         <v>187</v>
       </c>
@@ -5467,7 +5464,7 @@
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B210" s="41"/>
+      <c r="B210" s="30"/>
       <c r="C210" s="6" t="s">
         <v>188</v>
       </c>
@@ -5476,7 +5473,7 @@
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B211" s="39" t="s">
+      <c r="B211" s="29" t="s">
         <v>622</v>
       </c>
       <c r="C211" s="6" t="s">
@@ -5487,7 +5484,7 @@
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B212" s="40"/>
+      <c r="B212" s="31"/>
       <c r="C212" s="6" t="s">
         <v>190</v>
       </c>
@@ -5496,7 +5493,7 @@
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B213" s="40"/>
+      <c r="B213" s="31"/>
       <c r="C213" s="6" t="s">
         <v>191</v>
       </c>
@@ -5505,7 +5502,7 @@
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B214" s="40"/>
+      <c r="B214" s="31"/>
       <c r="C214" s="6" t="s">
         <v>192</v>
       </c>
@@ -5514,7 +5511,7 @@
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B215" s="41"/>
+      <c r="B215" s="30"/>
       <c r="C215" s="6" t="s">
         <v>193</v>
       </c>
@@ -5523,7 +5520,7 @@
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B216" s="39" t="s">
+      <c r="B216" s="29" t="s">
         <v>623</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -5534,7 +5531,7 @@
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B217" s="40"/>
+      <c r="B217" s="31"/>
       <c r="C217" s="6" t="s">
         <v>195</v>
       </c>
@@ -5543,7 +5540,7 @@
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B218" s="40"/>
+      <c r="B218" s="31"/>
       <c r="C218" s="6" t="s">
         <v>196</v>
       </c>
@@ -5552,7 +5549,7 @@
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B219" s="40"/>
+      <c r="B219" s="31"/>
       <c r="C219" s="6" t="s">
         <v>197</v>
       </c>
@@ -5561,7 +5558,7 @@
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B220" s="41"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="6" t="s">
         <v>198</v>
       </c>
@@ -5570,7 +5567,7 @@
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B221" s="39" t="s">
+      <c r="B221" s="29" t="s">
         <v>624</v>
       </c>
       <c r="C221" s="6" t="s">
@@ -5581,7 +5578,7 @@
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B222" s="40"/>
+      <c r="B222" s="31"/>
       <c r="C222" s="6" t="s">
         <v>200</v>
       </c>
@@ -5590,7 +5587,7 @@
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B223" s="40"/>
+      <c r="B223" s="31"/>
       <c r="C223" s="6" t="s">
         <v>201</v>
       </c>
@@ -5599,7 +5596,7 @@
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B224" s="40"/>
+      <c r="B224" s="31"/>
       <c r="C224" s="6" t="s">
         <v>202</v>
       </c>
@@ -5608,7 +5605,7 @@
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B225" s="41"/>
+      <c r="B225" s="30"/>
       <c r="C225" s="6" t="s">
         <v>203</v>
       </c>
@@ -5617,7 +5614,7 @@
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B226" s="39" t="s">
+      <c r="B226" s="29" t="s">
         <v>590</v>
       </c>
       <c r="C226" s="6" t="s">
@@ -5628,7 +5625,7 @@
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B227" s="40"/>
+      <c r="B227" s="31"/>
       <c r="C227" s="6" t="s">
         <v>205</v>
       </c>
@@ -5637,7 +5634,7 @@
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B228" s="40"/>
+      <c r="B228" s="31"/>
       <c r="C228" s="6" t="s">
         <v>206</v>
       </c>
@@ -5646,7 +5643,7 @@
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B229" s="40"/>
+      <c r="B229" s="31"/>
       <c r="C229" s="6" t="s">
         <v>207</v>
       </c>
@@ -5655,7 +5652,7 @@
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B230" s="41"/>
+      <c r="B230" s="30"/>
       <c r="C230" s="6" t="s">
         <v>208</v>
       </c>
@@ -5664,7 +5661,7 @@
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B231" s="39" t="s">
+      <c r="B231" s="29" t="s">
         <v>591</v>
       </c>
       <c r="C231" s="6" t="s">
@@ -5675,7 +5672,7 @@
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B232" s="40"/>
+      <c r="B232" s="31"/>
       <c r="C232" s="6" t="s">
         <v>210</v>
       </c>
@@ -5684,7 +5681,7 @@
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B233" s="40"/>
+      <c r="B233" s="31"/>
       <c r="C233" s="6" t="s">
         <v>211</v>
       </c>
@@ -5693,7 +5690,7 @@
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B234" s="40"/>
+      <c r="B234" s="31"/>
       <c r="C234" s="6" t="s">
         <v>212</v>
       </c>
@@ -5702,7 +5699,7 @@
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B235" s="41"/>
+      <c r="B235" s="30"/>
       <c r="C235" s="6" t="s">
         <v>213</v>
       </c>
@@ -5711,7 +5708,7 @@
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B236" s="39" t="s">
+      <c r="B236" s="29" t="s">
         <v>592</v>
       </c>
       <c r="C236" s="6" t="s">
@@ -5722,7 +5719,7 @@
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B237" s="40"/>
+      <c r="B237" s="31"/>
       <c r="C237" s="6" t="s">
         <v>215</v>
       </c>
@@ -5731,7 +5728,7 @@
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B238" s="40"/>
+      <c r="B238" s="31"/>
       <c r="C238" s="6" t="s">
         <v>216</v>
       </c>
@@ -5740,7 +5737,7 @@
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B239" s="40"/>
+      <c r="B239" s="31"/>
       <c r="C239" s="6" t="s">
         <v>217</v>
       </c>
@@ -5749,7 +5746,7 @@
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B240" s="41"/>
+      <c r="B240" s="30"/>
       <c r="C240" s="6" t="s">
         <v>218</v>
       </c>
@@ -5758,7 +5755,7 @@
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B241" s="39" t="s">
+      <c r="B241" s="29" t="s">
         <v>625</v>
       </c>
       <c r="C241" s="6" t="s">
@@ -5769,7 +5766,7 @@
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B242" s="40"/>
+      <c r="B242" s="31"/>
       <c r="C242" s="6" t="s">
         <v>220</v>
       </c>
@@ -5778,7 +5775,7 @@
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B243" s="40"/>
+      <c r="B243" s="31"/>
       <c r="C243" s="6" t="s">
         <v>221</v>
       </c>
@@ -5787,7 +5784,7 @@
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B244" s="40"/>
+      <c r="B244" s="31"/>
       <c r="C244" s="6" t="s">
         <v>222</v>
       </c>
@@ -5796,7 +5793,7 @@
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B245" s="41"/>
+      <c r="B245" s="30"/>
       <c r="C245" s="6" t="s">
         <v>223</v>
       </c>
@@ -5805,7 +5802,7 @@
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B246" s="39" t="s">
+      <c r="B246" s="29" t="s">
         <v>626</v>
       </c>
       <c r="C246" s="6" t="s">
@@ -5816,7 +5813,7 @@
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B247" s="40"/>
+      <c r="B247" s="31"/>
       <c r="C247" s="6" t="s">
         <v>225</v>
       </c>
@@ -5825,7 +5822,7 @@
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B248" s="41"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="6" t="s">
         <v>226</v>
       </c>
@@ -5834,7 +5831,7 @@
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B249" s="22" t="s">
+      <c r="B249" s="20" t="s">
         <v>627</v>
       </c>
       <c r="C249" s="6" t="s">
@@ -5845,7 +5842,7 @@
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B250" s="22" t="s">
+      <c r="B250" s="20" t="s">
         <v>628</v>
       </c>
       <c r="C250" s="6" t="s">
@@ -5856,7 +5853,7 @@
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B251" s="22" t="s">
+      <c r="B251" s="20" t="s">
         <v>629</v>
       </c>
       <c r="C251" s="6" t="s">
@@ -5867,7 +5864,7 @@
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B252" s="22" t="s">
+      <c r="B252" s="20" t="s">
         <v>627</v>
       </c>
       <c r="C252" s="6" t="s">
@@ -5878,7 +5875,7 @@
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B253" s="22" t="s">
+      <c r="B253" s="20" t="s">
         <v>628</v>
       </c>
       <c r="C253" s="6" t="s">
@@ -5889,7 +5886,7 @@
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B254" s="22" t="s">
+      <c r="B254" s="20" t="s">
         <v>629</v>
       </c>
       <c r="C254" s="6" t="s">
@@ -5916,11 +5913,11 @@
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B257" s="24" t="s">
+      <c r="B257" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="C257" s="24"/>
-      <c r="D257" s="24"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258" s="7"/>
@@ -6358,7 +6355,7 @@
       <c r="D301" s="23"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B302" s="25" t="s">
+      <c r="B302" s="32" t="s">
         <v>678</v>
       </c>
       <c r="C302" s="6" t="s">
@@ -6369,7 +6366,7 @@
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B303" s="27"/>
+      <c r="B303" s="34"/>
       <c r="C303" s="6" t="s">
         <v>274</v>
       </c>
@@ -6378,7 +6375,7 @@
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B304" s="25" t="s">
+      <c r="B304" s="32" t="s">
         <v>679</v>
       </c>
       <c r="C304" s="6" t="s">
@@ -6389,7 +6386,7 @@
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B305" s="27"/>
+      <c r="B305" s="34"/>
       <c r="C305" s="6" t="s">
         <v>276</v>
       </c>
@@ -6398,7 +6395,7 @@
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B306" s="25" t="s">
+      <c r="B306" s="32" t="s">
         <v>681</v>
       </c>
       <c r="C306" s="6" t="s">
@@ -6409,7 +6406,7 @@
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B307" s="26"/>
+      <c r="B307" s="33"/>
       <c r="C307" s="6" t="s">
         <v>278</v>
       </c>
@@ -6418,7 +6415,7 @@
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B308" s="26"/>
+      <c r="B308" s="33"/>
       <c r="C308" s="6" t="s">
         <v>279</v>
       </c>
@@ -6427,7 +6424,7 @@
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B309" s="26"/>
+      <c r="B309" s="33"/>
       <c r="C309" s="6" t="s">
         <v>280</v>
       </c>
@@ -6436,7 +6433,7 @@
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B310" s="27"/>
+      <c r="B310" s="34"/>
       <c r="C310" s="6" t="s">
         <v>281</v>
       </c>
@@ -6445,7 +6442,7 @@
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B311" s="25" t="s">
+      <c r="B311" s="32" t="s">
         <v>682</v>
       </c>
       <c r="C311" s="6" t="s">
@@ -6456,7 +6453,7 @@
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B312" s="26"/>
+      <c r="B312" s="33"/>
       <c r="C312" s="6" t="s">
         <v>283</v>
       </c>
@@ -6465,7 +6462,7 @@
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B313" s="26"/>
+      <c r="B313" s="33"/>
       <c r="C313" s="6" t="s">
         <v>284</v>
       </c>
@@ -6474,7 +6471,7 @@
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B314" s="26"/>
+      <c r="B314" s="33"/>
       <c r="C314" s="6" t="s">
         <v>285</v>
       </c>
@@ -6483,7 +6480,7 @@
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B315" s="27"/>
+      <c r="B315" s="34"/>
       <c r="C315" s="6" t="s">
         <v>286</v>
       </c>
@@ -6492,7 +6489,7 @@
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B316" s="25" t="s">
+      <c r="B316" s="32" t="s">
         <v>683</v>
       </c>
       <c r="C316" s="6" t="s">
@@ -6503,7 +6500,7 @@
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B317" s="26"/>
+      <c r="B317" s="33"/>
       <c r="C317" s="6" t="s">
         <v>288</v>
       </c>
@@ -6512,7 +6509,7 @@
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B318" s="26"/>
+      <c r="B318" s="33"/>
       <c r="C318" s="6" t="s">
         <v>289</v>
       </c>
@@ -6521,7 +6518,7 @@
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B319" s="26"/>
+      <c r="B319" s="33"/>
       <c r="C319" s="6" t="s">
         <v>290</v>
       </c>
@@ -6530,7 +6527,7 @@
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B320" s="27"/>
+      <c r="B320" s="34"/>
       <c r="C320" s="6" t="s">
         <v>291</v>
       </c>
@@ -6539,7 +6536,7 @@
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B321" s="36" t="s">
+      <c r="B321" s="35" t="s">
         <v>684</v>
       </c>
       <c r="C321" s="6" t="s">
@@ -6550,7 +6547,7 @@
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B322" s="37"/>
+      <c r="B322" s="36"/>
       <c r="C322" s="6" t="s">
         <v>293</v>
       </c>
@@ -6559,7 +6556,7 @@
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B323" s="37"/>
+      <c r="B323" s="36"/>
       <c r="C323" s="6" t="s">
         <v>294</v>
       </c>
@@ -6568,7 +6565,7 @@
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B324" s="38"/>
+      <c r="B324" s="37"/>
       <c r="C324" s="6" t="s">
         <v>295</v>
       </c>
@@ -6577,7 +6574,7 @@
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B325" s="25" t="s">
+      <c r="B325" s="32" t="s">
         <v>685</v>
       </c>
       <c r="C325" s="6" t="s">
@@ -6588,7 +6585,7 @@
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B326" s="26"/>
+      <c r="B326" s="33"/>
       <c r="C326" s="6" t="s">
         <v>297</v>
       </c>
@@ -6597,7 +6594,7 @@
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B327" s="26"/>
+      <c r="B327" s="33"/>
       <c r="C327" s="6" t="s">
         <v>298</v>
       </c>
@@ -6606,7 +6603,7 @@
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B328" s="26"/>
+      <c r="B328" s="33"/>
       <c r="C328" s="6" t="s">
         <v>299</v>
       </c>
@@ -6615,7 +6612,7 @@
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B329" s="27"/>
+      <c r="B329" s="34"/>
       <c r="C329" s="6" t="s">
         <v>300</v>
       </c>
@@ -6624,7 +6621,7 @@
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B330" s="25" t="s">
+      <c r="B330" s="32" t="s">
         <v>686</v>
       </c>
       <c r="C330" s="6" t="s">
@@ -6635,7 +6632,7 @@
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B331" s="26"/>
+      <c r="B331" s="33"/>
       <c r="C331" s="6" t="s">
         <v>302</v>
       </c>
@@ -6644,7 +6641,7 @@
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B332" s="26"/>
+      <c r="B332" s="33"/>
       <c r="C332" s="6" t="s">
         <v>303</v>
       </c>
@@ -6653,7 +6650,7 @@
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B333" s="26"/>
+      <c r="B333" s="33"/>
       <c r="C333" s="6" t="s">
         <v>304</v>
       </c>
@@ -6662,7 +6659,7 @@
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B334" s="27"/>
+      <c r="B334" s="34"/>
       <c r="C334" s="6" t="s">
         <v>305</v>
       </c>
@@ -6671,7 +6668,7 @@
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B335" s="25" t="s">
+      <c r="B335" s="32" t="s">
         <v>687</v>
       </c>
       <c r="C335" s="6" t="s">
@@ -6682,7 +6679,7 @@
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B336" s="26"/>
+      <c r="B336" s="33"/>
       <c r="C336" s="6" t="s">
         <v>307</v>
       </c>
@@ -6691,7 +6688,7 @@
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B337" s="26"/>
+      <c r="B337" s="33"/>
       <c r="C337" s="6" t="s">
         <v>308</v>
       </c>
@@ -6700,7 +6697,7 @@
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B338" s="26"/>
+      <c r="B338" s="33"/>
       <c r="C338" s="6" t="s">
         <v>309</v>
       </c>
@@ -6709,7 +6706,7 @@
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B339" s="27"/>
+      <c r="B339" s="34"/>
       <c r="C339" s="6" t="s">
         <v>310</v>
       </c>
@@ -6718,7 +6715,7 @@
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B340" s="25" t="s">
+      <c r="B340" s="32" t="s">
         <v>688</v>
       </c>
       <c r="C340" s="6" t="s">
@@ -6729,7 +6726,7 @@
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B341" s="26"/>
+      <c r="B341" s="33"/>
       <c r="C341" s="6" t="s">
         <v>312</v>
       </c>
@@ -6738,7 +6735,7 @@
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B342" s="26"/>
+      <c r="B342" s="33"/>
       <c r="C342" s="6" t="s">
         <v>313</v>
       </c>
@@ -6747,7 +6744,7 @@
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B343" s="26"/>
+      <c r="B343" s="33"/>
       <c r="C343" s="6" t="s">
         <v>314</v>
       </c>
@@ -6756,7 +6753,7 @@
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B344" s="27"/>
+      <c r="B344" s="34"/>
       <c r="C344" s="6" t="s">
         <v>315</v>
       </c>
@@ -6765,7 +6762,7 @@
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B345" s="25" t="s">
+      <c r="B345" s="32" t="s">
         <v>689</v>
       </c>
       <c r="C345" s="6" t="s">
@@ -6776,7 +6773,7 @@
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B346" s="27"/>
+      <c r="B346" s="34"/>
       <c r="C346" s="6" t="s">
         <v>317</v>
       </c>
@@ -6785,7 +6782,7 @@
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B347" s="25" t="s">
+      <c r="B347" s="32" t="s">
         <v>690</v>
       </c>
       <c r="C347" s="6" t="s">
@@ -6796,7 +6793,7 @@
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B348" s="27"/>
+      <c r="B348" s="34"/>
       <c r="C348" s="6" t="s">
         <v>319</v>
       </c>
@@ -6805,7 +6802,7 @@
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B349" s="25" t="s">
+      <c r="B349" s="32" t="s">
         <v>691</v>
       </c>
       <c r="C349" s="6" t="s">
@@ -6816,7 +6813,7 @@
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B350" s="27"/>
+      <c r="B350" s="34"/>
       <c r="C350" s="6" t="s">
         <v>321</v>
       </c>
@@ -6825,7 +6822,7 @@
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B351" s="25" t="s">
+      <c r="B351" s="32" t="s">
         <v>692</v>
       </c>
       <c r="C351" s="6" t="s">
@@ -6836,7 +6833,7 @@
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B352" s="26"/>
+      <c r="B352" s="33"/>
       <c r="C352" s="6" t="s">
         <v>323</v>
       </c>
@@ -6845,7 +6842,7 @@
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B353" s="26"/>
+      <c r="B353" s="33"/>
       <c r="C353" s="6" t="s">
         <v>324</v>
       </c>
@@ -6854,7 +6851,7 @@
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B354" s="26"/>
+      <c r="B354" s="33"/>
       <c r="C354" s="6" t="s">
         <v>325</v>
       </c>
@@ -6863,7 +6860,7 @@
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B355" s="27"/>
+      <c r="B355" s="34"/>
       <c r="C355" s="6" t="s">
         <v>326</v>
       </c>
@@ -6872,7 +6869,7 @@
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B356" s="33" t="s">
+      <c r="B356" s="38" t="s">
         <v>693</v>
       </c>
       <c r="C356" s="6" t="s">
@@ -6883,7 +6880,7 @@
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B357" s="34"/>
+      <c r="B357" s="39"/>
       <c r="C357" s="6" t="s">
         <v>328</v>
       </c>
@@ -6892,7 +6889,7 @@
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B358" s="34"/>
+      <c r="B358" s="39"/>
       <c r="C358" s="6" t="s">
         <v>329</v>
       </c>
@@ -6901,7 +6898,7 @@
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B359" s="34"/>
+      <c r="B359" s="39"/>
       <c r="C359" s="6" t="s">
         <v>330</v>
       </c>
@@ -6910,7 +6907,7 @@
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B360" s="35"/>
+      <c r="B360" s="40"/>
       <c r="C360" s="6" t="s">
         <v>331</v>
       </c>
@@ -6919,7 +6916,7 @@
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B361" s="25" t="s">
+      <c r="B361" s="32" t="s">
         <v>694</v>
       </c>
       <c r="C361" s="6" t="s">
@@ -6930,7 +6927,7 @@
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B362" s="27"/>
+      <c r="B362" s="34"/>
       <c r="C362" s="6" t="s">
         <v>333</v>
       </c>
@@ -6939,7 +6936,7 @@
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B363" s="25" t="s">
+      <c r="B363" s="32" t="s">
         <v>695</v>
       </c>
       <c r="C363" s="6" t="s">
@@ -6950,7 +6947,7 @@
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B364" s="27"/>
+      <c r="B364" s="34"/>
       <c r="C364" s="6" t="s">
         <v>335</v>
       </c>
@@ -6959,7 +6956,7 @@
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B365" s="25" t="s">
+      <c r="B365" s="32" t="s">
         <v>696</v>
       </c>
       <c r="C365" s="6" t="s">
@@ -6970,7 +6967,7 @@
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B366" s="27"/>
+      <c r="B366" s="34"/>
       <c r="C366" s="6" t="s">
         <v>337</v>
       </c>
@@ -6979,7 +6976,7 @@
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B367" s="25" t="s">
+      <c r="B367" s="32" t="s">
         <v>697</v>
       </c>
       <c r="C367" s="6" t="s">
@@ -6990,7 +6987,7 @@
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B368" s="27"/>
+      <c r="B368" s="34"/>
       <c r="C368" s="6" t="s">
         <v>339</v>
       </c>
@@ -6999,7 +6996,7 @@
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B369" s="21"/>
+      <c r="B369" s="18"/>
       <c r="C369" s="23" t="s">
         <v>698</v>
       </c>
@@ -7015,11 +7012,11 @@
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B371" s="24" t="s">
+      <c r="B371" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="C371" s="24"/>
-      <c r="D371" s="24"/>
+      <c r="C371" s="21"/>
+      <c r="D371" s="21"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B372" s="7"/>
@@ -7118,7 +7115,7 @@
       <c r="D381" s="23"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B382" s="25" t="s">
+      <c r="B382" s="32" t="s">
         <v>711</v>
       </c>
       <c r="C382" s="6" t="s">
@@ -7129,7 +7126,7 @@
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B383" s="27"/>
+      <c r="B383" s="34"/>
       <c r="C383" s="6" t="s">
         <v>349</v>
       </c>
@@ -7138,7 +7135,7 @@
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B384" s="25" t="s">
+      <c r="B384" s="32" t="s">
         <v>712</v>
       </c>
       <c r="C384" s="6" t="s">
@@ -7149,7 +7146,7 @@
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B385" s="27"/>
+      <c r="B385" s="34"/>
       <c r="C385" s="6" t="s">
         <v>351</v>
       </c>
@@ -7158,7 +7155,7 @@
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B386" s="25" t="s">
+      <c r="B386" s="32" t="s">
         <v>713</v>
       </c>
       <c r="C386" s="6" t="s">
@@ -7169,7 +7166,7 @@
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B387" s="26"/>
+      <c r="B387" s="33"/>
       <c r="C387" s="6" t="s">
         <v>353</v>
       </c>
@@ -7178,7 +7175,7 @@
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B388" s="26"/>
+      <c r="B388" s="33"/>
       <c r="C388" s="6" t="s">
         <v>354</v>
       </c>
@@ -7187,7 +7184,7 @@
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B389" s="27"/>
+      <c r="B389" s="34"/>
       <c r="C389" s="6" t="s">
         <v>355</v>
       </c>
@@ -7196,7 +7193,7 @@
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B390" s="25" t="s">
+      <c r="B390" s="32" t="s">
         <v>714</v>
       </c>
       <c r="C390" s="6" t="s">
@@ -7207,7 +7204,7 @@
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B391" s="26"/>
+      <c r="B391" s="33"/>
       <c r="C391" s="6" t="s">
         <v>357</v>
       </c>
@@ -7216,7 +7213,7 @@
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B392" s="26"/>
+      <c r="B392" s="33"/>
       <c r="C392" s="6" t="s">
         <v>358</v>
       </c>
@@ -7225,7 +7222,7 @@
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B393" s="27"/>
+      <c r="B393" s="34"/>
       <c r="C393" s="6" t="s">
         <v>359</v>
       </c>
@@ -7234,7 +7231,7 @@
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B394" s="25" t="s">
+      <c r="B394" s="32" t="s">
         <v>715</v>
       </c>
       <c r="C394" s="6" t="s">
@@ -7245,7 +7242,7 @@
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B395" s="27"/>
+      <c r="B395" s="34"/>
       <c r="C395" s="6" t="s">
         <v>361</v>
       </c>
@@ -7254,7 +7251,7 @@
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B396" s="25" t="s">
+      <c r="B396" s="32" t="s">
         <v>716</v>
       </c>
       <c r="C396" s="6" t="s">
@@ -7265,7 +7262,7 @@
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B397" s="27"/>
+      <c r="B397" s="34"/>
       <c r="C397" s="6" t="s">
         <v>363</v>
       </c>
@@ -7274,7 +7271,7 @@
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B398" s="25" t="s">
+      <c r="B398" s="32" t="s">
         <v>717</v>
       </c>
       <c r="C398" s="6" t="s">
@@ -7285,7 +7282,7 @@
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B399" s="27"/>
+      <c r="B399" s="34"/>
       <c r="C399" s="6" t="s">
         <v>365</v>
       </c>
@@ -7294,7 +7291,7 @@
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B400" s="25" t="s">
+      <c r="B400" s="32" t="s">
         <v>718</v>
       </c>
       <c r="C400" s="6" t="s">
@@ -7305,7 +7302,7 @@
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B401" s="27"/>
+      <c r="B401" s="34"/>
       <c r="C401" s="6" t="s">
         <v>367</v>
       </c>
@@ -7314,7 +7311,7 @@
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B402" s="25" t="s">
+      <c r="B402" s="32" t="s">
         <v>719</v>
       </c>
       <c r="C402" s="6" t="s">
@@ -7325,7 +7322,7 @@
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B403" s="27"/>
+      <c r="B403" s="34"/>
       <c r="C403" s="6" t="s">
         <v>369</v>
       </c>
@@ -7334,7 +7331,7 @@
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B404" s="25" t="s">
+      <c r="B404" s="32" t="s">
         <v>720</v>
       </c>
       <c r="C404" s="6" t="s">
@@ -7345,7 +7342,7 @@
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B405" s="27"/>
+      <c r="B405" s="34"/>
       <c r="C405" s="6" t="s">
         <v>371</v>
       </c>
@@ -7354,7 +7351,7 @@
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B406" s="25" t="s">
+      <c r="B406" s="32" t="s">
         <v>721</v>
       </c>
       <c r="C406" s="6" t="s">
@@ -7365,7 +7362,7 @@
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B407" s="27"/>
+      <c r="B407" s="34"/>
       <c r="C407" s="6" t="s">
         <v>373</v>
       </c>
@@ -7374,7 +7371,7 @@
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B408" s="21"/>
+      <c r="B408" s="18"/>
       <c r="C408" s="23" t="s">
         <v>722</v>
       </c>
@@ -7390,11 +7387,11 @@
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B410" s="24" t="s">
+      <c r="B410" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="C410" s="24"/>
-      <c r="D410" s="24"/>
+      <c r="C410" s="21"/>
+      <c r="D410" s="21"/>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B411" s="7"/>
@@ -7420,7 +7417,7 @@
       <c r="D413" s="23"/>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B414" s="25" t="s">
+      <c r="B414" s="32" t="s">
         <v>733</v>
       </c>
       <c r="C414" s="6" t="s">
@@ -7431,7 +7428,7 @@
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B415" s="26"/>
+      <c r="B415" s="33"/>
       <c r="C415" s="6" t="s">
         <v>377</v>
       </c>
@@ -7440,7 +7437,7 @@
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B416" s="26"/>
+      <c r="B416" s="33"/>
       <c r="C416" s="6" t="s">
         <v>378</v>
       </c>
@@ -7449,7 +7446,7 @@
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B417" s="26"/>
+      <c r="B417" s="33"/>
       <c r="C417" s="6" t="s">
         <v>379</v>
       </c>
@@ -7458,7 +7455,7 @@
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B418" s="27"/>
+      <c r="B418" s="34"/>
       <c r="C418" s="6" t="s">
         <v>380</v>
       </c>
@@ -7467,7 +7464,7 @@
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B419" s="30" t="s">
+      <c r="B419" s="43" t="s">
         <v>734</v>
       </c>
       <c r="C419" s="6" t="s">
@@ -7478,7 +7475,7 @@
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B420" s="31"/>
+      <c r="B420" s="44"/>
       <c r="C420" s="6" t="s">
         <v>382</v>
       </c>
@@ -7487,7 +7484,7 @@
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B421" s="32"/>
+      <c r="B421" s="45"/>
       <c r="C421" s="6" t="s">
         <v>383</v>
       </c>
@@ -7496,7 +7493,7 @@
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B422" s="25" t="s">
+      <c r="B422" s="32" t="s">
         <v>735</v>
       </c>
       <c r="C422" s="6" t="s">
@@ -7507,7 +7504,7 @@
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B423" s="26"/>
+      <c r="B423" s="33"/>
       <c r="C423" s="6" t="s">
         <v>385</v>
       </c>
@@ -7516,7 +7513,7 @@
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B424" s="26"/>
+      <c r="B424" s="33"/>
       <c r="C424" s="6" t="s">
         <v>386</v>
       </c>
@@ -7525,7 +7522,7 @@
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B425" s="26"/>
+      <c r="B425" s="33"/>
       <c r="C425" s="6" t="s">
         <v>387</v>
       </c>
@@ -7534,7 +7531,7 @@
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B426" s="27"/>
+      <c r="B426" s="34"/>
       <c r="C426" s="6" t="s">
         <v>388</v>
       </c>
@@ -7543,7 +7540,7 @@
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B427" s="25" t="s">
+      <c r="B427" s="32" t="s">
         <v>736</v>
       </c>
       <c r="C427" s="6" t="s">
@@ -7554,7 +7551,7 @@
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B428" s="26"/>
+      <c r="B428" s="33"/>
       <c r="C428" s="6" t="s">
         <v>390</v>
       </c>
@@ -7563,7 +7560,7 @@
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B429" s="27"/>
+      <c r="B429" s="34"/>
       <c r="C429" s="6" t="s">
         <v>391</v>
       </c>
@@ -7572,7 +7569,7 @@
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B430" s="25" t="s">
+      <c r="B430" s="32" t="s">
         <v>737</v>
       </c>
       <c r="C430" s="6" t="s">
@@ -7583,7 +7580,7 @@
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B431" s="26"/>
+      <c r="B431" s="33"/>
       <c r="C431" s="6" t="s">
         <v>393</v>
       </c>
@@ -7592,7 +7589,7 @@
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B432" s="27"/>
+      <c r="B432" s="34"/>
       <c r="C432" s="6" t="s">
         <v>394</v>
       </c>
@@ -7601,7 +7598,7 @@
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B433" s="25" t="s">
+      <c r="B433" s="32" t="s">
         <v>738</v>
       </c>
       <c r="C433" s="6" t="s">
@@ -7612,7 +7609,7 @@
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B434" s="26"/>
+      <c r="B434" s="33"/>
       <c r="C434" s="6" t="s">
         <v>396</v>
       </c>
@@ -7621,7 +7618,7 @@
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B435" s="26"/>
+      <c r="B435" s="33"/>
       <c r="C435" s="6" t="s">
         <v>397</v>
       </c>
@@ -7630,7 +7627,7 @@
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B436" s="26"/>
+      <c r="B436" s="33"/>
       <c r="C436" s="6" t="s">
         <v>398</v>
       </c>
@@ -7639,7 +7636,7 @@
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B437" s="27"/>
+      <c r="B437" s="34"/>
       <c r="C437" s="6" t="s">
         <v>399</v>
       </c>
@@ -7648,7 +7645,7 @@
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B438" s="25" t="s">
+      <c r="B438" s="32" t="s">
         <v>739</v>
       </c>
       <c r="C438" s="6" t="s">
@@ -7659,7 +7656,7 @@
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B439" s="26"/>
+      <c r="B439" s="33"/>
       <c r="C439" s="6" t="s">
         <v>401</v>
       </c>
@@ -7668,7 +7665,7 @@
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B440" s="26"/>
+      <c r="B440" s="33"/>
       <c r="C440" s="6" t="s">
         <v>402</v>
       </c>
@@ -7677,7 +7674,7 @@
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B441" s="27"/>
+      <c r="B441" s="34"/>
       <c r="C441" s="6" t="s">
         <v>403</v>
       </c>
@@ -7686,21 +7683,21 @@
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B442" s="21"/>
+      <c r="B442" s="18"/>
       <c r="C442" s="23" t="s">
         <v>740</v>
       </c>
       <c r="D442" s="23"/>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B443" s="20"/>
-      <c r="C443" s="28" t="s">
+      <c r="B443" s="17"/>
+      <c r="C443" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="D443" s="29"/>
+      <c r="D443" s="42"/>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B444" s="25" t="s">
+      <c r="B444" s="32" t="s">
         <v>741</v>
       </c>
       <c r="C444" s="6" t="s">
@@ -7711,7 +7708,7 @@
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B445" s="26"/>
+      <c r="B445" s="33"/>
       <c r="C445" s="6" t="s">
         <v>405</v>
       </c>
@@ -7720,7 +7717,7 @@
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B446" s="26"/>
+      <c r="B446" s="33"/>
       <c r="C446" s="6" t="s">
         <v>406</v>
       </c>
@@ -7729,7 +7726,7 @@
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B447" s="27"/>
+      <c r="B447" s="34"/>
       <c r="C447" s="6" t="s">
         <v>407</v>
       </c>
@@ -7738,7 +7735,7 @@
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B448" s="25" t="s">
+      <c r="B448" s="32" t="s">
         <v>742</v>
       </c>
       <c r="C448" s="6" t="s">
@@ -7749,7 +7746,7 @@
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B449" s="26"/>
+      <c r="B449" s="33"/>
       <c r="C449" s="6" t="s">
         <v>409</v>
       </c>
@@ -7758,7 +7755,7 @@
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B450" s="26"/>
+      <c r="B450" s="33"/>
       <c r="C450" s="6" t="s">
         <v>410</v>
       </c>
@@ -7767,7 +7764,7 @@
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B451" s="27"/>
+      <c r="B451" s="34"/>
       <c r="C451" s="6" t="s">
         <v>411</v>
       </c>
@@ -7776,7 +7773,7 @@
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B452" s="25" t="s">
+      <c r="B452" s="32" t="s">
         <v>743</v>
       </c>
       <c r="C452" s="6" t="s">
@@ -7787,7 +7784,7 @@
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B453" s="26"/>
+      <c r="B453" s="33"/>
       <c r="C453" s="6" t="s">
         <v>413</v>
       </c>
@@ -7796,7 +7793,7 @@
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B454" s="26"/>
+      <c r="B454" s="33"/>
       <c r="C454" s="6" t="s">
         <v>414</v>
       </c>
@@ -7805,7 +7802,7 @@
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B455" s="27"/>
+      <c r="B455" s="34"/>
       <c r="C455" s="6" t="s">
         <v>415</v>
       </c>
@@ -7814,14 +7811,14 @@
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B456" s="21"/>
-      <c r="C456" s="28" t="s">
+      <c r="B456" s="18"/>
+      <c r="C456" s="41" t="s">
         <v>745</v>
       </c>
-      <c r="D456" s="29"/>
+      <c r="D456" s="42"/>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B457" s="25" t="s">
+      <c r="B457" s="32" t="s">
         <v>741</v>
       </c>
       <c r="C457" s="6" t="s">
@@ -7832,7 +7829,7 @@
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B458" s="26"/>
+      <c r="B458" s="33"/>
       <c r="C458" s="6" t="s">
         <v>417</v>
       </c>
@@ -7841,7 +7838,7 @@
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B459" s="26"/>
+      <c r="B459" s="33"/>
       <c r="C459" s="6" t="s">
         <v>418</v>
       </c>
@@ -7850,7 +7847,7 @@
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B460" s="27"/>
+      <c r="B460" s="34"/>
       <c r="C460" s="6" t="s">
         <v>419</v>
       </c>
@@ -7859,7 +7856,7 @@
       </c>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B461" s="25" t="s">
+      <c r="B461" s="32" t="s">
         <v>742</v>
       </c>
       <c r="C461" s="6" t="s">
@@ -7870,7 +7867,7 @@
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B462" s="26"/>
+      <c r="B462" s="33"/>
       <c r="C462" s="6" t="s">
         <v>421</v>
       </c>
@@ -7879,7 +7876,7 @@
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B463" s="26"/>
+      <c r="B463" s="33"/>
       <c r="C463" s="6" t="s">
         <v>422</v>
       </c>
@@ -7888,7 +7885,7 @@
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B464" s="27"/>
+      <c r="B464" s="34"/>
       <c r="C464" s="6" t="s">
         <v>423</v>
       </c>
@@ -7897,7 +7894,7 @@
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B465" s="25" t="s">
+      <c r="B465" s="32" t="s">
         <v>743</v>
       </c>
       <c r="C465" s="6" t="s">
@@ -7908,7 +7905,7 @@
       </c>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B466" s="26"/>
+      <c r="B466" s="33"/>
       <c r="C466" s="6" t="s">
         <v>425</v>
       </c>
@@ -7917,7 +7914,7 @@
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B467" s="26"/>
+      <c r="B467" s="33"/>
       <c r="C467" s="6" t="s">
         <v>426</v>
       </c>
@@ -7926,7 +7923,7 @@
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B468" s="27"/>
+      <c r="B468" s="34"/>
       <c r="C468" s="6" t="s">
         <v>427</v>
       </c>
@@ -7935,7 +7932,7 @@
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B469" s="25" t="s">
+      <c r="B469" s="32" t="s">
         <v>746</v>
       </c>
       <c r="C469" s="6" t="s">
@@ -7946,7 +7943,7 @@
       </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B470" s="26"/>
+      <c r="B470" s="33"/>
       <c r="C470" s="6" t="s">
         <v>429</v>
       </c>
@@ -7955,7 +7952,7 @@
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B471" s="26"/>
+      <c r="B471" s="33"/>
       <c r="C471" s="6" t="s">
         <v>430</v>
       </c>
@@ -7964,7 +7961,7 @@
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B472" s="27"/>
+      <c r="B472" s="34"/>
       <c r="C472" s="6" t="s">
         <v>431</v>
       </c>
@@ -7973,14 +7970,14 @@
       </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B473" s="21"/>
+      <c r="B473" s="18"/>
       <c r="C473" s="23" t="s">
         <v>747</v>
       </c>
       <c r="D473" s="23"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B474" s="25" t="s">
+      <c r="B474" s="32" t="s">
         <v>748</v>
       </c>
       <c r="C474" s="6" t="s">
@@ -7991,7 +7988,7 @@
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B475" s="27"/>
+      <c r="B475" s="34"/>
       <c r="C475" s="6" t="s">
         <v>433</v>
       </c>
@@ -8000,7 +7997,7 @@
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B476" s="25" t="s">
+      <c r="B476" s="32" t="s">
         <v>749</v>
       </c>
       <c r="C476" s="6" t="s">
@@ -8011,7 +8008,7 @@
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B477" s="27"/>
+      <c r="B477" s="34"/>
       <c r="C477" s="6" t="s">
         <v>435</v>
       </c>
@@ -8020,7 +8017,7 @@
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B478" s="25" t="s">
+      <c r="B478" s="32" t="s">
         <v>750</v>
       </c>
       <c r="C478" s="6" t="s">
@@ -8031,7 +8028,7 @@
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B479" s="26"/>
+      <c r="B479" s="33"/>
       <c r="C479" s="6" t="s">
         <v>437</v>
       </c>
@@ -8040,7 +8037,7 @@
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B480" s="26"/>
+      <c r="B480" s="33"/>
       <c r="C480" s="6" t="s">
         <v>438</v>
       </c>
@@ -8049,7 +8046,7 @@
       </c>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B481" s="27"/>
+      <c r="B481" s="34"/>
       <c r="C481" s="6" t="s">
         <v>439</v>
       </c>
@@ -8058,7 +8055,7 @@
       </c>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B482" s="25" t="s">
+      <c r="B482" s="32" t="s">
         <v>751</v>
       </c>
       <c r="C482" s="6" t="s">
@@ -8069,7 +8066,7 @@
       </c>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B483" s="26"/>
+      <c r="B483" s="33"/>
       <c r="C483" s="6" t="s">
         <v>441</v>
       </c>
@@ -8078,7 +8075,7 @@
       </c>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B484" s="26"/>
+      <c r="B484" s="33"/>
       <c r="C484" s="6" t="s">
         <v>442</v>
       </c>
@@ -8087,7 +8084,7 @@
       </c>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B485" s="27"/>
+      <c r="B485" s="34"/>
       <c r="C485" s="6" t="s">
         <v>443</v>
       </c>
@@ -8096,7 +8093,7 @@
       </c>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B486" s="25" t="s">
+      <c r="B486" s="32" t="s">
         <v>752</v>
       </c>
       <c r="C486" s="6" t="s">
@@ -8107,7 +8104,7 @@
       </c>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B487" s="26"/>
+      <c r="B487" s="33"/>
       <c r="C487" s="6" t="s">
         <v>445</v>
       </c>
@@ -8116,7 +8113,7 @@
       </c>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B488" s="26"/>
+      <c r="B488" s="33"/>
       <c r="C488" s="6" t="s">
         <v>446</v>
       </c>
@@ -8125,7 +8122,7 @@
       </c>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B489" s="27"/>
+      <c r="B489" s="34"/>
       <c r="C489" s="6" t="s">
         <v>447</v>
       </c>
@@ -8134,7 +8131,7 @@
       </c>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B490" s="25" t="s">
+      <c r="B490" s="32" t="s">
         <v>753</v>
       </c>
       <c r="C490" s="6" t="s">
@@ -8145,7 +8142,7 @@
       </c>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B491" s="26"/>
+      <c r="B491" s="33"/>
       <c r="C491" s="6" t="s">
         <v>449</v>
       </c>
@@ -8154,7 +8151,7 @@
       </c>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B492" s="26"/>
+      <c r="B492" s="33"/>
       <c r="C492" s="6" t="s">
         <v>450</v>
       </c>
@@ -8163,7 +8160,7 @@
       </c>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B493" s="27"/>
+      <c r="B493" s="34"/>
       <c r="C493" s="6" t="s">
         <v>451</v>
       </c>
@@ -8172,7 +8169,7 @@
       </c>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B494" s="25" t="s">
+      <c r="B494" s="32" t="s">
         <v>754</v>
       </c>
       <c r="C494" s="6" t="s">
@@ -8183,7 +8180,7 @@
       </c>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B495" s="26"/>
+      <c r="B495" s="33"/>
       <c r="C495" s="6" t="s">
         <v>453</v>
       </c>
@@ -8192,7 +8189,7 @@
       </c>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B496" s="26"/>
+      <c r="B496" s="33"/>
       <c r="C496" s="6" t="s">
         <v>454</v>
       </c>
@@ -8201,7 +8198,7 @@
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B497" s="27"/>
+      <c r="B497" s="34"/>
       <c r="C497" s="6" t="s">
         <v>455</v>
       </c>
@@ -8210,7 +8207,7 @@
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B498" s="25" t="s">
+      <c r="B498" s="32" t="s">
         <v>755</v>
       </c>
       <c r="C498" s="6" t="s">
@@ -8221,7 +8218,7 @@
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B499" s="26"/>
+      <c r="B499" s="33"/>
       <c r="C499" s="6" t="s">
         <v>457</v>
       </c>
@@ -8230,7 +8227,7 @@
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B500" s="26"/>
+      <c r="B500" s="33"/>
       <c r="C500" s="6" t="s">
         <v>458</v>
       </c>
@@ -8239,7 +8236,7 @@
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B501" s="27"/>
+      <c r="B501" s="34"/>
       <c r="C501" s="6" t="s">
         <v>459</v>
       </c>
@@ -8248,7 +8245,7 @@
       </c>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B502" s="25" t="s">
+      <c r="B502" s="32" t="s">
         <v>756</v>
       </c>
       <c r="C502" s="6" t="s">
@@ -8259,7 +8256,7 @@
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B503" s="27"/>
+      <c r="B503" s="34"/>
       <c r="C503" s="6" t="s">
         <v>461</v>
       </c>
@@ -8268,7 +8265,7 @@
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B504" s="21"/>
+      <c r="B504" s="18"/>
       <c r="C504" s="23" t="s">
         <v>757</v>
       </c>
@@ -8284,11 +8281,11 @@
       </c>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B506" s="24" t="s">
+      <c r="B506" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="C506" s="24"/>
-      <c r="D506" s="24"/>
+      <c r="C506" s="21"/>
+      <c r="D506" s="21"/>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B507" s="7"/>
@@ -8314,7 +8311,7 @@
       <c r="D509" s="23"/>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B510" s="25" t="s">
+      <c r="B510" s="32" t="s">
         <v>762</v>
       </c>
       <c r="C510" s="6" t="s">
@@ -8325,7 +8322,7 @@
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B511" s="26"/>
+      <c r="B511" s="33"/>
       <c r="C511" s="6" t="s">
         <v>465</v>
       </c>
@@ -8334,7 +8331,7 @@
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B512" s="26"/>
+      <c r="B512" s="33"/>
       <c r="C512" s="6" t="s">
         <v>466</v>
       </c>
@@ -8343,7 +8340,7 @@
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B513" s="26"/>
+      <c r="B513" s="33"/>
       <c r="C513" s="6" t="s">
         <v>467</v>
       </c>
@@ -8352,7 +8349,7 @@
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B514" s="27"/>
+      <c r="B514" s="34"/>
       <c r="C514" s="6" t="s">
         <v>468</v>
       </c>
@@ -8361,7 +8358,7 @@
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B515" s="21"/>
+      <c r="B515" s="18"/>
       <c r="C515" s="23" t="s">
         <v>764</v>
       </c>
@@ -8377,11 +8374,11 @@
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B517" s="24" t="s">
+      <c r="B517" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="C517" s="24"/>
-      <c r="D517" s="24"/>
+      <c r="C517" s="21"/>
+      <c r="D517" s="21"/>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B518" s="7" t="s">
@@ -8500,11 +8497,11 @@
       </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B530" s="24" t="s">
+      <c r="B530" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="C530" s="24"/>
-      <c r="D530" s="24"/>
+      <c r="C530" s="21"/>
+      <c r="D530" s="21"/>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B531" s="7"/>
@@ -8847,24 +8844,123 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C545:D545"/>
+    <mergeCell ref="C547:D547"/>
+    <mergeCell ref="C557:D557"/>
+    <mergeCell ref="B517:D517"/>
+    <mergeCell ref="C524:D524"/>
+    <mergeCell ref="C527:D527"/>
+    <mergeCell ref="B530:D530"/>
+    <mergeCell ref="C531:D531"/>
+    <mergeCell ref="C533:D533"/>
+    <mergeCell ref="C504:D504"/>
+    <mergeCell ref="B506:D506"/>
+    <mergeCell ref="C507:D507"/>
+    <mergeCell ref="C509:D509"/>
+    <mergeCell ref="B510:B514"/>
+    <mergeCell ref="C515:D515"/>
+    <mergeCell ref="B482:B485"/>
+    <mergeCell ref="B486:B489"/>
+    <mergeCell ref="B490:B493"/>
+    <mergeCell ref="B494:B497"/>
+    <mergeCell ref="B498:B501"/>
+    <mergeCell ref="B502:B503"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="C473:D473"/>
+    <mergeCell ref="B474:B475"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="B478:B481"/>
+    <mergeCell ref="B444:B447"/>
+    <mergeCell ref="B448:B451"/>
+    <mergeCell ref="B452:B455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="B427:B429"/>
+    <mergeCell ref="B430:B432"/>
+    <mergeCell ref="B433:B437"/>
+    <mergeCell ref="B438:B441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="C443:D443"/>
+    <mergeCell ref="B410:D410"/>
+    <mergeCell ref="C411:D411"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B414:B418"/>
+    <mergeCell ref="B419:B421"/>
+    <mergeCell ref="B422:B426"/>
+    <mergeCell ref="B398:B399"/>
+    <mergeCell ref="B400:B401"/>
+    <mergeCell ref="B402:B403"/>
+    <mergeCell ref="B404:B405"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="B382:B383"/>
+    <mergeCell ref="B384:B385"/>
+    <mergeCell ref="B386:B389"/>
+    <mergeCell ref="B390:B393"/>
+    <mergeCell ref="B394:B395"/>
+    <mergeCell ref="B396:B397"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="B351:B355"/>
+    <mergeCell ref="B356:B360"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="B363:B364"/>
+    <mergeCell ref="B365:B366"/>
+    <mergeCell ref="B325:B329"/>
+    <mergeCell ref="B330:B334"/>
+    <mergeCell ref="B335:B339"/>
+    <mergeCell ref="B340:B344"/>
+    <mergeCell ref="B345:B346"/>
+    <mergeCell ref="B347:B348"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="B306:B310"/>
+    <mergeCell ref="B311:B315"/>
+    <mergeCell ref="B316:B320"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="B226:B230"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="B206:B210"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="B221:B225"/>
+    <mergeCell ref="B170:B174"/>
+    <mergeCell ref="B175:B179"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="B190:B194"/>
+    <mergeCell ref="B195:B199"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B169"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C146:D146"/>
     <mergeCell ref="B124:B125"/>
     <mergeCell ref="B126:B127"/>
     <mergeCell ref="B128:B129"/>
@@ -8877,123 +8973,24 @@
     <mergeCell ref="B119:D119"/>
     <mergeCell ref="C120:D120"/>
     <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="B206:B210"/>
-    <mergeCell ref="B211:B215"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="B221:B225"/>
-    <mergeCell ref="B170:B174"/>
-    <mergeCell ref="B175:B179"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="B190:B194"/>
-    <mergeCell ref="B195:B199"/>
-    <mergeCell ref="B257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="B226:B230"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="B325:B329"/>
-    <mergeCell ref="B330:B334"/>
-    <mergeCell ref="B335:B339"/>
-    <mergeCell ref="B340:B344"/>
-    <mergeCell ref="B345:B346"/>
-    <mergeCell ref="B347:B348"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="B306:B310"/>
-    <mergeCell ref="B311:B315"/>
-    <mergeCell ref="B316:B320"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="B351:B355"/>
-    <mergeCell ref="B356:B360"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="B363:B364"/>
-    <mergeCell ref="B365:B366"/>
-    <mergeCell ref="B398:B399"/>
-    <mergeCell ref="B400:B401"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="B404:B405"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="C408:D408"/>
-    <mergeCell ref="B382:B383"/>
-    <mergeCell ref="B384:B385"/>
-    <mergeCell ref="B386:B389"/>
-    <mergeCell ref="B390:B393"/>
-    <mergeCell ref="B394:B395"/>
-    <mergeCell ref="B396:B397"/>
-    <mergeCell ref="B427:B429"/>
-    <mergeCell ref="B430:B432"/>
-    <mergeCell ref="B433:B437"/>
-    <mergeCell ref="B438:B441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="C443:D443"/>
-    <mergeCell ref="B410:D410"/>
-    <mergeCell ref="C411:D411"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B414:B418"/>
-    <mergeCell ref="B419:B421"/>
-    <mergeCell ref="B422:B426"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="C473:D473"/>
-    <mergeCell ref="B474:B475"/>
-    <mergeCell ref="B476:B477"/>
-    <mergeCell ref="B478:B481"/>
-    <mergeCell ref="B444:B447"/>
-    <mergeCell ref="B448:B451"/>
-    <mergeCell ref="B452:B455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="C504:D504"/>
-    <mergeCell ref="B506:D506"/>
-    <mergeCell ref="C507:D507"/>
-    <mergeCell ref="C509:D509"/>
-    <mergeCell ref="B510:B514"/>
-    <mergeCell ref="C515:D515"/>
-    <mergeCell ref="B482:B485"/>
-    <mergeCell ref="B486:B489"/>
-    <mergeCell ref="B490:B493"/>
-    <mergeCell ref="B494:B497"/>
-    <mergeCell ref="B498:B501"/>
-    <mergeCell ref="B502:B503"/>
-    <mergeCell ref="C545:D545"/>
-    <mergeCell ref="C547:D547"/>
-    <mergeCell ref="C557:D557"/>
-    <mergeCell ref="B517:D517"/>
-    <mergeCell ref="C524:D524"/>
-    <mergeCell ref="C527:D527"/>
-    <mergeCell ref="B530:D530"/>
-    <mergeCell ref="C531:D531"/>
-    <mergeCell ref="C533:D533"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9043,11 +9040,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
@@ -9085,10 +9082,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
@@ -9189,17 +9186,17 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="46"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
@@ -9293,10 +9290,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="C33" s="46"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -9390,10 +9387,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="C44" s="46"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
@@ -9478,10 +9475,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="C54" s="46"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
@@ -9493,21 +9490,21 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="C57" s="47"/>
+      <c r="C57" s="28"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="25" t="s">
         <v>549</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -9518,7 +9515,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="6" t="s">
         <v>47</v>
       </c>
@@ -9527,7 +9524,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="43"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="6" t="s">
         <v>48</v>
       </c>
@@ -9536,7 +9533,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="6" t="s">
         <v>49</v>
       </c>
@@ -9545,7 +9542,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="25" t="s">
         <v>542</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -9556,7 +9553,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="6" t="s">
         <v>51</v>
       </c>
@@ -9565,7 +9562,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="6" t="s">
         <v>52</v>
       </c>
@@ -9574,7 +9571,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="44"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="6" t="s">
         <v>53</v>
       </c>
@@ -9583,7 +9580,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="25" t="s">
         <v>550</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -9594,7 +9591,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="43"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="6" t="s">
         <v>55</v>
       </c>
@@ -9603,7 +9600,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="43"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="6" t="s">
         <v>56</v>
       </c>
@@ -9612,7 +9609,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="44"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
@@ -9621,7 +9618,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="25" t="s">
         <v>551</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -9632,7 +9629,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="43"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="6" t="s">
         <v>59</v>
       </c>
@@ -9641,7 +9638,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="43"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
@@ -9650,7 +9647,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="44"/>
+      <c r="A73" s="27"/>
       <c r="B73" s="6" t="s">
         <v>61</v>
       </c>
@@ -9659,7 +9656,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="25" t="s">
         <v>547</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -9670,7 +9667,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="43"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="6" t="s">
         <v>63</v>
       </c>
@@ -9679,7 +9676,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="43"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="6" t="s">
         <v>64</v>
       </c>
@@ -9688,7 +9685,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="6" t="s">
         <v>65</v>
       </c>
@@ -9697,7 +9694,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="25" t="s">
         <v>552</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -9708,7 +9705,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="43"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="6" t="s">
         <v>67</v>
       </c>
@@ -9717,7 +9714,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="43"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="6" t="s">
         <v>68</v>
       </c>
@@ -9726,7 +9723,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="44"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="6" t="s">
         <v>69</v>
       </c>
@@ -9735,7 +9732,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="25" t="s">
         <v>553</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -9746,7 +9743,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="43"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="6" t="s">
         <v>71</v>
       </c>
@@ -9755,7 +9752,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="43"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="6" t="s">
         <v>72</v>
       </c>
@@ -9764,7 +9761,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="44"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="6" t="s">
         <v>73</v>
       </c>
@@ -9773,7 +9770,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="25" t="s">
         <v>554</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -9784,7 +9781,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="43"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="6" t="s">
         <v>75</v>
       </c>
@@ -9793,7 +9790,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="43"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="6" t="s">
         <v>76</v>
       </c>
@@ -9802,7 +9799,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="44"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="6" t="s">
         <v>77</v>
       </c>
@@ -9811,7 +9808,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="25" t="s">
         <v>548</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -9822,7 +9819,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="43"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="6" t="s">
         <v>79</v>
       </c>
@@ -9831,7 +9828,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="43"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="6" t="s">
         <v>80</v>
       </c>
@@ -9840,7 +9837,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="44"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="6" t="s">
         <v>81</v>
       </c>
@@ -9849,11 +9846,11 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
@@ -10070,11 +10067,11 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="7"/>
@@ -10109,7 +10106,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="29" t="s">
         <v>586</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -10120,7 +10117,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="41"/>
+      <c r="A125" s="30"/>
       <c r="B125" s="6" t="s">
         <v>108</v>
       </c>
@@ -10129,7 +10126,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="29" t="s">
         <v>587</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -10140,7 +10137,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="41"/>
+      <c r="A127" s="30"/>
       <c r="B127" s="6" t="s">
         <v>110</v>
       </c>
@@ -10149,7 +10146,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="29" t="s">
         <v>595</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -10160,7 +10157,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="41"/>
+      <c r="A129" s="30"/>
       <c r="B129" s="6" t="s">
         <v>112</v>
       </c>
@@ -10169,7 +10166,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="39" t="s">
+      <c r="A130" s="29" t="s">
         <v>588</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -10180,7 +10177,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="41"/>
+      <c r="A131" s="30"/>
       <c r="B131" s="6" t="s">
         <v>114</v>
       </c>
@@ -10189,7 +10186,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="39" t="s">
+      <c r="A132" s="29" t="s">
         <v>589</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -10200,7 +10197,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="41"/>
+      <c r="A133" s="30"/>
       <c r="B133" s="6" t="s">
         <v>116</v>
       </c>
@@ -10209,7 +10206,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="29" t="s">
         <v>590</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -10220,7 +10217,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="41"/>
+      <c r="A135" s="30"/>
       <c r="B135" s="6" t="s">
         <v>118</v>
       </c>
@@ -10229,7 +10226,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="39" t="s">
+      <c r="A136" s="29" t="s">
         <v>591</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -10241,7 +10238,7 @@
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="41"/>
+      <c r="A137" s="30"/>
       <c r="B137" s="6" t="s">
         <v>120</v>
       </c>
@@ -10250,7 +10247,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="29" t="s">
         <v>592</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -10261,7 +10258,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="41"/>
+      <c r="A139" s="30"/>
       <c r="B139" s="6" t="s">
         <v>122</v>
       </c>
@@ -10270,7 +10267,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="39" t="s">
+      <c r="A140" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -10281,7 +10278,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="41"/>
+      <c r="A141" s="30"/>
       <c r="B141" s="6" t="s">
         <v>124</v>
       </c>
@@ -10290,7 +10287,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="39" t="s">
+      <c r="A142" s="29" t="s">
         <v>594</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -10301,7 +10298,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="41"/>
+      <c r="A143" s="30"/>
       <c r="B143" s="6" t="s">
         <v>126</v>
       </c>
@@ -10435,7 +10432,7 @@
       <c r="C158" s="23"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="39" t="s">
+      <c r="A159" s="29" t="s">
         <v>612</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -10446,7 +10443,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="40"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="6" t="s">
         <v>138</v>
       </c>
@@ -10455,7 +10452,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="41"/>
+      <c r="A161" s="30"/>
       <c r="B161" s="6" t="s">
         <v>139</v>
       </c>
@@ -10464,7 +10461,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="39" t="s">
+      <c r="A162" s="29" t="s">
         <v>586</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -10475,7 +10472,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="40"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="6" t="s">
         <v>141</v>
       </c>
@@ -10484,7 +10481,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="41"/>
+      <c r="A164" s="30"/>
       <c r="B164" s="6" t="s">
         <v>142</v>
       </c>
@@ -10493,7 +10490,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="39" t="s">
+      <c r="A165" s="29" t="s">
         <v>613</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -10504,7 +10501,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="40"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="6" t="s">
         <v>144</v>
       </c>
@@ -10513,7 +10510,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="40"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="6" t="s">
         <v>145</v>
       </c>
@@ -10522,7 +10519,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="40"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="6" t="s">
         <v>146</v>
       </c>
@@ -10531,7 +10528,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="41"/>
+      <c r="A169" s="30"/>
       <c r="B169" s="6" t="s">
         <v>147</v>
       </c>
@@ -10540,7 +10537,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="39" t="s">
+      <c r="A170" s="29" t="s">
         <v>614</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -10551,7 +10548,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="40"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="6" t="s">
         <v>149</v>
       </c>
@@ -10560,7 +10557,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="40"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="6" t="s">
         <v>150</v>
       </c>
@@ -10569,7 +10566,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="40"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="6" t="s">
         <v>151</v>
       </c>
@@ -10578,7 +10575,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="41"/>
+      <c r="A174" s="30"/>
       <c r="B174" s="6" t="s">
         <v>152</v>
       </c>
@@ -10587,7 +10584,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="39" t="s">
+      <c r="A175" s="29" t="s">
         <v>615</v>
       </c>
       <c r="B175" s="6" t="s">
@@ -10598,7 +10595,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="40"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="6" t="s">
         <v>154</v>
       </c>
@@ -10607,7 +10604,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="40"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="6" t="s">
         <v>155</v>
       </c>
@@ -10616,7 +10613,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="40"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="6" t="s">
         <v>156</v>
       </c>
@@ -10625,7 +10622,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="41"/>
+      <c r="A179" s="30"/>
       <c r="B179" s="6" t="s">
         <v>157</v>
       </c>
@@ -10634,7 +10631,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="39" t="s">
+      <c r="A180" s="29" t="s">
         <v>616</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -10645,7 +10642,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="40"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="6" t="s">
         <v>159</v>
       </c>
@@ -10654,7 +10651,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="40"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="6" t="s">
         <v>160</v>
       </c>
@@ -10663,7 +10660,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="40"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="6" t="s">
         <v>161</v>
       </c>
@@ -10672,7 +10669,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="41"/>
+      <c r="A184" s="30"/>
       <c r="B184" s="6" t="s">
         <v>162</v>
       </c>
@@ -10681,7 +10678,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="39" t="s">
+      <c r="A185" s="29" t="s">
         <v>617</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -10692,7 +10689,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="40"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="6" t="s">
         <v>164</v>
       </c>
@@ -10701,7 +10698,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="40"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="6" t="s">
         <v>165</v>
       </c>
@@ -10710,7 +10707,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="40"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="6" t="s">
         <v>166</v>
       </c>
@@ -10719,7 +10716,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="41"/>
+      <c r="A189" s="30"/>
       <c r="B189" s="6" t="s">
         <v>167</v>
       </c>
@@ -10728,7 +10725,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="39" t="s">
+      <c r="A190" s="29" t="s">
         <v>618</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -10739,7 +10736,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="40"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="6" t="s">
         <v>169</v>
       </c>
@@ -10748,7 +10745,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="40"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="6" t="s">
         <v>170</v>
       </c>
@@ -10757,7 +10754,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="40"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="6" t="s">
         <v>171</v>
       </c>
@@ -10766,7 +10763,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="41"/>
+      <c r="A194" s="30"/>
       <c r="B194" s="6" t="s">
         <v>172</v>
       </c>
@@ -10775,7 +10772,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="39" t="s">
+      <c r="A195" s="29" t="s">
         <v>619</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -10786,7 +10783,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="40"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="6" t="s">
         <v>174</v>
       </c>
@@ -10795,7 +10792,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="40"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="6" t="s">
         <v>175</v>
       </c>
@@ -10804,7 +10801,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="40"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="6" t="s">
         <v>176</v>
       </c>
@@ -10813,7 +10810,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="41"/>
+      <c r="A199" s="30"/>
       <c r="B199" s="6" t="s">
         <v>177</v>
       </c>
@@ -10822,7 +10819,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="39" t="s">
+      <c r="A200" s="29" t="s">
         <v>620</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -10833,7 +10830,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="40"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="6" t="s">
         <v>179</v>
       </c>
@@ -10842,7 +10839,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="41"/>
+      <c r="A202" s="30"/>
       <c r="B202" s="6" t="s">
         <v>180</v>
       </c>
@@ -10851,7 +10848,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="39" t="s">
+      <c r="A203" s="29" t="s">
         <v>588</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -10862,7 +10859,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="40"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="6" t="s">
         <v>182</v>
       </c>
@@ -10871,7 +10868,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="41"/>
+      <c r="A205" s="30"/>
       <c r="B205" s="6" t="s">
         <v>183</v>
       </c>
@@ -10880,7 +10877,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="39" t="s">
+      <c r="A206" s="29" t="s">
         <v>621</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -10891,7 +10888,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="40"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="6" t="s">
         <v>185</v>
       </c>
@@ -10900,7 +10897,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="40"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="6" t="s">
         <v>186</v>
       </c>
@@ -10909,7 +10906,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="40"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="6" t="s">
         <v>187</v>
       </c>
@@ -10918,7 +10915,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="41"/>
+      <c r="A210" s="30"/>
       <c r="B210" s="6" t="s">
         <v>188</v>
       </c>
@@ -10927,7 +10924,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="39" t="s">
+      <c r="A211" s="29" t="s">
         <v>622</v>
       </c>
       <c r="B211" s="6" t="s">
@@ -10938,7 +10935,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="40"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="6" t="s">
         <v>190</v>
       </c>
@@ -10947,7 +10944,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="40"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="6" t="s">
         <v>191</v>
       </c>
@@ -10956,7 +10953,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="40"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="6" t="s">
         <v>192</v>
       </c>
@@ -10965,7 +10962,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="41"/>
+      <c r="A215" s="30"/>
       <c r="B215" s="6" t="s">
         <v>193</v>
       </c>
@@ -10974,7 +10971,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="39" t="s">
+      <c r="A216" s="29" t="s">
         <v>623</v>
       </c>
       <c r="B216" s="6" t="s">
@@ -10985,7 +10982,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="40"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="6" t="s">
         <v>195</v>
       </c>
@@ -10994,7 +10991,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="40"/>
+      <c r="A218" s="31"/>
       <c r="B218" s="6" t="s">
         <v>196</v>
       </c>
@@ -11003,7 +11000,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="40"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="6" t="s">
         <v>197</v>
       </c>
@@ -11012,7 +11009,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="41"/>
+      <c r="A220" s="30"/>
       <c r="B220" s="6" t="s">
         <v>198</v>
       </c>
@@ -11021,7 +11018,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="39" t="s">
+      <c r="A221" s="29" t="s">
         <v>624</v>
       </c>
       <c r="B221" s="6" t="s">
@@ -11032,7 +11029,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="40"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="6" t="s">
         <v>200</v>
       </c>
@@ -11041,7 +11038,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="40"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="6" t="s">
         <v>201</v>
       </c>
@@ -11050,7 +11047,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="40"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="6" t="s">
         <v>202</v>
       </c>
@@ -11059,7 +11056,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A225" s="41"/>
+      <c r="A225" s="30"/>
       <c r="B225" s="6" t="s">
         <v>203</v>
       </c>
@@ -11068,7 +11065,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="39" t="s">
+      <c r="A226" s="29" t="s">
         <v>590</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -11079,7 +11076,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A227" s="40"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="6" t="s">
         <v>205</v>
       </c>
@@ -11088,7 +11085,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A228" s="40"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="6" t="s">
         <v>206</v>
       </c>
@@ -11097,7 +11094,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="40"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="6" t="s">
         <v>207</v>
       </c>
@@ -11106,7 +11103,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A230" s="41"/>
+      <c r="A230" s="30"/>
       <c r="B230" s="6" t="s">
         <v>208</v>
       </c>
@@ -11115,7 +11112,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A231" s="39" t="s">
+      <c r="A231" s="29" t="s">
         <v>591</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -11126,7 +11123,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A232" s="40"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="6" t="s">
         <v>210</v>
       </c>
@@ -11135,7 +11132,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A233" s="40"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="6" t="s">
         <v>211</v>
       </c>
@@ -11144,7 +11141,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A234" s="40"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="6" t="s">
         <v>212</v>
       </c>
@@ -11153,7 +11150,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A235" s="41"/>
+      <c r="A235" s="30"/>
       <c r="B235" s="6" t="s">
         <v>213</v>
       </c>
@@ -11162,7 +11159,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A236" s="39" t="s">
+      <c r="A236" s="29" t="s">
         <v>592</v>
       </c>
       <c r="B236" s="6" t="s">
@@ -11173,7 +11170,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A237" s="40"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="6" t="s">
         <v>215</v>
       </c>
@@ -11182,7 +11179,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="40"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="6" t="s">
         <v>216</v>
       </c>
@@ -11191,7 +11188,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="40"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="6" t="s">
         <v>217</v>
       </c>
@@ -11200,7 +11197,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" s="41"/>
+      <c r="A240" s="30"/>
       <c r="B240" s="6" t="s">
         <v>218</v>
       </c>
@@ -11209,7 +11206,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="39" t="s">
+      <c r="A241" s="29" t="s">
         <v>625</v>
       </c>
       <c r="B241" s="6" t="s">
@@ -11220,7 +11217,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="40"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="6" t="s">
         <v>220</v>
       </c>
@@ -11229,7 +11226,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="40"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="6" t="s">
         <v>221</v>
       </c>
@@ -11238,7 +11235,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="40"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="6" t="s">
         <v>222</v>
       </c>
@@ -11247,7 +11244,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="41"/>
+      <c r="A245" s="30"/>
       <c r="B245" s="6" t="s">
         <v>223</v>
       </c>
@@ -11256,7 +11253,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="39" t="s">
+      <c r="A246" s="29" t="s">
         <v>626</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -11267,7 +11264,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="40"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="6" t="s">
         <v>225</v>
       </c>
@@ -11276,7 +11273,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="41"/>
+      <c r="A248" s="30"/>
       <c r="B248" s="6" t="s">
         <v>226</v>
       </c>
@@ -11285,7 +11282,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="22" t="s">
+      <c r="A249" s="20" t="s">
         <v>627</v>
       </c>
       <c r="B249" s="6" t="s">
@@ -11296,7 +11293,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="22" t="s">
+      <c r="A250" s="20" t="s">
         <v>628</v>
       </c>
       <c r="B250" s="6" t="s">
@@ -11307,7 +11304,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="22" t="s">
+      <c r="A251" s="20" t="s">
         <v>629</v>
       </c>
       <c r="B251" s="6" t="s">
@@ -11318,7 +11315,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="22" t="s">
+      <c r="A252" s="20" t="s">
         <v>627</v>
       </c>
       <c r="B252" s="6" t="s">
@@ -11329,7 +11326,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="22" t="s">
+      <c r="A253" s="20" t="s">
         <v>628</v>
       </c>
       <c r="B253" s="6" t="s">
@@ -11340,7 +11337,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="22" t="s">
+      <c r="A254" s="20" t="s">
         <v>629</v>
       </c>
       <c r="B254" s="6" t="s">
@@ -11367,11 +11364,11 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="24" t="s">
+      <c r="A257" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B257" s="24"/>
-      <c r="C257" s="24"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="7"/>
@@ -11809,7 +11806,7 @@
       <c r="C301" s="23"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A302" s="25" t="s">
+      <c r="A302" s="32" t="s">
         <v>678</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -11820,7 +11817,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303" s="27"/>
+      <c r="A303" s="34"/>
       <c r="B303" s="6" t="s">
         <v>274</v>
       </c>
@@ -11829,7 +11826,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304" s="25" t="s">
+      <c r="A304" s="32" t="s">
         <v>679</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -11840,7 +11837,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" s="27"/>
+      <c r="A305" s="34"/>
       <c r="B305" s="6" t="s">
         <v>276</v>
       </c>
@@ -11849,7 +11846,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" s="25" t="s">
+      <c r="A306" s="32" t="s">
         <v>681</v>
       </c>
       <c r="B306" s="6" t="s">
@@ -11860,7 +11857,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" s="26"/>
+      <c r="A307" s="33"/>
       <c r="B307" s="6" t="s">
         <v>278</v>
       </c>
@@ -11869,7 +11866,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" s="26"/>
+      <c r="A308" s="33"/>
       <c r="B308" s="6" t="s">
         <v>279</v>
       </c>
@@ -11878,7 +11875,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" s="26"/>
+      <c r="A309" s="33"/>
       <c r="B309" s="6" t="s">
         <v>280</v>
       </c>
@@ -11887,7 +11884,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" s="27"/>
+      <c r="A310" s="34"/>
       <c r="B310" s="6" t="s">
         <v>281</v>
       </c>
@@ -11896,7 +11893,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" s="25" t="s">
+      <c r="A311" s="32" t="s">
         <v>682</v>
       </c>
       <c r="B311" s="6" t="s">
@@ -11907,7 +11904,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" s="26"/>
+      <c r="A312" s="33"/>
       <c r="B312" s="6" t="s">
         <v>283</v>
       </c>
@@ -11916,7 +11913,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" s="26"/>
+      <c r="A313" s="33"/>
       <c r="B313" s="6" t="s">
         <v>284</v>
       </c>
@@ -11925,7 +11922,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" s="26"/>
+      <c r="A314" s="33"/>
       <c r="B314" s="6" t="s">
         <v>285</v>
       </c>
@@ -11934,7 +11931,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" s="27"/>
+      <c r="A315" s="34"/>
       <c r="B315" s="6" t="s">
         <v>286</v>
       </c>
@@ -11943,7 +11940,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" s="25" t="s">
+      <c r="A316" s="32" t="s">
         <v>683</v>
       </c>
       <c r="B316" s="6" t="s">
@@ -11954,7 +11951,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" s="26"/>
+      <c r="A317" s="33"/>
       <c r="B317" s="6" t="s">
         <v>288</v>
       </c>
@@ -11963,7 +11960,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" s="26"/>
+      <c r="A318" s="33"/>
       <c r="B318" s="6" t="s">
         <v>289</v>
       </c>
@@ -11972,7 +11969,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" s="26"/>
+      <c r="A319" s="33"/>
       <c r="B319" s="6" t="s">
         <v>290</v>
       </c>
@@ -11981,7 +11978,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" s="27"/>
+      <c r="A320" s="34"/>
       <c r="B320" s="6" t="s">
         <v>291</v>
       </c>
@@ -11990,7 +11987,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" s="36" t="s">
+      <c r="A321" s="35" t="s">
         <v>684</v>
       </c>
       <c r="B321" s="6" t="s">
@@ -12001,7 +11998,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" s="37"/>
+      <c r="A322" s="36"/>
       <c r="B322" s="6" t="s">
         <v>293</v>
       </c>
@@ -12010,7 +12007,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" s="37"/>
+      <c r="A323" s="36"/>
       <c r="B323" s="6" t="s">
         <v>294</v>
       </c>
@@ -12019,7 +12016,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" s="38"/>
+      <c r="A324" s="37"/>
       <c r="B324" s="6" t="s">
         <v>295</v>
       </c>
@@ -12028,7 +12025,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" s="25" t="s">
+      <c r="A325" s="32" t="s">
         <v>685</v>
       </c>
       <c r="B325" s="6" t="s">
@@ -12039,7 +12036,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" s="26"/>
+      <c r="A326" s="33"/>
       <c r="B326" s="6" t="s">
         <v>297</v>
       </c>
@@ -12048,7 +12045,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" s="26"/>
+      <c r="A327" s="33"/>
       <c r="B327" s="6" t="s">
         <v>298</v>
       </c>
@@ -12057,7 +12054,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" s="26"/>
+      <c r="A328" s="33"/>
       <c r="B328" s="6" t="s">
         <v>299</v>
       </c>
@@ -12066,7 +12063,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" s="27"/>
+      <c r="A329" s="34"/>
       <c r="B329" s="6" t="s">
         <v>300</v>
       </c>
@@ -12075,7 +12072,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" s="25" t="s">
+      <c r="A330" s="32" t="s">
         <v>686</v>
       </c>
       <c r="B330" s="6" t="s">
@@ -12086,7 +12083,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" s="26"/>
+      <c r="A331" s="33"/>
       <c r="B331" s="6" t="s">
         <v>302</v>
       </c>
@@ -12095,7 +12092,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" s="26"/>
+      <c r="A332" s="33"/>
       <c r="B332" s="6" t="s">
         <v>303</v>
       </c>
@@ -12104,7 +12101,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" s="26"/>
+      <c r="A333" s="33"/>
       <c r="B333" s="6" t="s">
         <v>304</v>
       </c>
@@ -12113,7 +12110,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" s="27"/>
+      <c r="A334" s="34"/>
       <c r="B334" s="6" t="s">
         <v>305</v>
       </c>
@@ -12122,7 +12119,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" s="25" t="s">
+      <c r="A335" s="32" t="s">
         <v>687</v>
       </c>
       <c r="B335" s="6" t="s">
@@ -12133,7 +12130,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" s="26"/>
+      <c r="A336" s="33"/>
       <c r="B336" s="6" t="s">
         <v>307</v>
       </c>
@@ -12142,7 +12139,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" s="26"/>
+      <c r="A337" s="33"/>
       <c r="B337" s="6" t="s">
         <v>308</v>
       </c>
@@ -12151,7 +12148,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" s="26"/>
+      <c r="A338" s="33"/>
       <c r="B338" s="6" t="s">
         <v>309</v>
       </c>
@@ -12160,7 +12157,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" s="27"/>
+      <c r="A339" s="34"/>
       <c r="B339" s="6" t="s">
         <v>310</v>
       </c>
@@ -12169,7 +12166,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" s="25" t="s">
+      <c r="A340" s="32" t="s">
         <v>688</v>
       </c>
       <c r="B340" s="6" t="s">
@@ -12180,7 +12177,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" s="26"/>
+      <c r="A341" s="33"/>
       <c r="B341" s="6" t="s">
         <v>312</v>
       </c>
@@ -12189,7 +12186,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" s="26"/>
+      <c r="A342" s="33"/>
       <c r="B342" s="6" t="s">
         <v>313</v>
       </c>
@@ -12198,7 +12195,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" s="26"/>
+      <c r="A343" s="33"/>
       <c r="B343" s="6" t="s">
         <v>314</v>
       </c>
@@ -12207,7 +12204,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" s="27"/>
+      <c r="A344" s="34"/>
       <c r="B344" s="6" t="s">
         <v>315</v>
       </c>
@@ -12216,7 +12213,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" s="25" t="s">
+      <c r="A345" s="32" t="s">
         <v>689</v>
       </c>
       <c r="B345" s="6" t="s">
@@ -12227,7 +12224,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" s="27"/>
+      <c r="A346" s="34"/>
       <c r="B346" s="6" t="s">
         <v>317</v>
       </c>
@@ -12236,7 +12233,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" s="25" t="s">
+      <c r="A347" s="32" t="s">
         <v>690</v>
       </c>
       <c r="B347" s="6" t="s">
@@ -12247,7 +12244,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" s="27"/>
+      <c r="A348" s="34"/>
       <c r="B348" s="6" t="s">
         <v>319</v>
       </c>
@@ -12256,7 +12253,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" s="25" t="s">
+      <c r="A349" s="32" t="s">
         <v>691</v>
       </c>
       <c r="B349" s="6" t="s">
@@ -12267,7 +12264,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" s="27"/>
+      <c r="A350" s="34"/>
       <c r="B350" s="6" t="s">
         <v>321</v>
       </c>
@@ -12276,7 +12273,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" s="25" t="s">
+      <c r="A351" s="32" t="s">
         <v>692</v>
       </c>
       <c r="B351" s="6" t="s">
@@ -12287,7 +12284,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" s="26"/>
+      <c r="A352" s="33"/>
       <c r="B352" s="6" t="s">
         <v>323</v>
       </c>
@@ -12296,7 +12293,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" s="26"/>
+      <c r="A353" s="33"/>
       <c r="B353" s="6" t="s">
         <v>324</v>
       </c>
@@ -12305,7 +12302,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="26"/>
+      <c r="A354" s="33"/>
       <c r="B354" s="6" t="s">
         <v>325</v>
       </c>
@@ -12314,7 +12311,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" s="27"/>
+      <c r="A355" s="34"/>
       <c r="B355" s="6" t="s">
         <v>326</v>
       </c>
@@ -12323,7 +12320,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" s="33" t="s">
+      <c r="A356" s="38" t="s">
         <v>693</v>
       </c>
       <c r="B356" s="6" t="s">
@@ -12334,7 +12331,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" s="34"/>
+      <c r="A357" s="39"/>
       <c r="B357" s="6" t="s">
         <v>328</v>
       </c>
@@ -12343,7 +12340,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" s="34"/>
+      <c r="A358" s="39"/>
       <c r="B358" s="6" t="s">
         <v>329</v>
       </c>
@@ -12352,7 +12349,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" s="34"/>
+      <c r="A359" s="39"/>
       <c r="B359" s="6" t="s">
         <v>330</v>
       </c>
@@ -12361,7 +12358,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" s="35"/>
+      <c r="A360" s="40"/>
       <c r="B360" s="6" t="s">
         <v>331</v>
       </c>
@@ -12370,7 +12367,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" s="25" t="s">
+      <c r="A361" s="32" t="s">
         <v>694</v>
       </c>
       <c r="B361" s="6" t="s">
@@ -12381,7 +12378,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" s="27"/>
+      <c r="A362" s="34"/>
       <c r="B362" s="6" t="s">
         <v>333</v>
       </c>
@@ -12390,7 +12387,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" s="25" t="s">
+      <c r="A363" s="32" t="s">
         <v>695</v>
       </c>
       <c r="B363" s="6" t="s">
@@ -12401,7 +12398,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" s="27"/>
+      <c r="A364" s="34"/>
       <c r="B364" s="6" t="s">
         <v>335</v>
       </c>
@@ -12410,7 +12407,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" s="25" t="s">
+      <c r="A365" s="32" t="s">
         <v>696</v>
       </c>
       <c r="B365" s="6" t="s">
@@ -12421,7 +12418,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" s="27"/>
+      <c r="A366" s="34"/>
       <c r="B366" s="6" t="s">
         <v>337</v>
       </c>
@@ -12430,7 +12427,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" s="25" t="s">
+      <c r="A367" s="32" t="s">
         <v>697</v>
       </c>
       <c r="B367" s="6" t="s">
@@ -12441,7 +12438,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" s="27"/>
+      <c r="A368" s="34"/>
       <c r="B368" s="6" t="s">
         <v>339</v>
       </c>
@@ -12466,11 +12463,11 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" s="24" t="s">
+      <c r="A371" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="B371" s="24"/>
-      <c r="C371" s="24"/>
+      <c r="B371" s="21"/>
+      <c r="C371" s="21"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="7"/>
@@ -12569,7 +12566,7 @@
       <c r="C381" s="23"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" s="25" t="s">
+      <c r="A382" s="32" t="s">
         <v>711</v>
       </c>
       <c r="B382" s="6" t="s">
@@ -12580,7 +12577,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" s="27"/>
+      <c r="A383" s="34"/>
       <c r="B383" s="6" t="s">
         <v>349</v>
       </c>
@@ -12589,7 +12586,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" s="25" t="s">
+      <c r="A384" s="32" t="s">
         <v>712</v>
       </c>
       <c r="B384" s="6" t="s">
@@ -12600,7 +12597,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" s="27"/>
+      <c r="A385" s="34"/>
       <c r="B385" s="6" t="s">
         <v>351</v>
       </c>
@@ -12609,7 +12606,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A386" s="25" t="s">
+      <c r="A386" s="32" t="s">
         <v>713</v>
       </c>
       <c r="B386" s="6" t="s">
@@ -12620,7 +12617,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A387" s="26"/>
+      <c r="A387" s="33"/>
       <c r="B387" s="6" t="s">
         <v>353</v>
       </c>
@@ -12629,7 +12626,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A388" s="26"/>
+      <c r="A388" s="33"/>
       <c r="B388" s="6" t="s">
         <v>354</v>
       </c>
@@ -12638,7 +12635,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A389" s="27"/>
+      <c r="A389" s="34"/>
       <c r="B389" s="6" t="s">
         <v>355</v>
       </c>
@@ -12647,7 +12644,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A390" s="25" t="s">
+      <c r="A390" s="32" t="s">
         <v>714</v>
       </c>
       <c r="B390" s="6" t="s">
@@ -12658,7 +12655,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A391" s="26"/>
+      <c r="A391" s="33"/>
       <c r="B391" s="6" t="s">
         <v>357</v>
       </c>
@@ -12667,7 +12664,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A392" s="26"/>
+      <c r="A392" s="33"/>
       <c r="B392" s="6" t="s">
         <v>358</v>
       </c>
@@ -12676,7 +12673,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A393" s="27"/>
+      <c r="A393" s="34"/>
       <c r="B393" s="6" t="s">
         <v>359</v>
       </c>
@@ -12685,7 +12682,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" s="25" t="s">
+      <c r="A394" s="32" t="s">
         <v>715</v>
       </c>
       <c r="B394" s="6" t="s">
@@ -12696,7 +12693,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A395" s="27"/>
+      <c r="A395" s="34"/>
       <c r="B395" s="6" t="s">
         <v>361</v>
       </c>
@@ -12705,7 +12702,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A396" s="25" t="s">
+      <c r="A396" s="32" t="s">
         <v>716</v>
       </c>
       <c r="B396" s="6" t="s">
@@ -12716,7 +12713,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A397" s="27"/>
+      <c r="A397" s="34"/>
       <c r="B397" s="6" t="s">
         <v>363</v>
       </c>
@@ -12725,7 +12722,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A398" s="25" t="s">
+      <c r="A398" s="32" t="s">
         <v>717</v>
       </c>
       <c r="B398" s="6" t="s">
@@ -12736,7 +12733,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A399" s="27"/>
+      <c r="A399" s="34"/>
       <c r="B399" s="6" t="s">
         <v>365</v>
       </c>
@@ -12745,7 +12742,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A400" s="25" t="s">
+      <c r="A400" s="32" t="s">
         <v>718</v>
       </c>
       <c r="B400" s="6" t="s">
@@ -12756,7 +12753,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" s="27"/>
+      <c r="A401" s="34"/>
       <c r="B401" s="6" t="s">
         <v>367</v>
       </c>
@@ -12765,7 +12762,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="32" t="s">
         <v>719</v>
       </c>
       <c r="B402" s="6" t="s">
@@ -12776,7 +12773,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A403" s="27"/>
+      <c r="A403" s="34"/>
       <c r="B403" s="6" t="s">
         <v>369</v>
       </c>
@@ -12785,7 +12782,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A404" s="25" t="s">
+      <c r="A404" s="32" t="s">
         <v>720</v>
       </c>
       <c r="B404" s="6" t="s">
@@ -12796,7 +12793,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A405" s="27"/>
+      <c r="A405" s="34"/>
       <c r="B405" s="6" t="s">
         <v>371</v>
       </c>
@@ -12805,7 +12802,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A406" s="25" t="s">
+      <c r="A406" s="32" t="s">
         <v>721</v>
       </c>
       <c r="B406" s="6" t="s">
@@ -12816,7 +12813,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A407" s="27"/>
+      <c r="A407" s="34"/>
       <c r="B407" s="6" t="s">
         <v>373</v>
       </c>
@@ -12841,11 +12838,11 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A410" s="24" t="s">
+      <c r="A410" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="B410" s="24"/>
-      <c r="C410" s="24"/>
+      <c r="B410" s="21"/>
+      <c r="C410" s="21"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="7"/>
@@ -12871,7 +12868,7 @@
       <c r="C413" s="23"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A414" s="25" t="s">
+      <c r="A414" s="32" t="s">
         <v>733</v>
       </c>
       <c r="B414" s="6" t="s">
@@ -12882,7 +12879,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A415" s="26"/>
+      <c r="A415" s="33"/>
       <c r="B415" s="6" t="s">
         <v>377</v>
       </c>
@@ -12891,7 +12888,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A416" s="26"/>
+      <c r="A416" s="33"/>
       <c r="B416" s="6" t="s">
         <v>378</v>
       </c>
@@ -12900,7 +12897,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A417" s="26"/>
+      <c r="A417" s="33"/>
       <c r="B417" s="6" t="s">
         <v>379</v>
       </c>
@@ -12909,7 +12906,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A418" s="27"/>
+      <c r="A418" s="34"/>
       <c r="B418" s="6" t="s">
         <v>380</v>
       </c>
@@ -12918,7 +12915,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A419" s="30" t="s">
+      <c r="A419" s="43" t="s">
         <v>734</v>
       </c>
       <c r="B419" s="6" t="s">
@@ -12929,7 +12926,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A420" s="31"/>
+      <c r="A420" s="44"/>
       <c r="B420" s="6" t="s">
         <v>382</v>
       </c>
@@ -12938,7 +12935,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A421" s="32"/>
+      <c r="A421" s="45"/>
       <c r="B421" s="6" t="s">
         <v>383</v>
       </c>
@@ -12947,7 +12944,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A422" s="25" t="s">
+      <c r="A422" s="32" t="s">
         <v>735</v>
       </c>
       <c r="B422" s="6" t="s">
@@ -12958,7 +12955,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A423" s="26"/>
+      <c r="A423" s="33"/>
       <c r="B423" s="6" t="s">
         <v>385</v>
       </c>
@@ -12967,7 +12964,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A424" s="26"/>
+      <c r="A424" s="33"/>
       <c r="B424" s="6" t="s">
         <v>386</v>
       </c>
@@ -12976,7 +12973,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A425" s="26"/>
+      <c r="A425" s="33"/>
       <c r="B425" s="6" t="s">
         <v>387</v>
       </c>
@@ -12985,7 +12982,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A426" s="27"/>
+      <c r="A426" s="34"/>
       <c r="B426" s="6" t="s">
         <v>388</v>
       </c>
@@ -12994,7 +12991,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A427" s="25" t="s">
+      <c r="A427" s="32" t="s">
         <v>736</v>
       </c>
       <c r="B427" s="6" t="s">
@@ -13005,7 +13002,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A428" s="26"/>
+      <c r="A428" s="33"/>
       <c r="B428" s="6" t="s">
         <v>390</v>
       </c>
@@ -13014,7 +13011,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A429" s="27"/>
+      <c r="A429" s="34"/>
       <c r="B429" s="6" t="s">
         <v>391</v>
       </c>
@@ -13023,7 +13020,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A430" s="25" t="s">
+      <c r="A430" s="32" t="s">
         <v>737</v>
       </c>
       <c r="B430" s="6" t="s">
@@ -13034,7 +13031,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A431" s="26"/>
+      <c r="A431" s="33"/>
       <c r="B431" s="6" t="s">
         <v>393</v>
       </c>
@@ -13043,7 +13040,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A432" s="27"/>
+      <c r="A432" s="34"/>
       <c r="B432" s="6" t="s">
         <v>394</v>
       </c>
@@ -13052,7 +13049,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A433" s="25" t="s">
+      <c r="A433" s="32" t="s">
         <v>738</v>
       </c>
       <c r="B433" s="6" t="s">
@@ -13063,7 +13060,7 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A434" s="26"/>
+      <c r="A434" s="33"/>
       <c r="B434" s="6" t="s">
         <v>396</v>
       </c>
@@ -13072,7 +13069,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A435" s="26"/>
+      <c r="A435" s="33"/>
       <c r="B435" s="6" t="s">
         <v>397</v>
       </c>
@@ -13081,7 +13078,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A436" s="26"/>
+      <c r="A436" s="33"/>
       <c r="B436" s="6" t="s">
         <v>398</v>
       </c>
@@ -13090,7 +13087,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A437" s="27"/>
+      <c r="A437" s="34"/>
       <c r="B437" s="6" t="s">
         <v>399</v>
       </c>
@@ -13099,7 +13096,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A438" s="25" t="s">
+      <c r="A438" s="32" t="s">
         <v>739</v>
       </c>
       <c r="B438" s="6" t="s">
@@ -13110,7 +13107,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A439" s="26"/>
+      <c r="A439" s="33"/>
       <c r="B439" s="6" t="s">
         <v>401</v>
       </c>
@@ -13119,7 +13116,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A440" s="26"/>
+      <c r="A440" s="33"/>
       <c r="B440" s="6" t="s">
         <v>402</v>
       </c>
@@ -13128,7 +13125,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A441" s="27"/>
+      <c r="A441" s="34"/>
       <c r="B441" s="6" t="s">
         <v>403</v>
       </c>
@@ -13145,13 +13142,13 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="17"/>
-      <c r="B443" s="28" t="s">
+      <c r="B443" s="41" t="s">
         <v>744</v>
       </c>
-      <c r="C443" s="29"/>
+      <c r="C443" s="42"/>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A444" s="25" t="s">
+      <c r="A444" s="32" t="s">
         <v>741</v>
       </c>
       <c r="B444" s="6" t="s">
@@ -13162,7 +13159,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A445" s="26"/>
+      <c r="A445" s="33"/>
       <c r="B445" s="6" t="s">
         <v>405</v>
       </c>
@@ -13171,7 +13168,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A446" s="26"/>
+      <c r="A446" s="33"/>
       <c r="B446" s="6" t="s">
         <v>406</v>
       </c>
@@ -13180,7 +13177,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A447" s="27"/>
+      <c r="A447" s="34"/>
       <c r="B447" s="6" t="s">
         <v>407</v>
       </c>
@@ -13189,7 +13186,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A448" s="25" t="s">
+      <c r="A448" s="32" t="s">
         <v>742</v>
       </c>
       <c r="B448" s="6" t="s">
@@ -13200,7 +13197,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A449" s="26"/>
+      <c r="A449" s="33"/>
       <c r="B449" s="6" t="s">
         <v>409</v>
       </c>
@@ -13209,7 +13206,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A450" s="26"/>
+      <c r="A450" s="33"/>
       <c r="B450" s="6" t="s">
         <v>410</v>
       </c>
@@ -13218,7 +13215,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A451" s="27"/>
+      <c r="A451" s="34"/>
       <c r="B451" s="6" t="s">
         <v>411</v>
       </c>
@@ -13227,7 +13224,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A452" s="25" t="s">
+      <c r="A452" s="32" t="s">
         <v>743</v>
       </c>
       <c r="B452" s="6" t="s">
@@ -13238,7 +13235,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A453" s="26"/>
+      <c r="A453" s="33"/>
       <c r="B453" s="6" t="s">
         <v>413</v>
       </c>
@@ -13247,7 +13244,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A454" s="26"/>
+      <c r="A454" s="33"/>
       <c r="B454" s="6" t="s">
         <v>414</v>
       </c>
@@ -13256,7 +13253,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A455" s="27"/>
+      <c r="A455" s="34"/>
       <c r="B455" s="6" t="s">
         <v>415</v>
       </c>
@@ -13266,13 +13263,13 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="18"/>
-      <c r="B456" s="28" t="s">
+      <c r="B456" s="41" t="s">
         <v>745</v>
       </c>
-      <c r="C456" s="29"/>
+      <c r="C456" s="42"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A457" s="25" t="s">
+      <c r="A457" s="32" t="s">
         <v>741</v>
       </c>
       <c r="B457" s="6" t="s">
@@ -13283,7 +13280,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A458" s="26"/>
+      <c r="A458" s="33"/>
       <c r="B458" s="6" t="s">
         <v>417</v>
       </c>
@@ -13292,7 +13289,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A459" s="26"/>
+      <c r="A459" s="33"/>
       <c r="B459" s="6" t="s">
         <v>418</v>
       </c>
@@ -13301,7 +13298,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A460" s="27"/>
+      <c r="A460" s="34"/>
       <c r="B460" s="6" t="s">
         <v>419</v>
       </c>
@@ -13310,7 +13307,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A461" s="25" t="s">
+      <c r="A461" s="32" t="s">
         <v>742</v>
       </c>
       <c r="B461" s="6" t="s">
@@ -13321,7 +13318,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A462" s="26"/>
+      <c r="A462" s="33"/>
       <c r="B462" s="6" t="s">
         <v>421</v>
       </c>
@@ -13330,7 +13327,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A463" s="26"/>
+      <c r="A463" s="33"/>
       <c r="B463" s="6" t="s">
         <v>422</v>
       </c>
@@ -13339,7 +13336,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A464" s="27"/>
+      <c r="A464" s="34"/>
       <c r="B464" s="6" t="s">
         <v>423</v>
       </c>
@@ -13348,7 +13345,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A465" s="25" t="s">
+      <c r="A465" s="32" t="s">
         <v>743</v>
       </c>
       <c r="B465" s="6" t="s">
@@ -13359,7 +13356,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A466" s="26"/>
+      <c r="A466" s="33"/>
       <c r="B466" s="6" t="s">
         <v>425</v>
       </c>
@@ -13368,7 +13365,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A467" s="26"/>
+      <c r="A467" s="33"/>
       <c r="B467" s="6" t="s">
         <v>426</v>
       </c>
@@ -13377,7 +13374,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A468" s="27"/>
+      <c r="A468" s="34"/>
       <c r="B468" s="6" t="s">
         <v>427</v>
       </c>
@@ -13386,7 +13383,7 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A469" s="25" t="s">
+      <c r="A469" s="32" t="s">
         <v>746</v>
       </c>
       <c r="B469" s="6" t="s">
@@ -13397,7 +13394,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A470" s="26"/>
+      <c r="A470" s="33"/>
       <c r="B470" s="6" t="s">
         <v>429</v>
       </c>
@@ -13406,7 +13403,7 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A471" s="26"/>
+      <c r="A471" s="33"/>
       <c r="B471" s="6" t="s">
         <v>430</v>
       </c>
@@ -13415,7 +13412,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A472" s="27"/>
+      <c r="A472" s="34"/>
       <c r="B472" s="6" t="s">
         <v>431</v>
       </c>
@@ -13431,7 +13428,7 @@
       <c r="C473" s="23"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A474" s="25" t="s">
+      <c r="A474" s="32" t="s">
         <v>748</v>
       </c>
       <c r="B474" s="6" t="s">
@@ -13442,7 +13439,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A475" s="27"/>
+      <c r="A475" s="34"/>
       <c r="B475" s="6" t="s">
         <v>433</v>
       </c>
@@ -13451,7 +13448,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A476" s="25" t="s">
+      <c r="A476" s="32" t="s">
         <v>749</v>
       </c>
       <c r="B476" s="6" t="s">
@@ -13462,7 +13459,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A477" s="27"/>
+      <c r="A477" s="34"/>
       <c r="B477" s="6" t="s">
         <v>435</v>
       </c>
@@ -13471,7 +13468,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A478" s="25" t="s">
+      <c r="A478" s="32" t="s">
         <v>750</v>
       </c>
       <c r="B478" s="6" t="s">
@@ -13482,7 +13479,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A479" s="26"/>
+      <c r="A479" s="33"/>
       <c r="B479" s="6" t="s">
         <v>437</v>
       </c>
@@ -13491,7 +13488,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A480" s="26"/>
+      <c r="A480" s="33"/>
       <c r="B480" s="6" t="s">
         <v>438</v>
       </c>
@@ -13500,7 +13497,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A481" s="27"/>
+      <c r="A481" s="34"/>
       <c r="B481" s="6" t="s">
         <v>439</v>
       </c>
@@ -13509,7 +13506,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A482" s="25" t="s">
+      <c r="A482" s="32" t="s">
         <v>751</v>
       </c>
       <c r="B482" s="6" t="s">
@@ -13520,7 +13517,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A483" s="26"/>
+      <c r="A483" s="33"/>
       <c r="B483" s="6" t="s">
         <v>441</v>
       </c>
@@ -13529,7 +13526,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A484" s="26"/>
+      <c r="A484" s="33"/>
       <c r="B484" s="6" t="s">
         <v>442</v>
       </c>
@@ -13538,7 +13535,7 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A485" s="27"/>
+      <c r="A485" s="34"/>
       <c r="B485" s="6" t="s">
         <v>443</v>
       </c>
@@ -13547,7 +13544,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A486" s="25" t="s">
+      <c r="A486" s="32" t="s">
         <v>752</v>
       </c>
       <c r="B486" s="6" t="s">
@@ -13558,7 +13555,7 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A487" s="26"/>
+      <c r="A487" s="33"/>
       <c r="B487" s="6" t="s">
         <v>445</v>
       </c>
@@ -13567,7 +13564,7 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A488" s="26"/>
+      <c r="A488" s="33"/>
       <c r="B488" s="6" t="s">
         <v>446</v>
       </c>
@@ -13576,7 +13573,7 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A489" s="27"/>
+      <c r="A489" s="34"/>
       <c r="B489" s="6" t="s">
         <v>447</v>
       </c>
@@ -13585,7 +13582,7 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A490" s="25" t="s">
+      <c r="A490" s="32" t="s">
         <v>753</v>
       </c>
       <c r="B490" s="6" t="s">
@@ -13596,7 +13593,7 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A491" s="26"/>
+      <c r="A491" s="33"/>
       <c r="B491" s="6" t="s">
         <v>449</v>
       </c>
@@ -13605,7 +13602,7 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A492" s="26"/>
+      <c r="A492" s="33"/>
       <c r="B492" s="6" t="s">
         <v>450</v>
       </c>
@@ -13614,7 +13611,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A493" s="27"/>
+      <c r="A493" s="34"/>
       <c r="B493" s="6" t="s">
         <v>451</v>
       </c>
@@ -13623,7 +13620,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A494" s="25" t="s">
+      <c r="A494" s="32" t="s">
         <v>754</v>
       </c>
       <c r="B494" s="6" t="s">
@@ -13634,7 +13631,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A495" s="26"/>
+      <c r="A495" s="33"/>
       <c r="B495" s="6" t="s">
         <v>453</v>
       </c>
@@ -13643,7 +13640,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A496" s="26"/>
+      <c r="A496" s="33"/>
       <c r="B496" s="6" t="s">
         <v>454</v>
       </c>
@@ -13652,7 +13649,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A497" s="27"/>
+      <c r="A497" s="34"/>
       <c r="B497" s="6" t="s">
         <v>455</v>
       </c>
@@ -13661,7 +13658,7 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A498" s="25" t="s">
+      <c r="A498" s="32" t="s">
         <v>755</v>
       </c>
       <c r="B498" s="6" t="s">
@@ -13672,7 +13669,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A499" s="26"/>
+      <c r="A499" s="33"/>
       <c r="B499" s="6" t="s">
         <v>457</v>
       </c>
@@ -13681,7 +13678,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A500" s="26"/>
+      <c r="A500" s="33"/>
       <c r="B500" s="6" t="s">
         <v>458</v>
       </c>
@@ -13690,7 +13687,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A501" s="27"/>
+      <c r="A501" s="34"/>
       <c r="B501" s="6" t="s">
         <v>459</v>
       </c>
@@ -13699,7 +13696,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A502" s="25" t="s">
+      <c r="A502" s="32" t="s">
         <v>756</v>
       </c>
       <c r="B502" s="6" t="s">
@@ -13710,7 +13707,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A503" s="27"/>
+      <c r="A503" s="34"/>
       <c r="B503" s="6" t="s">
         <v>461</v>
       </c>
@@ -13735,11 +13732,11 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A506" s="24" t="s">
+      <c r="A506" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="B506" s="24"/>
-      <c r="C506" s="24"/>
+      <c r="B506" s="21"/>
+      <c r="C506" s="21"/>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A507" s="7"/>
@@ -13765,7 +13762,7 @@
       <c r="C509" s="23"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A510" s="25" t="s">
+      <c r="A510" s="32" t="s">
         <v>762</v>
       </c>
       <c r="B510" s="6" t="s">
@@ -13776,7 +13773,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A511" s="26"/>
+      <c r="A511" s="33"/>
       <c r="B511" s="6" t="s">
         <v>465</v>
       </c>
@@ -13785,7 +13782,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A512" s="26"/>
+      <c r="A512" s="33"/>
       <c r="B512" s="6" t="s">
         <v>466</v>
       </c>
@@ -13794,7 +13791,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A513" s="26"/>
+      <c r="A513" s="33"/>
       <c r="B513" s="6" t="s">
         <v>467</v>
       </c>
@@ -13803,7 +13800,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A514" s="27"/>
+      <c r="A514" s="34"/>
       <c r="B514" s="6" t="s">
         <v>468</v>
       </c>
@@ -13828,11 +13825,11 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A517" s="24" t="s">
+      <c r="A517" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="B517" s="24"/>
-      <c r="C517" s="24"/>
+      <c r="B517" s="21"/>
+      <c r="C517" s="21"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518" s="7" t="s">
@@ -13951,11 +13948,11 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A530" s="24" t="s">
+      <c r="A530" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="B530" s="24"/>
-      <c r="C530" s="24"/>
+      <c r="B530" s="21"/>
+      <c r="C530" s="21"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531" s="7"/>
@@ -14298,34 +14295,101 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A490:A493"/>
-    <mergeCell ref="A494:A497"/>
-    <mergeCell ref="A502:A503"/>
-    <mergeCell ref="A498:A501"/>
-    <mergeCell ref="B504:C504"/>
-    <mergeCell ref="B533:C533"/>
-    <mergeCell ref="B545:C545"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="B557:C557"/>
-    <mergeCell ref="B507:C507"/>
-    <mergeCell ref="A506:C506"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="A510:A514"/>
-    <mergeCell ref="B515:C515"/>
-    <mergeCell ref="A517:C517"/>
-    <mergeCell ref="B524:C524"/>
-    <mergeCell ref="B527:C527"/>
-    <mergeCell ref="B531:C531"/>
-    <mergeCell ref="A530:C530"/>
-    <mergeCell ref="A469:A472"/>
-    <mergeCell ref="B473:C473"/>
-    <mergeCell ref="A474:A475"/>
-    <mergeCell ref="A444:A447"/>
-    <mergeCell ref="A448:A451"/>
-    <mergeCell ref="A476:A477"/>
-    <mergeCell ref="A478:A481"/>
-    <mergeCell ref="A482:A485"/>
-    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="A427:A429"/>
+    <mergeCell ref="A430:A432"/>
+    <mergeCell ref="A433:A437"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="B442:C442"/>
+    <mergeCell ref="B411:C411"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="A414:A418"/>
+    <mergeCell ref="A419:A421"/>
+    <mergeCell ref="A422:A426"/>
+    <mergeCell ref="A402:A403"/>
+    <mergeCell ref="A404:A405"/>
+    <mergeCell ref="A406:A407"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="A390:A393"/>
+    <mergeCell ref="A394:A395"/>
+    <mergeCell ref="A396:A397"/>
+    <mergeCell ref="A398:A399"/>
+    <mergeCell ref="A400:A401"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="B381:C381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="A384:A385"/>
+    <mergeCell ref="A386:A389"/>
+    <mergeCell ref="A365:A366"/>
+    <mergeCell ref="A367:A368"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="B372:C372"/>
+    <mergeCell ref="A349:A350"/>
+    <mergeCell ref="A351:A355"/>
+    <mergeCell ref="A356:A360"/>
+    <mergeCell ref="A361:A362"/>
+    <mergeCell ref="A363:A364"/>
+    <mergeCell ref="A330:A334"/>
+    <mergeCell ref="A335:A339"/>
+    <mergeCell ref="A340:A344"/>
+    <mergeCell ref="A345:A346"/>
+    <mergeCell ref="A347:A348"/>
+    <mergeCell ref="A306:A310"/>
+    <mergeCell ref="A311:A315"/>
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="A325:A329"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="A221:A225"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A65"/>
     <mergeCell ref="A66:A69"/>
@@ -14350,101 +14414,34 @@
     <mergeCell ref="A140:A141"/>
     <mergeCell ref="A142:A143"/>
     <mergeCell ref="B144:C144"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="A211:A215"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="A221:A225"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="A306:A310"/>
-    <mergeCell ref="A311:A315"/>
-    <mergeCell ref="A316:A320"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A349:A350"/>
-    <mergeCell ref="A351:A355"/>
-    <mergeCell ref="A356:A360"/>
-    <mergeCell ref="A361:A362"/>
-    <mergeCell ref="A363:A364"/>
-    <mergeCell ref="A330:A334"/>
-    <mergeCell ref="A335:A339"/>
-    <mergeCell ref="A340:A344"/>
-    <mergeCell ref="A345:A346"/>
-    <mergeCell ref="A347:A348"/>
-    <mergeCell ref="B374:C374"/>
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="A384:A385"/>
-    <mergeCell ref="A386:A389"/>
-    <mergeCell ref="A365:A366"/>
-    <mergeCell ref="A367:A368"/>
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="B372:C372"/>
-    <mergeCell ref="A402:A403"/>
-    <mergeCell ref="A404:A405"/>
-    <mergeCell ref="A406:A407"/>
-    <mergeCell ref="B408:C408"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="A390:A393"/>
-    <mergeCell ref="A394:A395"/>
-    <mergeCell ref="A396:A397"/>
-    <mergeCell ref="A398:A399"/>
-    <mergeCell ref="A400:A401"/>
-    <mergeCell ref="A427:A429"/>
-    <mergeCell ref="A430:A432"/>
-    <mergeCell ref="A433:A437"/>
-    <mergeCell ref="A438:A441"/>
-    <mergeCell ref="B442:C442"/>
-    <mergeCell ref="B411:C411"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="A414:A418"/>
-    <mergeCell ref="A419:A421"/>
-    <mergeCell ref="A422:A426"/>
+    <mergeCell ref="A469:A472"/>
+    <mergeCell ref="B473:C473"/>
+    <mergeCell ref="A474:A475"/>
+    <mergeCell ref="A444:A447"/>
+    <mergeCell ref="A448:A451"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="A478:A481"/>
+    <mergeCell ref="A482:A485"/>
+    <mergeCell ref="A486:A489"/>
+    <mergeCell ref="A490:A493"/>
+    <mergeCell ref="A494:A497"/>
+    <mergeCell ref="A502:A503"/>
+    <mergeCell ref="A498:A501"/>
+    <mergeCell ref="B504:C504"/>
+    <mergeCell ref="B533:C533"/>
+    <mergeCell ref="B545:C545"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="B557:C557"/>
+    <mergeCell ref="B507:C507"/>
+    <mergeCell ref="A506:C506"/>
+    <mergeCell ref="B509:C509"/>
+    <mergeCell ref="A510:A514"/>
+    <mergeCell ref="B515:C515"/>
+    <mergeCell ref="A517:C517"/>
+    <mergeCell ref="B524:C524"/>
+    <mergeCell ref="B527:C527"/>
+    <mergeCell ref="B531:C531"/>
+    <mergeCell ref="A530:C530"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
